--- a/Solinteg Modbus Registers.xlsx
+++ b/Solinteg Modbus Registers.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41ABC2A9-91FC-4B68-93D2-3BE0F6AAACC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED36B67E-22DB-491D-BA3D-458553DC5CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registers" sheetId="2" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Working Mode" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Registers!$A$1:$P$259</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Registers!$A$1:$Q$259</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2186" uniqueCount="330">
   <si>
     <t>Table</t>
   </si>
@@ -1047,12 +1047,48 @@
   <si>
     <t>none</t>
   </si>
+  <si>
+    <t>sitemap group</t>
+  </si>
+  <si>
+    <t>Infos</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Phase A</t>
+  </si>
+  <si>
+    <t>Phase B</t>
+  </si>
+  <si>
+    <t>Phase C</t>
+  </si>
+  <si>
+    <t>All Phases</t>
+  </si>
+  <si>
+    <t>PV</t>
+  </si>
+  <si>
+    <t>Battery</t>
+  </si>
+  <si>
+    <t>Statistics</t>
+  </si>
+  <si>
+    <t>Config</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1088,12 +1124,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Cali "/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1146,7 +1176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1171,17 +1201,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1208,10 +1237,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1539,12 +1564,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:P259"/>
+  <dimension ref="A1:Q259"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L207" sqref="L207:L208"/>
+      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q149" sqref="Q149:Q152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1565,10 +1589,11 @@
     <col min="14" max="14" width="34.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="11.42578125" style="1"/>
+    <col min="17" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1614,8 +1639,11 @@
       <c r="P1" s="4" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -1646,7 +1674,7 @@
       <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="19">
+      <c r="L2" s="16">
         <v>1</v>
       </c>
       <c r="M2" s="1" t="s">
@@ -1655,8 +1683,11 @@
       <c r="P2" s="1" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="Q2" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1666,14 +1697,14 @@
       <c r="C3" s="1">
         <v>10001</v>
       </c>
-      <c r="L3" s="19">
+      <c r="L3" s="16">
         <v>1</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1683,14 +1714,14 @@
       <c r="C4" s="1">
         <v>10002</v>
       </c>
-      <c r="L4" s="19">
+      <c r="L4" s="16">
         <v>1</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1700,14 +1731,14 @@
       <c r="C5" s="1">
         <v>10003</v>
       </c>
-      <c r="L5" s="19">
+      <c r="L5" s="16">
         <v>1</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1717,14 +1748,14 @@
       <c r="C6" s="1">
         <v>10004</v>
       </c>
-      <c r="L6" s="19">
+      <c r="L6" s="16">
         <v>1</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1734,14 +1765,14 @@
       <c r="C7" s="1">
         <v>10005</v>
       </c>
-      <c r="L7" s="19">
+      <c r="L7" s="16">
         <v>1</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1751,14 +1782,14 @@
       <c r="C8" s="1">
         <v>10006</v>
       </c>
-      <c r="L8" s="19">
+      <c r="L8" s="16">
         <v>1</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1768,14 +1799,14 @@
       <c r="C9" s="1">
         <v>10007</v>
       </c>
-      <c r="L9" s="19">
+      <c r="L9" s="16">
         <v>1</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1806,14 +1837,17 @@
       <c r="J10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="19">
+      <c r="L10" s="16">
         <v>1</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1844,14 +1878,17 @@
       <c r="J11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="19">
+      <c r="L11" s="16">
         <v>1</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1882,11 +1919,11 @@
       <c r="J12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="L12" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1914,17 +1951,20 @@
       <c r="I13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="16" t="s">
+      <c r="J13" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="L13" s="19">
+      <c r="L13" s="16">
         <v>1</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="Q13" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -1952,15 +1992,18 @@
       <c r="I14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="16"/>
-      <c r="L14" s="19">
+      <c r="J14" s="18"/>
+      <c r="L14" s="16">
         <v>1</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1988,15 +2031,18 @@
       <c r="I15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="16"/>
-      <c r="L15" s="19">
+      <c r="J15" s="18"/>
+      <c r="L15" s="16">
         <v>1</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" hidden="1">
+      <c r="Q15" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -2033,8 +2079,11 @@
       <c r="P16" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" ht="90" hidden="1" customHeight="1">
+      <c r="Q16" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="90" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -2071,8 +2120,11 @@
       <c r="P17" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="Q17" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -2100,10 +2152,10 @@
       <c r="I18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="16" t="s">
+      <c r="J18" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="L18" s="19">
+      <c r="L18" s="16">
         <v>1</v>
       </c>
       <c r="M18" s="1" t="s">
@@ -2112,8 +2164,11 @@
       <c r="P18" s="1" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="Q18" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -2141,15 +2196,15 @@
       <c r="I19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J19" s="16"/>
-      <c r="L19" s="19">
+      <c r="J19" s="18"/>
+      <c r="L19" s="16">
         <v>1</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:17">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
@@ -2177,8 +2232,8 @@
       <c r="I20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="16"/>
-      <c r="L20" s="19">
+      <c r="J20" s="18"/>
+      <c r="L20" s="16">
         <v>1</v>
       </c>
       <c r="M20" s="1" t="s">
@@ -2187,8 +2242,11 @@
       <c r="P20" s="1" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="Q20" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
@@ -2216,15 +2274,15 @@
       <c r="I21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J21" s="16"/>
-      <c r="L21" s="19">
+      <c r="J21" s="18"/>
+      <c r="L21" s="16">
         <v>1</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:17">
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
@@ -2252,8 +2310,8 @@
       <c r="I22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="16"/>
-      <c r="L22" s="19">
+      <c r="J22" s="18"/>
+      <c r="L22" s="16">
         <v>1</v>
       </c>
       <c r="M22" s="1" t="s">
@@ -2262,8 +2320,11 @@
       <c r="P22" s="1" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="Q22" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
@@ -2291,15 +2352,15 @@
       <c r="I23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J23" s="16"/>
-      <c r="L23" s="19">
+      <c r="J23" s="18"/>
+      <c r="L23" s="16">
         <v>1</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="24" spans="1:16" hidden="1">
+    <row r="24" spans="1:17">
       <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
@@ -2327,12 +2388,15 @@
       <c r="I24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J24" s="16"/>
+      <c r="J24" s="18"/>
       <c r="P24" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" hidden="1">
+      <c r="Q24" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
@@ -2364,7 +2428,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:16" hidden="1">
+    <row r="26" spans="1:17">
       <c r="A26" s="1" t="s">
         <v>11</v>
       </c>
@@ -2398,8 +2462,11 @@
       <c r="P26" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" hidden="1">
+      <c r="Q26" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="1" t="s">
         <v>11</v>
       </c>
@@ -2410,7 +2477,7 @@
         <v>10997</v>
       </c>
     </row>
-    <row r="28" spans="1:16" hidden="1">
+    <row r="28" spans="1:17">
       <c r="A28" s="1" t="s">
         <v>11</v>
       </c>
@@ -2441,8 +2508,11 @@
       <c r="P28" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" hidden="1">
+      <c r="Q28" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="1" t="s">
         <v>11</v>
       </c>
@@ -2474,7 +2544,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:16" hidden="1">
+    <row r="30" spans="1:17">
       <c r="A30" s="1" t="s">
         <v>11</v>
       </c>
@@ -2508,8 +2578,11 @@
       <c r="P30" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" hidden="1">
+      <c r="Q30" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="1" t="s">
         <v>11</v>
       </c>
@@ -2541,7 +2614,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:16" hidden="1">
+    <row r="32" spans="1:17">
       <c r="A32" s="1" t="s">
         <v>11</v>
       </c>
@@ -2572,8 +2645,11 @@
       <c r="P32" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" hidden="1">
+      <c r="Q32" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" s="1" t="s">
         <v>11</v>
       </c>
@@ -2605,7 +2681,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:16" hidden="1">
+    <row r="34" spans="1:17">
       <c r="A34" s="1" t="s">
         <v>11</v>
       </c>
@@ -2639,8 +2715,11 @@
       <c r="P34" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" hidden="1">
+      <c r="Q34" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" s="1" t="s">
         <v>11</v>
       </c>
@@ -2672,7 +2751,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:16" hidden="1">
+    <row r="36" spans="1:17">
       <c r="A36" s="1" t="s">
         <v>11</v>
       </c>
@@ -2706,8 +2785,11 @@
       <c r="P36" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" hidden="1">
+      <c r="Q36" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" s="1" t="s">
         <v>11</v>
       </c>
@@ -2741,8 +2823,11 @@
       <c r="P37" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" hidden="1">
+      <c r="Q37" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" s="1" t="s">
         <v>11</v>
       </c>
@@ -2776,8 +2861,11 @@
       <c r="P38" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" hidden="1">
+      <c r="Q38" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" s="1" t="s">
         <v>11</v>
       </c>
@@ -2811,8 +2899,11 @@
       <c r="P39" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" hidden="1">
+      <c r="Q39" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" s="1" t="s">
         <v>11</v>
       </c>
@@ -2846,8 +2937,11 @@
       <c r="P40" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" hidden="1">
+      <c r="Q40" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" s="1" t="s">
         <v>11</v>
       </c>
@@ -2881,8 +2975,11 @@
       <c r="P41" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" hidden="1">
+      <c r="Q41" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" s="1" t="s">
         <v>11</v>
       </c>
@@ -2916,8 +3013,11 @@
       <c r="P42" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" hidden="1">
+      <c r="Q42" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" s="1" t="s">
         <v>11</v>
       </c>
@@ -2951,8 +3051,11 @@
       <c r="P43" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" hidden="1">
+      <c r="Q43" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" s="1" t="s">
         <v>11</v>
       </c>
@@ -2986,8 +3089,11 @@
       <c r="P44" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" hidden="1">
+      <c r="Q44" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45" s="1" t="s">
         <v>11</v>
       </c>
@@ -3021,8 +3127,11 @@
       <c r="P45" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" hidden="1">
+      <c r="Q45" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46" s="1" t="s">
         <v>11</v>
       </c>
@@ -3056,8 +3165,11 @@
       <c r="P46" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" hidden="1">
+      <c r="Q46" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" s="1" t="s">
         <v>11</v>
       </c>
@@ -3089,7 +3201,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:16" hidden="1">
+    <row r="48" spans="1:17">
       <c r="A48" s="1" t="s">
         <v>11</v>
       </c>
@@ -3123,8 +3235,11 @@
       <c r="P48" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" hidden="1">
+      <c r="Q48" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49" s="1" t="s">
         <v>11</v>
       </c>
@@ -3156,7 +3271,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:16" hidden="1">
+    <row r="50" spans="1:17">
       <c r="A50" s="1" t="s">
         <v>11</v>
       </c>
@@ -3190,8 +3305,11 @@
       <c r="P50" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" hidden="1">
+      <c r="Q50" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51" s="1" t="s">
         <v>11</v>
       </c>
@@ -3223,7 +3341,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:16" hidden="1">
+    <row r="52" spans="1:17">
       <c r="A52" s="1" t="s">
         <v>11</v>
       </c>
@@ -3254,8 +3372,11 @@
       <c r="P52" s="1" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" hidden="1">
+      <c r="Q52" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
       <c r="A53" s="1" t="s">
         <v>11</v>
       </c>
@@ -3287,7 +3408,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:16" hidden="1">
+    <row r="54" spans="1:17">
       <c r="A54" s="1" t="s">
         <v>11</v>
       </c>
@@ -3318,8 +3439,11 @@
       <c r="P54" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" hidden="1">
+      <c r="Q54" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
       <c r="A55" s="1" t="s">
         <v>11</v>
       </c>
@@ -3351,7 +3475,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:16" hidden="1">
+    <row r="56" spans="1:17">
       <c r="A56" s="1" t="s">
         <v>11</v>
       </c>
@@ -3385,8 +3509,11 @@
       <c r="P56" s="1" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" hidden="1">
+      <c r="Q56" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
       <c r="A57" s="1" t="s">
         <v>11</v>
       </c>
@@ -3420,8 +3547,11 @@
       <c r="P57" s="1" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" hidden="1">
+      <c r="Q57" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
       <c r="A58" s="1" t="s">
         <v>11</v>
       </c>
@@ -3455,8 +3585,11 @@
       <c r="P58" s="1" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" hidden="1">
+      <c r="Q58" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
       <c r="A59" s="1" t="s">
         <v>11</v>
       </c>
@@ -3490,8 +3623,11 @@
       <c r="P59" s="1" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" hidden="1">
+      <c r="Q59" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
       <c r="A60" s="1" t="s">
         <v>11</v>
       </c>
@@ -3525,8 +3661,11 @@
       <c r="P60" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" hidden="1">
+      <c r="Q60" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
       <c r="A61" s="1" t="s">
         <v>11</v>
       </c>
@@ -3560,8 +3699,11 @@
       <c r="P61" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" hidden="1">
+      <c r="Q61" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
       <c r="A62" s="1" t="s">
         <v>11</v>
       </c>
@@ -3595,8 +3737,11 @@
       <c r="P62" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" hidden="1">
+      <c r="Q62" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -3630,8 +3775,11 @@
       <c r="P63" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" hidden="1">
+      <c r="Q63" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
       <c r="A64" s="1" t="s">
         <v>11</v>
       </c>
@@ -3665,8 +3813,11 @@
       <c r="P64" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" hidden="1">
+      <c r="Q64" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
       <c r="A65" s="1" t="s">
         <v>11</v>
       </c>
@@ -3698,7 +3849,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:16" hidden="1">
+    <row r="66" spans="1:17">
       <c r="A66" s="1" t="s">
         <v>11</v>
       </c>
@@ -3732,8 +3883,11 @@
       <c r="P66" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" hidden="1">
+      <c r="Q66" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
       <c r="A67" s="1" t="s">
         <v>11</v>
       </c>
@@ -3765,7 +3919,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:17">
       <c r="A68" s="1" t="s">
         <v>11</v>
       </c>
@@ -3793,10 +3947,10 @@
       <c r="I68" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J68" s="16" t="s">
+      <c r="J68" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="L68" s="19">
+      <c r="L68" s="16">
         <v>1</v>
       </c>
       <c r="M68" s="1" t="s">
@@ -3805,8 +3959,11 @@
       <c r="P68" s="1" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="69" spans="1:16">
+      <c r="Q68" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
       <c r="A69" s="1" t="s">
         <v>11</v>
       </c>
@@ -3834,15 +3991,15 @@
       <c r="I69" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J69" s="16"/>
-      <c r="L69" s="19">
+      <c r="J69" s="18"/>
+      <c r="L69" s="16">
         <v>1</v>
       </c>
       <c r="M69" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="70" spans="1:16" hidden="1">
+    <row r="70" spans="1:17">
       <c r="A70" s="1" t="s">
         <v>11</v>
       </c>
@@ -3876,8 +4033,11 @@
       <c r="P70" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="71" spans="1:16" hidden="1">
+      <c r="Q70" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
       <c r="A71" s="1" t="s">
         <v>11</v>
       </c>
@@ -3911,8 +4071,11 @@
       <c r="P71" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" hidden="1">
+      <c r="Q71" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
       <c r="A72" s="1" t="s">
         <v>11</v>
       </c>
@@ -3946,8 +4109,11 @@
       <c r="P72" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="73" spans="1:16" hidden="1">
+      <c r="Q72" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
       <c r="A73" s="1" t="s">
         <v>11</v>
       </c>
@@ -3981,8 +4147,11 @@
       <c r="P73" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="74" spans="1:16" hidden="1">
+      <c r="Q73" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
       <c r="A74" s="1" t="s">
         <v>11</v>
       </c>
@@ -4014,7 +4183,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:16" hidden="1">
+    <row r="75" spans="1:17">
       <c r="A75" s="1" t="s">
         <v>11</v>
       </c>
@@ -4048,8 +4217,11 @@
       <c r="P75" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="76" spans="1:16" hidden="1">
+      <c r="Q75" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
       <c r="A76" s="1" t="s">
         <v>11</v>
       </c>
@@ -4083,8 +4255,11 @@
       <c r="P76" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="77" spans="1:16" hidden="1">
+      <c r="Q76" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
       <c r="A77" s="1" t="s">
         <v>11</v>
       </c>
@@ -4118,8 +4293,11 @@
       <c r="P77" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="78" spans="1:16" hidden="1">
+      <c r="Q77" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
       <c r="A78" s="1" t="s">
         <v>11</v>
       </c>
@@ -4153,8 +4331,11 @@
       <c r="P78" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="79" spans="1:16" hidden="1">
+      <c r="Q78" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
       <c r="A79" s="1" t="s">
         <v>11</v>
       </c>
@@ -4186,7 +4367,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:16" hidden="1">
+    <row r="80" spans="1:17">
       <c r="A80" s="1" t="s">
         <v>11</v>
       </c>
@@ -4220,8 +4401,11 @@
       <c r="P80" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="81" spans="1:16" hidden="1">
+      <c r="Q80" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
       <c r="A81" s="1" t="s">
         <v>11</v>
       </c>
@@ -4255,8 +4439,11 @@
       <c r="P81" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="82" spans="1:16" hidden="1">
+      <c r="Q81" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17">
       <c r="A82" s="1" t="s">
         <v>11</v>
       </c>
@@ -4290,8 +4477,11 @@
       <c r="P82" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="83" spans="1:16" hidden="1">
+      <c r="Q82" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17">
       <c r="A83" s="1" t="s">
         <v>11</v>
       </c>
@@ -4325,8 +4515,11 @@
       <c r="P83" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="84" spans="1:16" hidden="1">
+      <c r="Q83" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17">
       <c r="A84" s="1" t="s">
         <v>11</v>
       </c>
@@ -4358,7 +4551,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:16" hidden="1">
+    <row r="85" spans="1:17">
       <c r="A85" s="1" t="s">
         <v>11</v>
       </c>
@@ -4392,8 +4585,11 @@
       <c r="P85" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="86" spans="1:16" hidden="1">
+      <c r="Q85" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17">
       <c r="A86" s="1" t="s">
         <v>11</v>
       </c>
@@ -4404,7 +4600,7 @@
         <v>20231</v>
       </c>
     </row>
-    <row r="87" spans="1:16" hidden="1">
+    <row r="87" spans="1:17">
       <c r="A87" s="1" t="s">
         <v>11</v>
       </c>
@@ -4438,8 +4634,11 @@
       <c r="P87" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="88" spans="1:16" hidden="1">
+      <c r="Q87" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17">
       <c r="A88" s="1" t="s">
         <v>11</v>
       </c>
@@ -4471,7 +4670,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:16" hidden="1">
+    <row r="89" spans="1:17">
       <c r="A89" s="1" t="s">
         <v>11</v>
       </c>
@@ -4505,8 +4704,11 @@
       <c r="P89" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="90" spans="1:16" hidden="1">
+      <c r="Q89" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17">
       <c r="A90" s="1" t="s">
         <v>11</v>
       </c>
@@ -4538,7 +4740,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="1:16" hidden="1">
+    <row r="91" spans="1:17">
       <c r="A91" s="1" t="s">
         <v>11</v>
       </c>
@@ -4572,8 +4774,11 @@
       <c r="P91" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="92" spans="1:16" hidden="1">
+      <c r="Q91" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17">
       <c r="A92" s="1" t="s">
         <v>11</v>
       </c>
@@ -4605,7 +4810,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:16" hidden="1">
+    <row r="93" spans="1:17">
       <c r="A93" s="1" t="s">
         <v>11</v>
       </c>
@@ -4639,8 +4844,11 @@
       <c r="P93" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="94" spans="1:16" hidden="1">
+      <c r="Q93" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17">
       <c r="A94" s="1" t="s">
         <v>11</v>
       </c>
@@ -4674,8 +4882,11 @@
       <c r="P94" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="95" spans="1:16" ht="30" hidden="1" customHeight="1">
+      <c r="Q94" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" ht="30" customHeight="1">
       <c r="A95" s="1" t="s">
         <v>11</v>
       </c>
@@ -4715,8 +4926,11 @@
       <c r="P95" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="96" spans="1:16" hidden="1">
+      <c r="Q95" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17">
       <c r="A96" s="1" t="s">
         <v>11</v>
       </c>
@@ -4750,8 +4964,11 @@
       <c r="P96" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="97" spans="1:16" hidden="1">
+      <c r="Q96" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17">
       <c r="A97" s="1" t="s">
         <v>11</v>
       </c>
@@ -4783,7 +5000,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="1:16" hidden="1">
+    <row r="98" spans="1:17">
       <c r="A98" s="1" t="s">
         <v>11</v>
       </c>
@@ -4814,8 +5031,11 @@
       <c r="P98" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="99" spans="1:16" hidden="1">
+      <c r="Q98" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17">
       <c r="A99" s="1" t="s">
         <v>11</v>
       </c>
@@ -4846,8 +5066,11 @@
       <c r="P99" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="100" spans="1:16" hidden="1">
+      <c r="Q99" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17">
       <c r="A100" s="1" t="s">
         <v>11</v>
       </c>
@@ -4878,8 +5101,11 @@
       <c r="P100" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="101" spans="1:16" hidden="1">
+      <c r="Q100" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17">
       <c r="A101" s="1" t="s">
         <v>11</v>
       </c>
@@ -4910,8 +5136,11 @@
       <c r="P101" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="102" spans="1:16" hidden="1">
+      <c r="Q101" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17">
       <c r="A102" s="1" t="s">
         <v>11</v>
       </c>
@@ -4942,8 +5171,11 @@
       <c r="P102" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="103" spans="1:16" hidden="1">
+      <c r="Q102" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17">
       <c r="A103" s="1" t="s">
         <v>11</v>
       </c>
@@ -4974,8 +5206,11 @@
       <c r="P103" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="104" spans="1:16" hidden="1">
+      <c r="Q103" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17">
       <c r="A104" s="1" t="s">
         <v>11</v>
       </c>
@@ -5006,8 +5241,11 @@
       <c r="P104" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="105" spans="1:16" hidden="1">
+      <c r="Q104" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17">
       <c r="A105" s="1" t="s">
         <v>11</v>
       </c>
@@ -5038,8 +5276,11 @@
       <c r="P105" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="106" spans="1:16" hidden="1">
+      <c r="Q105" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17">
       <c r="A106" s="1" t="s">
         <v>11</v>
       </c>
@@ -5070,8 +5311,11 @@
       <c r="P106" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="107" spans="1:16" hidden="1">
+      <c r="Q106" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17">
       <c r="A107" s="1" t="s">
         <v>11</v>
       </c>
@@ -5103,7 +5347,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="108" spans="1:16" hidden="1">
+    <row r="108" spans="1:17">
       <c r="A108" s="1" t="s">
         <v>11</v>
       </c>
@@ -5134,8 +5378,11 @@
       <c r="P108" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="109" spans="1:16" hidden="1">
+      <c r="Q108" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17">
       <c r="A109" s="1" t="s">
         <v>11</v>
       </c>
@@ -5167,7 +5414,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="110" spans="1:16" hidden="1">
+    <row r="110" spans="1:17">
       <c r="A110" s="1" t="s">
         <v>11</v>
       </c>
@@ -5198,8 +5445,11 @@
       <c r="P110" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="111" spans="1:16" hidden="1">
+      <c r="Q110" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17">
       <c r="A111" s="1" t="s">
         <v>11</v>
       </c>
@@ -5231,7 +5481,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:16" hidden="1">
+    <row r="112" spans="1:17">
       <c r="A112" s="1" t="s">
         <v>11</v>
       </c>
@@ -5262,8 +5512,11 @@
       <c r="P112" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="113" spans="1:16" hidden="1">
+      <c r="Q112" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17">
       <c r="A113" s="1" t="s">
         <v>11</v>
       </c>
@@ -5295,7 +5548,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="1:16" hidden="1">
+    <row r="114" spans="1:17">
       <c r="A114" s="1" t="s">
         <v>11</v>
       </c>
@@ -5326,8 +5579,11 @@
       <c r="P114" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="115" spans="1:16" hidden="1">
+      <c r="Q114" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17">
       <c r="A115" s="1" t="s">
         <v>11</v>
       </c>
@@ -5359,7 +5615,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="1:16" hidden="1">
+    <row r="116" spans="1:17">
       <c r="A116" s="1" t="s">
         <v>11</v>
       </c>
@@ -5390,8 +5646,11 @@
       <c r="P116" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="117" spans="1:16" hidden="1">
+      <c r="Q116" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17">
       <c r="A117" s="1" t="s">
         <v>11</v>
       </c>
@@ -5423,7 +5682,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="118" spans="1:16" hidden="1">
+    <row r="118" spans="1:17">
       <c r="A118" s="1" t="s">
         <v>11</v>
       </c>
@@ -5454,8 +5713,11 @@
       <c r="P118" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="119" spans="1:16" hidden="1">
+      <c r="Q118" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17">
       <c r="A119" s="1" t="s">
         <v>11</v>
       </c>
@@ -5487,7 +5749,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="120" spans="1:16" hidden="1">
+    <row r="120" spans="1:17">
       <c r="A120" s="1" t="s">
         <v>11</v>
       </c>
@@ -5518,8 +5780,11 @@
       <c r="P120" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="121" spans="1:16" hidden="1">
+      <c r="Q120" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17">
       <c r="A121" s="1" t="s">
         <v>11</v>
       </c>
@@ -5551,7 +5816,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="122" spans="1:16" hidden="1">
+    <row r="122" spans="1:17">
       <c r="A122" s="1" t="s">
         <v>11</v>
       </c>
@@ -5582,8 +5847,11 @@
       <c r="P122" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="123" spans="1:16" hidden="1">
+      <c r="Q122" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17">
       <c r="A123" s="1" t="s">
         <v>11</v>
       </c>
@@ -5617,8 +5885,11 @@
       <c r="P123" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="124" spans="1:16" hidden="1">
+      <c r="Q123" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17">
       <c r="A124" s="1" t="s">
         <v>11</v>
       </c>
@@ -5652,8 +5923,11 @@
       <c r="P124" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="125" spans="1:16" hidden="1">
+      <c r="Q124" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17">
       <c r="A125" s="1" t="s">
         <v>11</v>
       </c>
@@ -5687,8 +5961,11 @@
       <c r="P125" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="126" spans="1:16" hidden="1">
+      <c r="Q125" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17">
       <c r="A126" s="1" t="s">
         <v>11</v>
       </c>
@@ -5722,8 +5999,11 @@
       <c r="P126" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="127" spans="1:16" hidden="1">
+      <c r="Q126" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17">
       <c r="A127" s="1" t="s">
         <v>11</v>
       </c>
@@ -5757,8 +6037,11 @@
       <c r="P127" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="128" spans="1:16" hidden="1">
+      <c r="Q127" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17">
       <c r="A128" s="1" t="s">
         <v>11</v>
       </c>
@@ -5789,8 +6072,11 @@
       <c r="P128" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="129" spans="1:16" hidden="1">
+      <c r="Q128" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17">
       <c r="A129" s="1" t="s">
         <v>11</v>
       </c>
@@ -5824,8 +6110,11 @@
       <c r="P129" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="130" spans="1:16" hidden="1">
+      <c r="Q129" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17">
       <c r="A130" s="1" t="s">
         <v>11</v>
       </c>
@@ -5859,8 +6148,11 @@
       <c r="P130" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="131" spans="1:16" hidden="1">
+      <c r="Q130" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17">
       <c r="A131" s="1" t="s">
         <v>11</v>
       </c>
@@ -5894,8 +6186,11 @@
       <c r="P131" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="132" spans="1:16" hidden="1">
+      <c r="Q131" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17">
       <c r="A132" s="1" t="s">
         <v>11</v>
       </c>
@@ -5926,8 +6221,11 @@
       <c r="P132" s="1" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="133" spans="1:16" hidden="1">
+      <c r="Q132" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17">
       <c r="A133" s="1" t="s">
         <v>11</v>
       </c>
@@ -5958,8 +6256,11 @@
       <c r="P133" s="1" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="134" spans="1:16" hidden="1">
+      <c r="Q133" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17">
       <c r="A134" s="1" t="s">
         <v>11</v>
       </c>
@@ -5990,8 +6291,11 @@
       <c r="P134" s="1" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="135" spans="1:16" hidden="1">
+      <c r="Q134" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17">
       <c r="A135" s="1" t="s">
         <v>11</v>
       </c>
@@ -6022,8 +6326,11 @@
       <c r="P135" s="1" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="136" spans="1:16" hidden="1">
+      <c r="Q135" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17">
       <c r="A136" s="1" t="s">
         <v>11</v>
       </c>
@@ -6054,8 +6361,11 @@
       <c r="P136" s="1" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="137" spans="1:16" hidden="1">
+      <c r="Q136" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17">
       <c r="A137" s="1" t="s">
         <v>11</v>
       </c>
@@ -6086,8 +6396,11 @@
       <c r="P137" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="138" spans="1:16" hidden="1">
+      <c r="Q137" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17">
       <c r="A138" s="1" t="s">
         <v>11</v>
       </c>
@@ -6121,8 +6434,11 @@
       <c r="P138" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="139" spans="1:16" hidden="1">
+      <c r="Q138" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17">
       <c r="A139" s="1" t="s">
         <v>11</v>
       </c>
@@ -6156,8 +6472,11 @@
       <c r="P139" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="140" spans="1:16" hidden="1">
+      <c r="Q139" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17">
       <c r="A140" s="1" t="s">
         <v>11</v>
       </c>
@@ -6191,8 +6510,11 @@
       <c r="P140" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="141" spans="1:16" hidden="1">
+      <c r="Q140" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17">
       <c r="A141" s="1" t="s">
         <v>11</v>
       </c>
@@ -6223,8 +6545,11 @@
       <c r="P141" s="1" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="142" spans="1:16" hidden="1">
+      <c r="Q141" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17">
       <c r="A142" s="1" t="s">
         <v>11</v>
       </c>
@@ -6238,7 +6563,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="143" spans="1:16" hidden="1">
+    <row r="143" spans="1:17">
       <c r="A143" s="1" t="s">
         <v>11</v>
       </c>
@@ -6269,8 +6594,11 @@
       <c r="P143" s="1" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="144" spans="1:16" hidden="1">
+      <c r="Q143" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17">
       <c r="A144" s="1" t="s">
         <v>11</v>
       </c>
@@ -6284,7 +6612,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="145" spans="1:16" hidden="1">
+    <row r="145" spans="1:17">
       <c r="A145" s="1" t="s">
         <v>11</v>
       </c>
@@ -6315,8 +6643,11 @@
       <c r="P145" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="146" spans="1:16" hidden="1">
+      <c r="Q145" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17">
       <c r="A146" s="1" t="s">
         <v>11</v>
       </c>
@@ -6347,8 +6678,11 @@
       <c r="P146" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="147" spans="1:16" hidden="1">
+      <c r="Q146" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17">
       <c r="A147" s="1" t="s">
         <v>11</v>
       </c>
@@ -6379,8 +6713,11 @@
       <c r="P147" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="148" spans="1:16" hidden="1">
+      <c r="Q147" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17">
       <c r="A148" s="1" t="s">
         <v>11</v>
       </c>
@@ -6411,8 +6748,11 @@
       <c r="P148" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="149" spans="1:16" ht="30" customHeight="1">
+      <c r="Q148" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" ht="30" customHeight="1">
       <c r="A149" s="1" t="s">
         <v>128</v>
       </c>
@@ -6425,13 +6765,13 @@
       <c r="D149" s="1">
         <v>1</v>
       </c>
-      <c r="E149" s="17" t="s">
+      <c r="E149" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="F149" s="16" t="s">
+      <c r="F149" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="G149" s="16" t="s">
+      <c r="G149" s="18" t="s">
         <v>19</v>
       </c>
       <c r="H149" s="1" t="s">
@@ -6443,14 +6783,17 @@
       <c r="J149" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="L149" s="19">
+      <c r="L149" s="16">
         <v>1</v>
       </c>
       <c r="P149" s="1" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="150" spans="1:16" ht="30" customHeight="1">
+      <c r="Q149" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" ht="30" customHeight="1">
       <c r="A150" s="1" t="s">
         <v>128</v>
       </c>
@@ -6463,9 +6806,9 @@
       <c r="D150" s="1">
         <v>1</v>
       </c>
-      <c r="E150" s="17"/>
-      <c r="F150" s="16"/>
-      <c r="G150" s="16"/>
+      <c r="E150" s="19"/>
+      <c r="F150" s="18"/>
+      <c r="G150" s="18"/>
       <c r="H150" s="1" t="s">
         <v>15</v>
       </c>
@@ -6475,14 +6818,17 @@
       <c r="J150" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="L150" s="19">
+      <c r="L150" s="16">
         <v>1</v>
       </c>
       <c r="P150" s="1" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="151" spans="1:16" ht="30" customHeight="1">
+      <c r="Q150" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" ht="30" customHeight="1">
       <c r="A151" s="1" t="s">
         <v>128</v>
       </c>
@@ -6495,9 +6841,9 @@
       <c r="D151" s="1">
         <v>1</v>
       </c>
-      <c r="E151" s="17"/>
-      <c r="F151" s="16"/>
-      <c r="G151" s="16"/>
+      <c r="E151" s="19"/>
+      <c r="F151" s="18"/>
+      <c r="G151" s="18"/>
       <c r="H151" s="1" t="s">
         <v>15</v>
       </c>
@@ -6507,14 +6853,17 @@
       <c r="J151" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="L151" s="19">
+      <c r="L151" s="16">
         <v>1</v>
       </c>
       <c r="P151" s="1" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="152" spans="1:16" hidden="1">
+      <c r="Q151" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17">
       <c r="A152" s="1" t="s">
         <v>128</v>
       </c>
@@ -6548,8 +6897,11 @@
       <c r="P152" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="153" spans="1:16" ht="45" hidden="1" customHeight="1">
+      <c r="Q152" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" ht="45" customHeight="1">
       <c r="A153" s="1" t="s">
         <v>128</v>
       </c>
@@ -6586,8 +6938,11 @@
       <c r="P153" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="154" spans="1:16" ht="30" hidden="1" customHeight="1">
+      <c r="Q153" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" ht="30" customHeight="1">
       <c r="A154" s="1" t="s">
         <v>128</v>
       </c>
@@ -6624,8 +6979,11 @@
       <c r="P154" s="1" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="155" spans="1:16" hidden="1">
+      <c r="Q154" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17">
       <c r="A155" s="1" t="s">
         <v>128</v>
       </c>
@@ -6659,8 +7017,11 @@
       <c r="P155" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="156" spans="1:16" ht="30" hidden="1" customHeight="1">
+      <c r="Q155" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" ht="30" customHeight="1">
       <c r="A156" s="1" t="s">
         <v>128</v>
       </c>
@@ -6700,8 +7061,11 @@
       <c r="P156" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="157" spans="1:16" hidden="1">
+      <c r="Q156" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17">
       <c r="A157" s="1" t="s">
         <v>128</v>
       </c>
@@ -6735,8 +7099,11 @@
       <c r="P157" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="158" spans="1:16" hidden="1">
+      <c r="Q157" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17">
       <c r="A158" s="1" t="s">
         <v>128</v>
       </c>
@@ -6770,8 +7137,11 @@
       <c r="P158" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="159" spans="1:16" hidden="1">
+      <c r="Q158" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17">
       <c r="A159" s="1" t="s">
         <v>128</v>
       </c>
@@ -6805,8 +7175,11 @@
       <c r="P159" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="160" spans="1:16" ht="30" hidden="1" customHeight="1">
+      <c r="Q159" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17" ht="30" customHeight="1">
       <c r="A160" s="1" t="s">
         <v>128</v>
       </c>
@@ -6840,8 +7213,11 @@
       <c r="P160" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="161" spans="1:16" hidden="1">
+      <c r="Q160" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17">
       <c r="A161" s="1" t="s">
         <v>128</v>
       </c>
@@ -6875,8 +7251,11 @@
       <c r="P161" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="162" spans="1:16" ht="75" hidden="1" customHeight="1">
+      <c r="Q161" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17" ht="75" customHeight="1">
       <c r="A162" s="1" t="s">
         <v>128</v>
       </c>
@@ -6913,8 +7292,11 @@
       <c r="P162" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="163" spans="1:16" hidden="1">
+      <c r="Q162" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17">
       <c r="A163" s="1" t="s">
         <v>128</v>
       </c>
@@ -6948,8 +7330,11 @@
       <c r="P163" s="1" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="164" spans="1:16" hidden="1">
+      <c r="Q163" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17">
       <c r="A164" s="1" t="s">
         <v>128</v>
       </c>
@@ -6983,8 +7368,11 @@
       <c r="P164" s="1" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="165" spans="1:16" hidden="1">
+      <c r="Q164" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17">
       <c r="A165" s="1" t="s">
         <v>128</v>
       </c>
@@ -7018,8 +7406,11 @@
       <c r="P165" s="1" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="166" spans="1:16" hidden="1">
+      <c r="Q165" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17">
       <c r="A166" s="1" t="s">
         <v>128</v>
       </c>
@@ -7053,8 +7444,11 @@
       <c r="P166" s="1" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="167" spans="1:16" hidden="1">
+      <c r="Q166" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17">
       <c r="A167" s="1" t="s">
         <v>128</v>
       </c>
@@ -7088,8 +7482,11 @@
       <c r="P167" s="1" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="168" spans="1:16" hidden="1">
+      <c r="Q167" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17">
       <c r="A168" s="1" t="s">
         <v>128</v>
       </c>
@@ -7123,8 +7520,11 @@
       <c r="P168" s="1" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="169" spans="1:16" hidden="1">
+      <c r="Q168" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17">
       <c r="A169" s="1" t="s">
         <v>128</v>
       </c>
@@ -7158,8 +7558,11 @@
       <c r="P169" s="1" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="170" spans="1:16" hidden="1">
+      <c r="Q169" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="170" spans="1:17">
       <c r="A170" s="1" t="s">
         <v>128</v>
       </c>
@@ -7193,8 +7596,11 @@
       <c r="P170" s="1" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="171" spans="1:16" hidden="1">
+      <c r="Q170" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17">
       <c r="A171" s="1" t="s">
         <v>128</v>
       </c>
@@ -7228,8 +7634,11 @@
       <c r="P171" s="1" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="172" spans="1:16" hidden="1">
+      <c r="Q171" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="172" spans="1:17">
       <c r="A172" s="1" t="s">
         <v>128</v>
       </c>
@@ -7263,8 +7672,11 @@
       <c r="P172" s="1" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="173" spans="1:16" hidden="1">
+      <c r="Q172" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="173" spans="1:17">
       <c r="A173" s="1" t="s">
         <v>128</v>
       </c>
@@ -7298,8 +7710,11 @@
       <c r="P173" s="1" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="174" spans="1:16" hidden="1">
+      <c r="Q173" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="174" spans="1:17">
       <c r="A174" s="1" t="s">
         <v>128</v>
       </c>
@@ -7333,8 +7748,11 @@
       <c r="P174" s="1" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="175" spans="1:16" ht="30" hidden="1" customHeight="1">
+      <c r="Q174" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="175" spans="1:17" ht="30" customHeight="1">
       <c r="A175" s="1" t="s">
         <v>128</v>
       </c>
@@ -7371,8 +7789,11 @@
       <c r="P175" s="1" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="176" spans="1:16" hidden="1">
+      <c r="Q175" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="176" spans="1:17">
       <c r="A176" s="1" t="s">
         <v>128</v>
       </c>
@@ -7406,8 +7827,11 @@
       <c r="P176" s="1" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="177" spans="1:16" hidden="1">
+      <c r="Q176" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="177" spans="1:17">
       <c r="A177" s="1" t="s">
         <v>128</v>
       </c>
@@ -7444,8 +7868,11 @@
       <c r="P177" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="178" spans="1:16" ht="30" hidden="1" customHeight="1">
+      <c r="Q177" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="178" spans="1:17" ht="30" customHeight="1">
       <c r="A178" s="1" t="s">
         <v>128</v>
       </c>
@@ -7482,8 +7909,11 @@
       <c r="P178" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="179" spans="1:16" hidden="1">
+      <c r="Q178" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="179" spans="1:17">
       <c r="A179" s="1" t="s">
         <v>128</v>
       </c>
@@ -7514,8 +7944,11 @@
       <c r="P179" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="180" spans="1:16" hidden="1">
+      <c r="Q179" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="180" spans="1:17">
       <c r="A180" s="1" t="s">
         <v>128</v>
       </c>
@@ -7549,8 +7982,11 @@
       <c r="P180" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="181" spans="1:16" ht="30" hidden="1" customHeight="1">
+      <c r="Q180" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="181" spans="1:17" ht="30" customHeight="1">
       <c r="A181" s="1" t="s">
         <v>128</v>
       </c>
@@ -7587,8 +8023,11 @@
       <c r="P181" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="182" spans="1:16" ht="30" hidden="1" customHeight="1">
+      <c r="Q181" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="182" spans="1:17" ht="30" customHeight="1">
       <c r="A182" s="1" t="s">
         <v>128</v>
       </c>
@@ -7625,8 +8064,11 @@
       <c r="P182" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="183" spans="1:16" hidden="1">
+      <c r="Q182" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="183" spans="1:17">
       <c r="A183" s="1" t="s">
         <v>128</v>
       </c>
@@ -7657,8 +8099,11 @@
       <c r="P183" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="184" spans="1:16" ht="45" hidden="1" customHeight="1">
+      <c r="Q183" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17" ht="45" customHeight="1">
       <c r="A184" s="1" t="s">
         <v>128</v>
       </c>
@@ -7695,8 +8140,11 @@
       <c r="P184" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="185" spans="1:16" ht="75" hidden="1" customHeight="1">
+      <c r="Q184" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="185" spans="1:17" ht="75" customHeight="1">
       <c r="A185" s="1" t="s">
         <v>128</v>
       </c>
@@ -7733,8 +8181,11 @@
       <c r="P185" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="186" spans="1:16" hidden="1">
+      <c r="Q185" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="186" spans="1:17">
       <c r="A186" s="1" t="s">
         <v>128</v>
       </c>
@@ -7768,8 +8219,11 @@
       <c r="P186" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="187" spans="1:16" hidden="1">
+      <c r="Q186" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="187" spans="1:17">
       <c r="A187" s="1" t="s">
         <v>128</v>
       </c>
@@ -7803,8 +8257,11 @@
       <c r="P187" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="188" spans="1:16" hidden="1">
+      <c r="Q187" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="188" spans="1:17">
       <c r="A188" s="1" t="s">
         <v>128</v>
       </c>
@@ -7838,8 +8295,11 @@
       <c r="P188" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="189" spans="1:16" hidden="1">
+      <c r="Q188" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="189" spans="1:17">
       <c r="A189" s="1" t="s">
         <v>128</v>
       </c>
@@ -7873,8 +8333,11 @@
       <c r="P189" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="190" spans="1:16" hidden="1">
+      <c r="Q189" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="190" spans="1:17">
       <c r="A190" s="1" t="s">
         <v>128</v>
       </c>
@@ -7905,8 +8368,11 @@
       <c r="P190" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="191" spans="1:16" hidden="1">
+      <c r="Q190" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="191" spans="1:17">
       <c r="A191" s="1" t="s">
         <v>128</v>
       </c>
@@ -7937,8 +8403,11 @@
       <c r="P191" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="192" spans="1:16" hidden="1">
+      <c r="Q191" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="192" spans="1:17">
       <c r="A192" s="1" t="s">
         <v>128</v>
       </c>
@@ -7969,8 +8438,11 @@
       <c r="P192" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="193" spans="1:16" ht="30" hidden="1" customHeight="1">
+      <c r="Q192" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="193" spans="1:17" ht="30" customHeight="1">
       <c r="A193" s="1" t="s">
         <v>128</v>
       </c>
@@ -8010,8 +8482,11 @@
       <c r="P193" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="194" spans="1:16" hidden="1">
+      <c r="Q193" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="194" spans="1:17">
       <c r="A194" s="1" t="s">
         <v>128</v>
       </c>
@@ -8045,8 +8520,11 @@
       <c r="P194" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="195" spans="1:16" hidden="1">
+      <c r="Q194" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="195" spans="1:17">
       <c r="A195" s="1" t="s">
         <v>128</v>
       </c>
@@ -8083,8 +8561,11 @@
       <c r="P195" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="196" spans="1:16" hidden="1">
+      <c r="Q195" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="196" spans="1:17">
       <c r="A196" s="1" t="s">
         <v>128</v>
       </c>
@@ -8118,8 +8599,11 @@
       <c r="P196" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="197" spans="1:16" ht="30" hidden="1" customHeight="1">
+      <c r="Q196" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="197" spans="1:17" ht="30" customHeight="1">
       <c r="A197" s="1" t="s">
         <v>128</v>
       </c>
@@ -8156,8 +8640,11 @@
       <c r="P197" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="198" spans="1:16" hidden="1">
+      <c r="Q197" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="198" spans="1:17">
       <c r="A198" s="1" t="s">
         <v>128</v>
       </c>
@@ -8191,8 +8678,11 @@
       <c r="P198" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="199" spans="1:16" ht="30" hidden="1" customHeight="1">
+      <c r="Q198" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="199" spans="1:17" ht="30" customHeight="1">
       <c r="A199" s="1" t="s">
         <v>128</v>
       </c>
@@ -8229,8 +8719,11 @@
       <c r="P199" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="200" spans="1:16" hidden="1">
+      <c r="Q199" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="200" spans="1:17">
       <c r="A200" s="1" t="s">
         <v>128</v>
       </c>
@@ -8264,8 +8757,11 @@
       <c r="P200" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="201" spans="1:16" ht="60" customHeight="1">
+      <c r="Q200" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="201" spans="1:17" ht="60" customHeight="1">
       <c r="A201" s="1" t="s">
         <v>128</v>
       </c>
@@ -8296,7 +8792,7 @@
       <c r="J201" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="L201" s="19">
+      <c r="L201" s="16">
         <v>1</v>
       </c>
       <c r="M201" s="1" t="s">
@@ -8305,8 +8801,11 @@
       <c r="P201" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="202" spans="1:16" ht="45" hidden="1" customHeight="1">
+      <c r="Q201" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="202" spans="1:17" ht="45" customHeight="1">
       <c r="A202" s="1" t="s">
         <v>128</v>
       </c>
@@ -8340,8 +8839,11 @@
       <c r="P202" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="203" spans="1:16" ht="30" hidden="1" customHeight="1">
+      <c r="Q202" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="203" spans="1:17" ht="30" customHeight="1">
       <c r="A203" s="1" t="s">
         <v>128</v>
       </c>
@@ -8378,8 +8880,11 @@
       <c r="P203" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="204" spans="1:16" ht="30" hidden="1" customHeight="1">
+      <c r="Q203" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="204" spans="1:17" ht="30" customHeight="1">
       <c r="A204" s="1" t="s">
         <v>128</v>
       </c>
@@ -8416,8 +8921,11 @@
       <c r="P204" s="1" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="205" spans="1:16" ht="30" hidden="1" customHeight="1">
+      <c r="Q204" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="205" spans="1:17" ht="30" customHeight="1">
       <c r="A205" s="1" t="s">
         <v>128</v>
       </c>
@@ -8451,8 +8959,11 @@
       <c r="P205" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="206" spans="1:16" ht="30" hidden="1" customHeight="1">
+      <c r="Q205" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="206" spans="1:17" ht="30" customHeight="1">
       <c r="A206" s="1" t="s">
         <v>128</v>
       </c>
@@ -8489,8 +9000,11 @@
       <c r="P206" s="1" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="207" spans="1:16">
+      <c r="Q206" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="207" spans="1:17">
       <c r="A207" s="1" t="s">
         <v>128</v>
       </c>
@@ -8518,17 +9032,20 @@
       <c r="I207" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J207" s="18" t="s">
+      <c r="J207" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="L207" s="20">
+      <c r="L207" s="1">
         <v>1</v>
       </c>
       <c r="P207" s="1" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="208" spans="1:16">
+      <c r="Q207" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="208" spans="1:17">
       <c r="A208" s="1" t="s">
         <v>128</v>
       </c>
@@ -8556,15 +9073,18 @@
       <c r="I208" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J208" s="18"/>
-      <c r="L208" s="20">
+      <c r="J208" s="17"/>
+      <c r="L208" s="1">
         <v>1</v>
       </c>
       <c r="P208" s="1" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="209" spans="1:16" hidden="1">
+      <c r="Q208" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="209" spans="1:17">
       <c r="A209" s="1" t="s">
         <v>128</v>
       </c>
@@ -8592,14 +9112,17 @@
       <c r="I209" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J209" s="18" t="s">
+      <c r="J209" s="17" t="s">
         <v>217</v>
       </c>
       <c r="P209" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="210" spans="1:16" hidden="1">
+      <c r="Q209" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="210" spans="1:17">
       <c r="A210" s="1" t="s">
         <v>128</v>
       </c>
@@ -8627,15 +9150,18 @@
       <c r="I210" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J210" s="18"/>
+      <c r="J210" s="17"/>
       <c r="M210" s="1" t="s">
         <v>289</v>
       </c>
       <c r="P210" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="211" spans="1:16" hidden="1">
+      <c r="Q210" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="211" spans="1:17">
       <c r="A211" s="1" t="s">
         <v>128</v>
       </c>
@@ -8663,15 +9189,18 @@
       <c r="I211" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J211" s="18"/>
+      <c r="J211" s="17"/>
       <c r="O211" s="1">
         <v>1</v>
       </c>
       <c r="P211" s="1" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="212" spans="1:16" hidden="1">
+      <c r="Q211" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="212" spans="1:17">
       <c r="A212" s="1" t="s">
         <v>128</v>
       </c>
@@ -8699,12 +9228,15 @@
       <c r="I212" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J212" s="18"/>
+      <c r="J212" s="17"/>
       <c r="P212" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="213" spans="1:16" hidden="1">
+      <c r="Q212" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="213" spans="1:17">
       <c r="A213" s="1" t="s">
         <v>128</v>
       </c>
@@ -8732,15 +9264,18 @@
       <c r="I213" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J213" s="18"/>
+      <c r="J213" s="17"/>
       <c r="O213" s="1">
         <v>1</v>
       </c>
       <c r="P213" s="1" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="214" spans="1:16">
+      <c r="Q213" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="214" spans="1:17">
       <c r="A214" s="1" t="s">
         <v>128</v>
       </c>
@@ -8768,15 +9303,18 @@
       <c r="I214" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J214" s="18"/>
-      <c r="L214" s="20">
+      <c r="J214" s="17"/>
+      <c r="L214" s="1">
         <v>1</v>
       </c>
       <c r="P214" s="1" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="215" spans="1:16">
+      <c r="Q214" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="215" spans="1:17">
       <c r="A215" s="1" t="s">
         <v>128</v>
       </c>
@@ -8804,15 +9342,18 @@
       <c r="I215" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J215" s="18"/>
-      <c r="L215" s="20">
+      <c r="J215" s="17"/>
+      <c r="L215" s="1">
         <v>1</v>
       </c>
       <c r="P215" s="1" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="216" spans="1:16" hidden="1">
+      <c r="Q215" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="216" spans="1:17">
       <c r="A216" s="1" t="s">
         <v>128</v>
       </c>
@@ -8840,14 +9381,17 @@
       <c r="I216" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J216" s="18" t="s">
+      <c r="J216" s="17" t="s">
         <v>218</v>
       </c>
       <c r="P216" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="217" spans="1:16" hidden="1">
+      <c r="Q216" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="217" spans="1:17">
       <c r="A217" s="1" t="s">
         <v>128</v>
       </c>
@@ -8875,15 +9419,18 @@
       <c r="I217" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J217" s="18"/>
+      <c r="J217" s="17"/>
       <c r="M217" s="1" t="s">
         <v>289</v>
       </c>
       <c r="P217" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="218" spans="1:16" hidden="1">
+      <c r="Q217" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="218" spans="1:17">
       <c r="A218" s="1" t="s">
         <v>128</v>
       </c>
@@ -8911,15 +9458,18 @@
       <c r="I218" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J218" s="18"/>
+      <c r="J218" s="17"/>
       <c r="O218" s="1">
         <v>1</v>
       </c>
       <c r="P218" s="1" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="219" spans="1:16" hidden="1">
+      <c r="Q218" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="219" spans="1:17">
       <c r="A219" s="1" t="s">
         <v>128</v>
       </c>
@@ -8947,12 +9497,15 @@
       <c r="I219" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J219" s="18"/>
+      <c r="J219" s="17"/>
       <c r="P219" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="220" spans="1:16" hidden="1">
+      <c r="Q219" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="220" spans="1:17">
       <c r="A220" s="1" t="s">
         <v>128</v>
       </c>
@@ -8980,15 +9533,18 @@
       <c r="I220" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J220" s="18"/>
+      <c r="J220" s="17"/>
       <c r="O220" s="1">
         <v>1</v>
       </c>
       <c r="P220" s="1" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="221" spans="1:16">
+      <c r="Q220" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="221" spans="1:17">
       <c r="A221" s="1" t="s">
         <v>128</v>
       </c>
@@ -9016,15 +9572,18 @@
       <c r="I221" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J221" s="18"/>
-      <c r="L221" s="20">
+      <c r="J221" s="17"/>
+      <c r="L221" s="1">
         <v>1</v>
       </c>
       <c r="P221" s="1" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="222" spans="1:16">
+      <c r="Q221" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="222" spans="1:17">
       <c r="A222" s="1" t="s">
         <v>128</v>
       </c>
@@ -9052,15 +9611,18 @@
       <c r="I222" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J222" s="18"/>
-      <c r="L222" s="20">
+      <c r="J222" s="17"/>
+      <c r="L222" s="1">
         <v>1</v>
       </c>
       <c r="P222" s="1" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="223" spans="1:16" hidden="1">
+      <c r="Q222" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="223" spans="1:17">
       <c r="A223" s="1" t="s">
         <v>128</v>
       </c>
@@ -9088,14 +9650,17 @@
       <c r="I223" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J223" s="18" t="s">
+      <c r="J223" s="17" t="s">
         <v>219</v>
       </c>
       <c r="P223" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="224" spans="1:16" hidden="1">
+      <c r="Q223" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="224" spans="1:17">
       <c r="A224" s="1" t="s">
         <v>128</v>
       </c>
@@ -9123,15 +9688,18 @@
       <c r="I224" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J224" s="18"/>
+      <c r="J224" s="17"/>
       <c r="M224" s="1" t="s">
         <v>289</v>
       </c>
       <c r="P224" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="225" spans="1:16" hidden="1">
+      <c r="Q224" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="225" spans="1:17">
       <c r="A225" s="1" t="s">
         <v>128</v>
       </c>
@@ -9159,15 +9727,18 @@
       <c r="I225" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J225" s="18"/>
+      <c r="J225" s="17"/>
       <c r="O225" s="1">
         <v>1</v>
       </c>
       <c r="P225" s="1" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="226" spans="1:16" hidden="1">
+      <c r="Q225" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="226" spans="1:17">
       <c r="A226" s="1" t="s">
         <v>128</v>
       </c>
@@ -9195,12 +9766,15 @@
       <c r="I226" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J226" s="18"/>
+      <c r="J226" s="17"/>
       <c r="P226" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="227" spans="1:16" hidden="1">
+      <c r="Q226" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="227" spans="1:17">
       <c r="A227" s="1" t="s">
         <v>128</v>
       </c>
@@ -9228,15 +9802,18 @@
       <c r="I227" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J227" s="18"/>
+      <c r="J227" s="17"/>
       <c r="O227" s="1">
         <v>1</v>
       </c>
       <c r="P227" s="1" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="228" spans="1:16">
+      <c r="Q227" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="228" spans="1:17">
       <c r="A228" s="1" t="s">
         <v>128</v>
       </c>
@@ -9264,15 +9841,18 @@
       <c r="I228" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J228" s="18"/>
-      <c r="L228" s="20">
+      <c r="J228" s="17"/>
+      <c r="L228" s="1">
         <v>1</v>
       </c>
       <c r="P228" s="1" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="229" spans="1:16">
+      <c r="Q228" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="229" spans="1:17">
       <c r="A229" s="1" t="s">
         <v>128</v>
       </c>
@@ -9300,15 +9880,18 @@
       <c r="I229" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J229" s="18"/>
-      <c r="L229" s="20">
+      <c r="J229" s="17"/>
+      <c r="L229" s="1">
         <v>1</v>
       </c>
       <c r="P229" s="1" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="230" spans="1:16" hidden="1">
+      <c r="Q229" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="230" spans="1:17">
       <c r="A230" s="1" t="s">
         <v>128</v>
       </c>
@@ -9336,14 +9919,17 @@
       <c r="I230" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J230" s="18" t="s">
+      <c r="J230" s="17" t="s">
         <v>220</v>
       </c>
       <c r="P230" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="231" spans="1:16" hidden="1">
+      <c r="Q230" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="231" spans="1:17">
       <c r="A231" s="1" t="s">
         <v>128</v>
       </c>
@@ -9371,15 +9957,18 @@
       <c r="I231" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J231" s="18"/>
+      <c r="J231" s="17"/>
       <c r="M231" s="1" t="s">
         <v>289</v>
       </c>
       <c r="P231" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="232" spans="1:16" hidden="1">
+      <c r="Q231" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="232" spans="1:17">
       <c r="A232" s="1" t="s">
         <v>128</v>
       </c>
@@ -9407,15 +9996,18 @@
       <c r="I232" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J232" s="18"/>
+      <c r="J232" s="17"/>
       <c r="O232" s="1">
         <v>1</v>
       </c>
       <c r="P232" s="1" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="233" spans="1:16" hidden="1">
+      <c r="Q232" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="233" spans="1:17">
       <c r="A233" s="1" t="s">
         <v>128</v>
       </c>
@@ -9443,12 +10035,15 @@
       <c r="I233" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J233" s="18"/>
+      <c r="J233" s="17"/>
       <c r="P233" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="234" spans="1:16" hidden="1">
+      <c r="Q233" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="234" spans="1:17">
       <c r="A234" s="1" t="s">
         <v>128</v>
       </c>
@@ -9476,15 +10071,18 @@
       <c r="I234" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J234" s="18"/>
+      <c r="J234" s="17"/>
       <c r="O234" s="1">
         <v>1</v>
       </c>
       <c r="P234" s="1" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="235" spans="1:16">
+      <c r="Q234" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="235" spans="1:17">
       <c r="A235" s="1" t="s">
         <v>128</v>
       </c>
@@ -9512,15 +10110,18 @@
       <c r="I235" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J235" s="18"/>
-      <c r="L235" s="20">
+      <c r="J235" s="17"/>
+      <c r="L235" s="1">
         <v>1</v>
       </c>
       <c r="P235" s="1" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="236" spans="1:16">
+      <c r="Q235" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="236" spans="1:17">
       <c r="A236" s="1" t="s">
         <v>128</v>
       </c>
@@ -9548,15 +10149,18 @@
       <c r="I236" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J236" s="18"/>
-      <c r="L236" s="20">
+      <c r="J236" s="17"/>
+      <c r="L236" s="1">
         <v>1</v>
       </c>
       <c r="P236" s="1" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="237" spans="1:16" hidden="1">
+      <c r="Q236" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="237" spans="1:17">
       <c r="A237" s="1" t="s">
         <v>128</v>
       </c>
@@ -9584,14 +10188,17 @@
       <c r="I237" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J237" s="18" t="s">
+      <c r="J237" s="17" t="s">
         <v>221</v>
       </c>
       <c r="P237" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="238" spans="1:16" hidden="1">
+      <c r="Q237" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="238" spans="1:17">
       <c r="A238" s="1" t="s">
         <v>128</v>
       </c>
@@ -9619,15 +10226,18 @@
       <c r="I238" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J238" s="18"/>
+      <c r="J238" s="17"/>
       <c r="M238" s="1" t="s">
         <v>289</v>
       </c>
       <c r="P238" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="239" spans="1:16" hidden="1">
+      <c r="Q238" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="239" spans="1:17">
       <c r="A239" s="1" t="s">
         <v>128</v>
       </c>
@@ -9655,15 +10265,18 @@
       <c r="I239" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J239" s="18"/>
+      <c r="J239" s="17"/>
       <c r="O239" s="1">
         <v>1</v>
       </c>
       <c r="P239" s="1" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="240" spans="1:16" hidden="1">
+      <c r="Q239" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="240" spans="1:17">
       <c r="A240" s="1" t="s">
         <v>128</v>
       </c>
@@ -9691,12 +10304,15 @@
       <c r="I240" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J240" s="18"/>
+      <c r="J240" s="17"/>
       <c r="P240" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="241" spans="1:16" hidden="1">
+      <c r="Q240" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="241" spans="1:17">
       <c r="A241" s="1" t="s">
         <v>128</v>
       </c>
@@ -9724,15 +10340,18 @@
       <c r="I241" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J241" s="18"/>
+      <c r="J241" s="17"/>
       <c r="O241" s="1">
         <v>1</v>
       </c>
       <c r="P241" s="1" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="242" spans="1:16">
+      <c r="Q241" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="242" spans="1:17">
       <c r="A242" s="1" t="s">
         <v>128</v>
       </c>
@@ -9760,15 +10379,18 @@
       <c r="I242" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J242" s="18"/>
-      <c r="L242" s="20">
+      <c r="J242" s="17"/>
+      <c r="L242" s="1">
         <v>1</v>
       </c>
       <c r="P242" s="1" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="243" spans="1:16">
+      <c r="Q242" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="243" spans="1:17">
       <c r="A243" s="1" t="s">
         <v>128</v>
       </c>
@@ -9796,15 +10418,18 @@
       <c r="I243" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J243" s="18"/>
-      <c r="L243" s="20">
+      <c r="J243" s="17"/>
+      <c r="L243" s="1">
         <v>1</v>
       </c>
       <c r="P243" s="1" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="244" spans="1:16" hidden="1">
+      <c r="Q243" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="244" spans="1:17">
       <c r="A244" s="1" t="s">
         <v>128</v>
       </c>
@@ -9841,8 +10466,11 @@
       <c r="P244" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="245" spans="1:16" ht="30" hidden="1" customHeight="1">
+      <c r="Q244" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="245" spans="1:17" ht="30" customHeight="1">
       <c r="A245" s="1" t="s">
         <v>128</v>
       </c>
@@ -9879,8 +10507,11 @@
       <c r="P245" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="246" spans="1:16" hidden="1">
+      <c r="Q245" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="246" spans="1:17">
       <c r="A246" s="1" t="s">
         <v>128</v>
       </c>
@@ -9908,7 +10539,7 @@
       <c r="I246" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J246" s="18" t="s">
+      <c r="J246" s="17" t="s">
         <v>226</v>
       </c>
       <c r="O246" s="1">
@@ -9917,8 +10548,11 @@
       <c r="P246" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="247" spans="1:16" hidden="1">
+      <c r="Q246" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="247" spans="1:17">
       <c r="A247" s="1" t="s">
         <v>128</v>
       </c>
@@ -9946,15 +10580,18 @@
       <c r="I247" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J247" s="18"/>
+      <c r="J247" s="17"/>
       <c r="O247" s="1">
         <v>1</v>
       </c>
       <c r="P247" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="248" spans="1:16" hidden="1">
+      <c r="Q247" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="248" spans="1:17">
       <c r="A248" s="1" t="s">
         <v>128</v>
       </c>
@@ -9982,15 +10619,18 @@
       <c r="I248" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J248" s="18"/>
+      <c r="J248" s="17"/>
       <c r="O248" s="1">
         <v>1</v>
       </c>
       <c r="P248" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="249" spans="1:16" hidden="1">
+      <c r="Q248" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="249" spans="1:17">
       <c r="A249" s="1" t="s">
         <v>128</v>
       </c>
@@ -10018,7 +10658,7 @@
       <c r="I249" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J249" s="16" t="s">
+      <c r="J249" s="18" t="s">
         <v>223</v>
       </c>
       <c r="O249" s="1">
@@ -10027,8 +10667,11 @@
       <c r="P249" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="250" spans="1:16" hidden="1">
+      <c r="Q249" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="250" spans="1:17">
       <c r="A250" s="1" t="s">
         <v>128</v>
       </c>
@@ -10056,15 +10699,18 @@
       <c r="I250" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J250" s="16"/>
+      <c r="J250" s="18"/>
       <c r="O250" s="1">
         <v>1</v>
       </c>
       <c r="P250" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="251" spans="1:16" hidden="1">
+      <c r="Q250" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="251" spans="1:17">
       <c r="A251" s="1" t="s">
         <v>128</v>
       </c>
@@ -10092,7 +10738,7 @@
       <c r="I251" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J251" s="16" t="s">
+      <c r="J251" s="18" t="s">
         <v>223</v>
       </c>
       <c r="O251" s="1">
@@ -10101,8 +10747,11 @@
       <c r="P251" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="252" spans="1:16" hidden="1">
+      <c r="Q251" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="252" spans="1:17">
       <c r="A252" s="1" t="s">
         <v>128</v>
       </c>
@@ -10130,15 +10779,18 @@
       <c r="I252" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J252" s="16"/>
+      <c r="J252" s="18"/>
       <c r="O252" s="1">
         <v>1</v>
       </c>
       <c r="P252" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="253" spans="1:16" hidden="1">
+      <c r="Q252" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="253" spans="1:17">
       <c r="A253" s="1" t="s">
         <v>128</v>
       </c>
@@ -10166,15 +10818,18 @@
       <c r="I253" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J253" s="16"/>
+      <c r="J253" s="18"/>
       <c r="O253" s="1">
         <v>1</v>
       </c>
       <c r="P253" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="254" spans="1:16" hidden="1">
+      <c r="Q253" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="254" spans="1:17">
       <c r="A254" s="1" t="s">
         <v>128</v>
       </c>
@@ -10202,15 +10857,18 @@
       <c r="I254" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J254" s="16"/>
+      <c r="J254" s="18"/>
       <c r="O254" s="1">
         <v>1</v>
       </c>
       <c r="P254" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="255" spans="1:16" hidden="1">
+      <c r="Q254" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="255" spans="1:17">
       <c r="A255" s="1" t="s">
         <v>128</v>
       </c>
@@ -10238,15 +10896,18 @@
       <c r="I255" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J255" s="16"/>
+      <c r="J255" s="18"/>
       <c r="O255" s="1">
         <v>1</v>
       </c>
       <c r="P255" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="256" spans="1:16" hidden="1">
+      <c r="Q255" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="256" spans="1:17">
       <c r="A256" s="1" t="s">
         <v>128</v>
       </c>
@@ -10274,15 +10935,18 @@
       <c r="I256" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J256" s="16"/>
+      <c r="J256" s="18"/>
       <c r="O256" s="1">
         <v>1</v>
       </c>
       <c r="P256" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="257" spans="1:16" hidden="1">
+      <c r="Q256" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="257" spans="1:17">
       <c r="A257" s="1" t="s">
         <v>128</v>
       </c>
@@ -10310,15 +10974,18 @@
       <c r="I257" s="1">
         <v>10</v>
       </c>
-      <c r="J257" s="16"/>
+      <c r="J257" s="18"/>
       <c r="O257" s="1">
         <v>1</v>
       </c>
       <c r="P257" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="258" spans="1:16" ht="30" hidden="1" customHeight="1">
+      <c r="Q257" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="258" spans="1:17" ht="30" customHeight="1">
       <c r="A258" s="1" t="s">
         <v>239</v>
       </c>
@@ -10355,8 +11022,11 @@
       <c r="P258" s="1" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="259" spans="1:16" hidden="1">
+      <c r="Q258" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="259" spans="1:17">
       <c r="A259" s="1" t="s">
         <v>239</v>
       </c>
@@ -10393,16 +11063,19 @@
       <c r="P259" s="1" t="s">
         <v>315</v>
       </c>
+      <c r="Q259" s="1" t="s">
+        <v>329</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P259" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="11">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:Q259" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="15">
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="J18:J24"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="E149:E151"/>
+    <mergeCell ref="F149:F151"/>
+    <mergeCell ref="G149:G151"/>
     <mergeCell ref="J237:J243"/>
     <mergeCell ref="J246:J248"/>
     <mergeCell ref="J249:J250"/>
@@ -10412,12 +11085,6 @@
     <mergeCell ref="J216:J222"/>
     <mergeCell ref="J223:J229"/>
     <mergeCell ref="J230:J236"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="J18:J24"/>
-    <mergeCell ref="J68:J69"/>
-    <mergeCell ref="E149:E151"/>
-    <mergeCell ref="F149:F151"/>
-    <mergeCell ref="G149:G151"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="0"/>

--- a/Solinteg Modbus Registers.xlsx
+++ b/Solinteg Modbus Registers.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED36B67E-22DB-491D-BA3D-458553DC5CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A3A14E-0343-4E7C-A98B-E67AC724370F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registers" sheetId="2" r:id="rId1"/>
     <sheet name="Data Types" sheetId="5" r:id="rId2"/>
     <sheet name="Working Mode" sheetId="6" r:id="rId3"/>
+    <sheet name="Manual Config" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Registers!$A$1:$Q$259</definedName>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2186" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2317" uniqueCount="403">
   <si>
     <t>Table</t>
   </si>
@@ -1083,12 +1084,231 @@
   <si>
     <t>Control</t>
   </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>PV_Device_SN</t>
+  </si>
+  <si>
+    <t>PV_Device_Model_Info</t>
+  </si>
+  <si>
+    <t>PV_Firmware_Version</t>
+  </si>
+  <si>
+    <t>PV_DateTime</t>
+  </si>
+  <si>
+    <t>PV_Fault_1_0</t>
+  </si>
+  <si>
+    <t>PV_Fault_1_1</t>
+  </si>
+  <si>
+    <t>PV_Fault_1_2</t>
+  </si>
+  <si>
+    <t>PV_Fault_1_3</t>
+  </si>
+  <si>
+    <t>PV_Fault_1_4</t>
+  </si>
+  <si>
+    <t>PV_Fault_1_5</t>
+  </si>
+  <si>
+    <t>PV_Fault_1_6</t>
+  </si>
+  <si>
+    <t>PV_Fault_1_7</t>
+  </si>
+  <si>
+    <t>PV_Fault_1_8</t>
+  </si>
+  <si>
+    <t>PV_Fault_2_1</t>
+  </si>
+  <si>
+    <t>PV_Fault_2_2</t>
+  </si>
+  <si>
+    <t>PV_Fault_2_3</t>
+  </si>
+  <si>
+    <t>PV_Fault_2_4</t>
+  </si>
+  <si>
+    <t>PV_Fault_2_5</t>
+  </si>
+  <si>
+    <t>PV_Fault_2_6</t>
+  </si>
+  <si>
+    <t>PV_Fault_2_7</t>
+  </si>
+  <si>
+    <t>PV_Fault_3_0</t>
+  </si>
+  <si>
+    <t>PV_Fault_3_1</t>
+  </si>
+  <si>
+    <t>PV_Fault_3_2</t>
+  </si>
+  <si>
+    <t>PV_Fault_3_3</t>
+  </si>
+  <si>
+    <t>PV_Fault_3_4</t>
+  </si>
+  <si>
+    <t>PV_Fault_3_5</t>
+  </si>
+  <si>
+    <t>PV_Fault_3_6</t>
+  </si>
+  <si>
+    <t>PV_Fault_3_7</t>
+  </si>
+  <si>
+    <t>PV_Fault_3_8</t>
+  </si>
+  <si>
+    <t>PV_Fault_3_9</t>
+  </si>
+  <si>
+    <t>PV_Fault_3_10</t>
+  </si>
+  <si>
+    <t>PV_Fault_ARM_0</t>
+  </si>
+  <si>
+    <t>PV_Fault_ARM_1</t>
+  </si>
+  <si>
+    <t>PV_Fault_ARM_2</t>
+  </si>
+  <si>
+    <t>PV_Period_1_Enabled</t>
+  </si>
+  <si>
+    <t>PV_Period_2_Enabled</t>
+  </si>
+  <si>
+    <t>PV_Period_3_Enabled</t>
+  </si>
+  <si>
+    <t>PV_Period_4_Enabled</t>
+  </si>
+  <si>
+    <t>PV_Period_5_Enabled</t>
+  </si>
+  <si>
+    <t>PV_Period_6_Enabled</t>
+  </si>
+  <si>
+    <t>PV_Period_1_Start_H</t>
+  </si>
+  <si>
+    <t>PV_Period_2_Start_H</t>
+  </si>
+  <si>
+    <t>PV_Period_3_Start_H</t>
+  </si>
+  <si>
+    <t>PV_Period_4_Start_H</t>
+  </si>
+  <si>
+    <t>PV_Period_5_Start_H</t>
+  </si>
+  <si>
+    <t>PV_Period_6_Start_H</t>
+  </si>
+  <si>
+    <t>PV_Period_1_Start_M</t>
+  </si>
+  <si>
+    <t>PV_Period_2_Start_M</t>
+  </si>
+  <si>
+    <t>PV_Period_3_Start_M</t>
+  </si>
+  <si>
+    <t>PV_Period_4_Start_M</t>
+  </si>
+  <si>
+    <t>PV_Period_5_Start_M</t>
+  </si>
+  <si>
+    <t>PV_Period_6_Start_M</t>
+  </si>
+  <si>
+    <t>PV_Period_1_Stop_H</t>
+  </si>
+  <si>
+    <t>PV_Period_2_Stop_H</t>
+  </si>
+  <si>
+    <t>PV_Period_3_Stop_H</t>
+  </si>
+  <si>
+    <t>PV_Period_4_Stop_H</t>
+  </si>
+  <si>
+    <t>PV_Period_5_Stop_H</t>
+  </si>
+  <si>
+    <t>PV_Period_6_Stop_H</t>
+  </si>
+  <si>
+    <t>PV_Period_1_Stop_M</t>
+  </si>
+  <si>
+    <t>PV_Period_2_Stop_M</t>
+  </si>
+  <si>
+    <t>PV_Period_3_Stop_M</t>
+  </si>
+  <si>
+    <t>PV_Period_4_Stop_M</t>
+  </si>
+  <si>
+    <t>PV_Period_5_Stop_M</t>
+  </si>
+  <si>
+    <t>PV_Period_6_Stop_M</t>
+  </si>
+  <si>
+    <t>const MANUAL_DATA = [];</t>
+  </si>
+  <si>
+    <t>Period X</t>
+  </si>
+  <si>
+    <t>Period 1</t>
+  </si>
+  <si>
+    <t>Period 2</t>
+  </si>
+  <si>
+    <t>Period 3</t>
+  </si>
+  <si>
+    <t>Period 4</t>
+  </si>
+  <si>
+    <t>Period 5</t>
+  </si>
+  <si>
+    <t>Period 6</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1124,6 +1344,24 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Cali "/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1176,7 +1414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1202,14 +1440,16 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1566,9 +1806,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q259"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q149" sqref="Q149:Q152"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q243" sqref="Q243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1951,7 +2191,7 @@
       <c r="I13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="18" t="s">
+      <c r="J13" s="19" t="s">
         <v>27</v>
       </c>
       <c r="L13" s="16">
@@ -1992,7 +2232,7 @@
       <c r="I14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="18"/>
+      <c r="J14" s="19"/>
       <c r="L14" s="16">
         <v>1</v>
       </c>
@@ -2031,7 +2271,7 @@
       <c r="I15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="18"/>
+      <c r="J15" s="19"/>
       <c r="L15" s="16">
         <v>1</v>
       </c>
@@ -2152,7 +2392,7 @@
       <c r="I18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="18" t="s">
+      <c r="J18" s="19" t="s">
         <v>34</v>
       </c>
       <c r="L18" s="16">
@@ -2196,7 +2436,7 @@
       <c r="I19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J19" s="18"/>
+      <c r="J19" s="19"/>
       <c r="L19" s="16">
         <v>1</v>
       </c>
@@ -2232,7 +2472,7 @@
       <c r="I20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="18"/>
+      <c r="J20" s="19"/>
       <c r="L20" s="16">
         <v>1</v>
       </c>
@@ -2274,7 +2514,7 @@
       <c r="I21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J21" s="18"/>
+      <c r="J21" s="19"/>
       <c r="L21" s="16">
         <v>1</v>
       </c>
@@ -2310,7 +2550,7 @@
       <c r="I22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="18"/>
+      <c r="J22" s="19"/>
       <c r="L22" s="16">
         <v>1</v>
       </c>
@@ -2352,7 +2592,7 @@
       <c r="I23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J23" s="18"/>
+      <c r="J23" s="19"/>
       <c r="L23" s="16">
         <v>1</v>
       </c>
@@ -2388,7 +2628,7 @@
       <c r="I24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J24" s="18"/>
+      <c r="J24" s="19"/>
       <c r="P24" s="1" t="s">
         <v>310</v>
       </c>
@@ -3947,7 +4187,7 @@
       <c r="I68" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J68" s="18" t="s">
+      <c r="J68" s="19" t="s">
         <v>34</v>
       </c>
       <c r="L68" s="16">
@@ -3991,7 +4231,7 @@
       <c r="I69" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J69" s="18"/>
+      <c r="J69" s="19"/>
       <c r="L69" s="16">
         <v>1</v>
       </c>
@@ -6765,13 +7005,13 @@
       <c r="D149" s="1">
         <v>1</v>
       </c>
-      <c r="E149" s="19" t="s">
+      <c r="E149" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="F149" s="18" t="s">
+      <c r="F149" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="G149" s="18" t="s">
+      <c r="G149" s="19" t="s">
         <v>19</v>
       </c>
       <c r="H149" s="1" t="s">
@@ -6806,9 +7046,9 @@
       <c r="D150" s="1">
         <v>1</v>
       </c>
-      <c r="E150" s="19"/>
-      <c r="F150" s="18"/>
-      <c r="G150" s="18"/>
+      <c r="E150" s="20"/>
+      <c r="F150" s="19"/>
+      <c r="G150" s="19"/>
       <c r="H150" s="1" t="s">
         <v>15</v>
       </c>
@@ -6841,9 +7081,9 @@
       <c r="D151" s="1">
         <v>1</v>
       </c>
-      <c r="E151" s="19"/>
-      <c r="F151" s="18"/>
-      <c r="G151" s="18"/>
+      <c r="E151" s="20"/>
+      <c r="F151" s="19"/>
+      <c r="G151" s="19"/>
       <c r="H151" s="1" t="s">
         <v>15</v>
       </c>
@@ -8802,7 +9042,7 @@
         <v>306</v>
       </c>
       <c r="Q201" s="1" t="s">
-        <v>328</v>
+        <v>396</v>
       </c>
     </row>
     <row r="202" spans="1:17" ht="45" customHeight="1">
@@ -8840,7 +9080,7 @@
         <v>314</v>
       </c>
       <c r="Q202" s="1" t="s">
-        <v>328</v>
+        <v>397</v>
       </c>
     </row>
     <row r="203" spans="1:17" ht="30" customHeight="1">
@@ -8881,7 +9121,7 @@
         <v>310</v>
       </c>
       <c r="Q203" s="1" t="s">
-        <v>328</v>
+        <v>397</v>
       </c>
     </row>
     <row r="204" spans="1:17" ht="30" customHeight="1">
@@ -8922,7 +9162,7 @@
         <v>317</v>
       </c>
       <c r="Q204" s="1" t="s">
-        <v>328</v>
+        <v>397</v>
       </c>
     </row>
     <row r="205" spans="1:17" ht="30" customHeight="1">
@@ -8960,7 +9200,7 @@
         <v>310</v>
       </c>
       <c r="Q205" s="1" t="s">
-        <v>328</v>
+        <v>397</v>
       </c>
     </row>
     <row r="206" spans="1:17" ht="30" customHeight="1">
@@ -9001,7 +9241,7 @@
         <v>317</v>
       </c>
       <c r="Q206" s="1" t="s">
-        <v>328</v>
+        <v>397</v>
       </c>
     </row>
     <row r="207" spans="1:17">
@@ -9032,7 +9272,7 @@
       <c r="I207" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J207" s="17" t="s">
+      <c r="J207" s="21" t="s">
         <v>214</v>
       </c>
       <c r="L207" s="1">
@@ -9042,7 +9282,7 @@
         <v>311</v>
       </c>
       <c r="Q207" s="1" t="s">
-        <v>328</v>
+        <v>397</v>
       </c>
     </row>
     <row r="208" spans="1:17">
@@ -9073,7 +9313,7 @@
       <c r="I208" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J208" s="17"/>
+      <c r="J208" s="21"/>
       <c r="L208" s="1">
         <v>1</v>
       </c>
@@ -9081,7 +9321,7 @@
         <v>311</v>
       </c>
       <c r="Q208" s="1" t="s">
-        <v>328</v>
+        <v>397</v>
       </c>
     </row>
     <row r="209" spans="1:17">
@@ -9112,14 +9352,14 @@
       <c r="I209" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J209" s="17" t="s">
+      <c r="J209" s="21" t="s">
         <v>217</v>
       </c>
       <c r="P209" s="1" t="s">
         <v>314</v>
       </c>
       <c r="Q209" s="1" t="s">
-        <v>328</v>
+        <v>398</v>
       </c>
     </row>
     <row r="210" spans="1:17">
@@ -9150,7 +9390,7 @@
       <c r="I210" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J210" s="17"/>
+      <c r="J210" s="21"/>
       <c r="M210" s="1" t="s">
         <v>289</v>
       </c>
@@ -9158,7 +9398,7 @@
         <v>310</v>
       </c>
       <c r="Q210" s="1" t="s">
-        <v>328</v>
+        <v>398</v>
       </c>
     </row>
     <row r="211" spans="1:17">
@@ -9189,7 +9429,7 @@
       <c r="I211" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J211" s="17"/>
+      <c r="J211" s="21"/>
       <c r="O211" s="1">
         <v>1</v>
       </c>
@@ -9197,7 +9437,7 @@
         <v>317</v>
       </c>
       <c r="Q211" s="1" t="s">
-        <v>328</v>
+        <v>398</v>
       </c>
     </row>
     <row r="212" spans="1:17">
@@ -9228,12 +9468,12 @@
       <c r="I212" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J212" s="17"/>
+      <c r="J212" s="21"/>
       <c r="P212" s="1" t="s">
         <v>310</v>
       </c>
       <c r="Q212" s="1" t="s">
-        <v>328</v>
+        <v>398</v>
       </c>
     </row>
     <row r="213" spans="1:17">
@@ -9264,7 +9504,7 @@
       <c r="I213" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J213" s="17"/>
+      <c r="J213" s="21"/>
       <c r="O213" s="1">
         <v>1</v>
       </c>
@@ -9272,7 +9512,7 @@
         <v>317</v>
       </c>
       <c r="Q213" s="1" t="s">
-        <v>328</v>
+        <v>398</v>
       </c>
     </row>
     <row r="214" spans="1:17">
@@ -9303,7 +9543,7 @@
       <c r="I214" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J214" s="17"/>
+      <c r="J214" s="21"/>
       <c r="L214" s="1">
         <v>1</v>
       </c>
@@ -9311,7 +9551,7 @@
         <v>311</v>
       </c>
       <c r="Q214" s="1" t="s">
-        <v>328</v>
+        <v>398</v>
       </c>
     </row>
     <row r="215" spans="1:17">
@@ -9342,7 +9582,7 @@
       <c r="I215" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J215" s="17"/>
+      <c r="J215" s="21"/>
       <c r="L215" s="1">
         <v>1</v>
       </c>
@@ -9350,7 +9590,7 @@
         <v>311</v>
       </c>
       <c r="Q215" s="1" t="s">
-        <v>328</v>
+        <v>398</v>
       </c>
     </row>
     <row r="216" spans="1:17">
@@ -9381,14 +9621,14 @@
       <c r="I216" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J216" s="17" t="s">
+      <c r="J216" s="21" t="s">
         <v>218</v>
       </c>
       <c r="P216" s="1" t="s">
         <v>314</v>
       </c>
       <c r="Q216" s="1" t="s">
-        <v>328</v>
+        <v>399</v>
       </c>
     </row>
     <row r="217" spans="1:17">
@@ -9419,7 +9659,7 @@
       <c r="I217" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J217" s="17"/>
+      <c r="J217" s="21"/>
       <c r="M217" s="1" t="s">
         <v>289</v>
       </c>
@@ -9427,7 +9667,7 @@
         <v>310</v>
       </c>
       <c r="Q217" s="1" t="s">
-        <v>328</v>
+        <v>399</v>
       </c>
     </row>
     <row r="218" spans="1:17">
@@ -9458,7 +9698,7 @@
       <c r="I218" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J218" s="17"/>
+      <c r="J218" s="21"/>
       <c r="O218" s="1">
         <v>1</v>
       </c>
@@ -9466,7 +9706,7 @@
         <v>317</v>
       </c>
       <c r="Q218" s="1" t="s">
-        <v>328</v>
+        <v>399</v>
       </c>
     </row>
     <row r="219" spans="1:17">
@@ -9497,12 +9737,12 @@
       <c r="I219" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J219" s="17"/>
+      <c r="J219" s="21"/>
       <c r="P219" s="1" t="s">
         <v>310</v>
       </c>
       <c r="Q219" s="1" t="s">
-        <v>328</v>
+        <v>399</v>
       </c>
     </row>
     <row r="220" spans="1:17">
@@ -9533,7 +9773,7 @@
       <c r="I220" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J220" s="17"/>
+      <c r="J220" s="21"/>
       <c r="O220" s="1">
         <v>1</v>
       </c>
@@ -9541,7 +9781,7 @@
         <v>317</v>
       </c>
       <c r="Q220" s="1" t="s">
-        <v>328</v>
+        <v>399</v>
       </c>
     </row>
     <row r="221" spans="1:17">
@@ -9572,7 +9812,7 @@
       <c r="I221" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J221" s="17"/>
+      <c r="J221" s="21"/>
       <c r="L221" s="1">
         <v>1</v>
       </c>
@@ -9580,7 +9820,7 @@
         <v>311</v>
       </c>
       <c r="Q221" s="1" t="s">
-        <v>328</v>
+        <v>399</v>
       </c>
     </row>
     <row r="222" spans="1:17">
@@ -9611,7 +9851,7 @@
       <c r="I222" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J222" s="17"/>
+      <c r="J222" s="21"/>
       <c r="L222" s="1">
         <v>1</v>
       </c>
@@ -9619,7 +9859,7 @@
         <v>311</v>
       </c>
       <c r="Q222" s="1" t="s">
-        <v>328</v>
+        <v>399</v>
       </c>
     </row>
     <row r="223" spans="1:17">
@@ -9650,14 +9890,14 @@
       <c r="I223" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J223" s="17" t="s">
+      <c r="J223" s="21" t="s">
         <v>219</v>
       </c>
       <c r="P223" s="1" t="s">
         <v>314</v>
       </c>
       <c r="Q223" s="1" t="s">
-        <v>328</v>
+        <v>400</v>
       </c>
     </row>
     <row r="224" spans="1:17">
@@ -9688,7 +9928,7 @@
       <c r="I224" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J224" s="17"/>
+      <c r="J224" s="21"/>
       <c r="M224" s="1" t="s">
         <v>289</v>
       </c>
@@ -9696,7 +9936,7 @@
         <v>310</v>
       </c>
       <c r="Q224" s="1" t="s">
-        <v>328</v>
+        <v>400</v>
       </c>
     </row>
     <row r="225" spans="1:17">
@@ -9727,7 +9967,7 @@
       <c r="I225" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J225" s="17"/>
+      <c r="J225" s="21"/>
       <c r="O225" s="1">
         <v>1</v>
       </c>
@@ -9735,7 +9975,7 @@
         <v>317</v>
       </c>
       <c r="Q225" s="1" t="s">
-        <v>328</v>
+        <v>400</v>
       </c>
     </row>
     <row r="226" spans="1:17">
@@ -9766,12 +10006,12 @@
       <c r="I226" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J226" s="17"/>
+      <c r="J226" s="21"/>
       <c r="P226" s="1" t="s">
         <v>310</v>
       </c>
       <c r="Q226" s="1" t="s">
-        <v>328</v>
+        <v>400</v>
       </c>
     </row>
     <row r="227" spans="1:17">
@@ -9802,7 +10042,7 @@
       <c r="I227" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J227" s="17"/>
+      <c r="J227" s="21"/>
       <c r="O227" s="1">
         <v>1</v>
       </c>
@@ -9810,7 +10050,7 @@
         <v>317</v>
       </c>
       <c r="Q227" s="1" t="s">
-        <v>328</v>
+        <v>400</v>
       </c>
     </row>
     <row r="228" spans="1:17">
@@ -9841,7 +10081,7 @@
       <c r="I228" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J228" s="17"/>
+      <c r="J228" s="21"/>
       <c r="L228" s="1">
         <v>1</v>
       </c>
@@ -9849,7 +10089,7 @@
         <v>311</v>
       </c>
       <c r="Q228" s="1" t="s">
-        <v>328</v>
+        <v>400</v>
       </c>
     </row>
     <row r="229" spans="1:17">
@@ -9880,7 +10120,7 @@
       <c r="I229" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J229" s="17"/>
+      <c r="J229" s="21"/>
       <c r="L229" s="1">
         <v>1</v>
       </c>
@@ -9888,7 +10128,7 @@
         <v>311</v>
       </c>
       <c r="Q229" s="1" t="s">
-        <v>328</v>
+        <v>400</v>
       </c>
     </row>
     <row r="230" spans="1:17">
@@ -9919,14 +10159,14 @@
       <c r="I230" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J230" s="17" t="s">
+      <c r="J230" s="21" t="s">
         <v>220</v>
       </c>
       <c r="P230" s="1" t="s">
         <v>314</v>
       </c>
       <c r="Q230" s="1" t="s">
-        <v>328</v>
+        <v>401</v>
       </c>
     </row>
     <row r="231" spans="1:17">
@@ -9957,7 +10197,7 @@
       <c r="I231" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J231" s="17"/>
+      <c r="J231" s="21"/>
       <c r="M231" s="1" t="s">
         <v>289</v>
       </c>
@@ -9965,7 +10205,7 @@
         <v>310</v>
       </c>
       <c r="Q231" s="1" t="s">
-        <v>328</v>
+        <v>401</v>
       </c>
     </row>
     <row r="232" spans="1:17">
@@ -9996,7 +10236,7 @@
       <c r="I232" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J232" s="17"/>
+      <c r="J232" s="21"/>
       <c r="O232" s="1">
         <v>1</v>
       </c>
@@ -10004,7 +10244,7 @@
         <v>317</v>
       </c>
       <c r="Q232" s="1" t="s">
-        <v>328</v>
+        <v>401</v>
       </c>
     </row>
     <row r="233" spans="1:17">
@@ -10035,12 +10275,12 @@
       <c r="I233" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J233" s="17"/>
+      <c r="J233" s="21"/>
       <c r="P233" s="1" t="s">
         <v>310</v>
       </c>
       <c r="Q233" s="1" t="s">
-        <v>328</v>
+        <v>401</v>
       </c>
     </row>
     <row r="234" spans="1:17">
@@ -10071,7 +10311,7 @@
       <c r="I234" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J234" s="17"/>
+      <c r="J234" s="21"/>
       <c r="O234" s="1">
         <v>1</v>
       </c>
@@ -10079,7 +10319,7 @@
         <v>317</v>
       </c>
       <c r="Q234" s="1" t="s">
-        <v>328</v>
+        <v>401</v>
       </c>
     </row>
     <row r="235" spans="1:17">
@@ -10110,7 +10350,7 @@
       <c r="I235" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J235" s="17"/>
+      <c r="J235" s="21"/>
       <c r="L235" s="1">
         <v>1</v>
       </c>
@@ -10118,7 +10358,7 @@
         <v>311</v>
       </c>
       <c r="Q235" s="1" t="s">
-        <v>328</v>
+        <v>401</v>
       </c>
     </row>
     <row r="236" spans="1:17">
@@ -10149,7 +10389,7 @@
       <c r="I236" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J236" s="17"/>
+      <c r="J236" s="21"/>
       <c r="L236" s="1">
         <v>1</v>
       </c>
@@ -10157,7 +10397,7 @@
         <v>311</v>
       </c>
       <c r="Q236" s="1" t="s">
-        <v>328</v>
+        <v>401</v>
       </c>
     </row>
     <row r="237" spans="1:17">
@@ -10188,14 +10428,14 @@
       <c r="I237" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J237" s="17" t="s">
+      <c r="J237" s="21" t="s">
         <v>221</v>
       </c>
       <c r="P237" s="1" t="s">
         <v>314</v>
       </c>
       <c r="Q237" s="1" t="s">
-        <v>328</v>
+        <v>402</v>
       </c>
     </row>
     <row r="238" spans="1:17">
@@ -10226,7 +10466,7 @@
       <c r="I238" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J238" s="17"/>
+      <c r="J238" s="21"/>
       <c r="M238" s="1" t="s">
         <v>289</v>
       </c>
@@ -10234,7 +10474,7 @@
         <v>310</v>
       </c>
       <c r="Q238" s="1" t="s">
-        <v>328</v>
+        <v>402</v>
       </c>
     </row>
     <row r="239" spans="1:17">
@@ -10265,7 +10505,7 @@
       <c r="I239" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J239" s="17"/>
+      <c r="J239" s="21"/>
       <c r="O239" s="1">
         <v>1</v>
       </c>
@@ -10273,7 +10513,7 @@
         <v>317</v>
       </c>
       <c r="Q239" s="1" t="s">
-        <v>328</v>
+        <v>402</v>
       </c>
     </row>
     <row r="240" spans="1:17">
@@ -10304,12 +10544,12 @@
       <c r="I240" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J240" s="17"/>
+      <c r="J240" s="21"/>
       <c r="P240" s="1" t="s">
         <v>310</v>
       </c>
       <c r="Q240" s="1" t="s">
-        <v>328</v>
+        <v>402</v>
       </c>
     </row>
     <row r="241" spans="1:17">
@@ -10340,7 +10580,7 @@
       <c r="I241" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J241" s="17"/>
+      <c r="J241" s="21"/>
       <c r="O241" s="1">
         <v>1</v>
       </c>
@@ -10348,7 +10588,7 @@
         <v>317</v>
       </c>
       <c r="Q241" s="1" t="s">
-        <v>328</v>
+        <v>402</v>
       </c>
     </row>
     <row r="242" spans="1:17">
@@ -10379,7 +10619,7 @@
       <c r="I242" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J242" s="17"/>
+      <c r="J242" s="21"/>
       <c r="L242" s="1">
         <v>1</v>
       </c>
@@ -10387,7 +10627,7 @@
         <v>311</v>
       </c>
       <c r="Q242" s="1" t="s">
-        <v>328</v>
+        <v>402</v>
       </c>
     </row>
     <row r="243" spans="1:17">
@@ -10418,7 +10658,7 @@
       <c r="I243" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J243" s="17"/>
+      <c r="J243" s="21"/>
       <c r="L243" s="1">
         <v>1</v>
       </c>
@@ -10426,7 +10666,7 @@
         <v>311</v>
       </c>
       <c r="Q243" s="1" t="s">
-        <v>328</v>
+        <v>402</v>
       </c>
     </row>
     <row r="244" spans="1:17">
@@ -10539,7 +10779,7 @@
       <c r="I246" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J246" s="17" t="s">
+      <c r="J246" s="21" t="s">
         <v>226</v>
       </c>
       <c r="O246" s="1">
@@ -10580,7 +10820,7 @@
       <c r="I247" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J247" s="17"/>
+      <c r="J247" s="21"/>
       <c r="O247" s="1">
         <v>1</v>
       </c>
@@ -10619,7 +10859,7 @@
       <c r="I248" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J248" s="17"/>
+      <c r="J248" s="21"/>
       <c r="O248" s="1">
         <v>1</v>
       </c>
@@ -10658,7 +10898,7 @@
       <c r="I249" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J249" s="18" t="s">
+      <c r="J249" s="19" t="s">
         <v>223</v>
       </c>
       <c r="O249" s="1">
@@ -10699,7 +10939,7 @@
       <c r="I250" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J250" s="18"/>
+      <c r="J250" s="19"/>
       <c r="O250" s="1">
         <v>1</v>
       </c>
@@ -10738,7 +10978,7 @@
       <c r="I251" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J251" s="18" t="s">
+      <c r="J251" s="19" t="s">
         <v>223</v>
       </c>
       <c r="O251" s="1">
@@ -10779,7 +11019,7 @@
       <c r="I252" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J252" s="18"/>
+      <c r="J252" s="19"/>
       <c r="O252" s="1">
         <v>1</v>
       </c>
@@ -10818,7 +11058,7 @@
       <c r="I253" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J253" s="18"/>
+      <c r="J253" s="19"/>
       <c r="O253" s="1">
         <v>1</v>
       </c>
@@ -10857,7 +11097,7 @@
       <c r="I254" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J254" s="18"/>
+      <c r="J254" s="19"/>
       <c r="O254" s="1">
         <v>1</v>
       </c>
@@ -10896,7 +11136,7 @@
       <c r="I255" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J255" s="18"/>
+      <c r="J255" s="19"/>
       <c r="O255" s="1">
         <v>1</v>
       </c>
@@ -10935,7 +11175,7 @@
       <c r="I256" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J256" s="18"/>
+      <c r="J256" s="19"/>
       <c r="O256" s="1">
         <v>1</v>
       </c>
@@ -10974,7 +11214,7 @@
       <c r="I257" s="1">
         <v>10</v>
       </c>
-      <c r="J257" s="18"/>
+      <c r="J257" s="19"/>
       <c r="O257" s="1">
         <v>1</v>
       </c>
@@ -11070,12 +11310,6 @@
   </sheetData>
   <autoFilter ref="A1:Q259" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="15">
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="J18:J24"/>
-    <mergeCell ref="J68:J69"/>
-    <mergeCell ref="E149:E151"/>
-    <mergeCell ref="F149:F151"/>
-    <mergeCell ref="G149:G151"/>
     <mergeCell ref="J237:J243"/>
     <mergeCell ref="J246:J248"/>
     <mergeCell ref="J249:J250"/>
@@ -11085,6 +11319,12 @@
     <mergeCell ref="J216:J222"/>
     <mergeCell ref="J223:J229"/>
     <mergeCell ref="J230:J236"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="J18:J24"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="E149:E151"/>
+    <mergeCell ref="F149:F151"/>
+    <mergeCell ref="G149:G151"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="0"/>
@@ -11781,4 +12021,807 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A145AA7-9EA1-42EE-A176-4D22B50CD094}">
+  <dimension ref="A1:D65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:B41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="1"/>
+    <col min="4" max="4" width="11.42578125" style="17"/>
+    <col min="5" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D2" s="18" t="str">
+        <f>"MANUAL_DATA.push({item: '"&amp;A2&amp;"', sitemap: '"&amp;B2&amp;"'});"</f>
+        <v>MANUAL_DATA.push({item: 'PV_Device_SN', sitemap: 'Infos'});</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D3" s="18" t="str">
+        <f t="shared" ref="D3:D65" si="0">"MANUAL_DATA.push({item: '"&amp;A3&amp;"', sitemap: '"&amp;B3&amp;"'});"</f>
+        <v>MANUAL_DATA.push({item: 'PV_Device_Model_Info', sitemap: 'Infos'});</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D4" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>MANUAL_DATA.push({item: 'PV_Firmware_Version', sitemap: 'Infos'});</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D5" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>MANUAL_DATA.push({item: 'PV_DateTime', sitemap: 'Infos'});</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D6" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>MANUAL_DATA.push({item: 'PV_Fault_1_0', sitemap: 'Status'});</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D7" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>MANUAL_DATA.push({item: 'PV_Fault_1_1', sitemap: 'Status'});</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D8" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>MANUAL_DATA.push({item: 'PV_Fault_1_2', sitemap: 'Status'});</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D9" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>MANUAL_DATA.push({item: 'PV_Fault_1_3', sitemap: 'Status'});</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D10" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>MANUAL_DATA.push({item: 'PV_Fault_1_4', sitemap: 'Status'});</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D11" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>MANUAL_DATA.push({item: 'PV_Fault_1_5', sitemap: 'Status'});</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D12" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>MANUAL_DATA.push({item: 'PV_Fault_1_6', sitemap: 'Status'});</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D13" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>MANUAL_DATA.push({item: 'PV_Fault_1_7', sitemap: 'Status'});</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D14" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>MANUAL_DATA.push({item: 'PV_Fault_1_8', sitemap: 'Status'});</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D15" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>MANUAL_DATA.push({item: 'PV_Fault_2_1', sitemap: 'Status'});</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D16" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>MANUAL_DATA.push({item: 'PV_Fault_2_2', sitemap: 'Status'});</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D17" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>MANUAL_DATA.push({item: 'PV_Fault_2_3', sitemap: 'Status'});</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D18" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>MANUAL_DATA.push({item: 'PV_Fault_2_4', sitemap: 'Status'});</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D19" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>MANUAL_DATA.push({item: 'PV_Fault_2_5', sitemap: 'Status'});</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D20" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>MANUAL_DATA.push({item: 'PV_Fault_2_6', sitemap: 'Status'});</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D21" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>MANUAL_DATA.push({item: 'PV_Fault_2_7', sitemap: 'Status'});</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D22" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>MANUAL_DATA.push({item: 'PV_Fault_3_0', sitemap: 'Status'});</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D23" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>MANUAL_DATA.push({item: 'PV_Fault_3_1', sitemap: 'Status'});</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D24" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>MANUAL_DATA.push({item: 'PV_Fault_3_2', sitemap: 'Status'});</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D25" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>MANUAL_DATA.push({item: 'PV_Fault_3_3', sitemap: 'Status'});</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D26" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>MANUAL_DATA.push({item: 'PV_Fault_3_4', sitemap: 'Status'});</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D27" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>MANUAL_DATA.push({item: 'PV_Fault_3_5', sitemap: 'Status'});</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D28" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>MANUAL_DATA.push({item: 'PV_Fault_3_6', sitemap: 'Status'});</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D29" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>MANUAL_DATA.push({item: 'PV_Fault_3_7', sitemap: 'Status'});</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D30" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>MANUAL_DATA.push({item: 'PV_Fault_3_8', sitemap: 'Status'});</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D31" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>MANUAL_DATA.push({item: 'PV_Fault_3_9', sitemap: 'Status'});</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D32" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>MANUAL_DATA.push({item: 'PV_Fault_3_10', sitemap: 'Status'});</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D33" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>MANUAL_DATA.push({item: 'PV_Fault_ARM_0', sitemap: 'Status'});</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D34" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>MANUAL_DATA.push({item: 'PV_Fault_ARM_1', sitemap: 'Status'});</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D35" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>MANUAL_DATA.push({item: 'PV_Fault_ARM_2', sitemap: 'Status'});</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D36" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>MANUAL_DATA.push({item: 'PV_Period_1_Enabled', sitemap: 'Period 1'});</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D37" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>MANUAL_DATA.push({item: 'PV_Period_2_Enabled', sitemap: 'Period 2'});</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D38" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>MANUAL_DATA.push({item: 'PV_Period_3_Enabled', sitemap: 'Period 3'});</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D39" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>MANUAL_DATA.push({item: 'PV_Period_4_Enabled', sitemap: 'Period 4'});</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D40" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>MANUAL_DATA.push({item: 'PV_Period_5_Enabled', sitemap: 'Period 5'});</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D41" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>MANUAL_DATA.push({item: 'PV_Period_6_Enabled', sitemap: 'Period 6'});</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D42" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>MANUAL_DATA.push({item: 'PV_Period_1_Start_H', sitemap: 'Period 1'});</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D43" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>MANUAL_DATA.push({item: 'PV_Period_2_Start_H', sitemap: 'Period 2'});</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D44" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>MANUAL_DATA.push({item: 'PV_Period_3_Start_H', sitemap: 'Period 3'});</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D45" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>MANUAL_DATA.push({item: 'PV_Period_4_Start_H', sitemap: 'Period 4'});</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D46" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>MANUAL_DATA.push({item: 'PV_Period_5_Start_H', sitemap: 'Period 5'});</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D47" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>MANUAL_DATA.push({item: 'PV_Period_6_Start_H', sitemap: 'Period 6'});</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D48" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>MANUAL_DATA.push({item: 'PV_Period_1_Start_M', sitemap: 'Period 1'});</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D49" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>MANUAL_DATA.push({item: 'PV_Period_2_Start_M', sitemap: 'Period 2'});</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D50" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>MANUAL_DATA.push({item: 'PV_Period_3_Start_M', sitemap: 'Period 3'});</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D51" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>MANUAL_DATA.push({item: 'PV_Period_4_Start_M', sitemap: 'Period 4'});</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D52" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>MANUAL_DATA.push({item: 'PV_Period_5_Start_M', sitemap: 'Period 5'});</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D53" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>MANUAL_DATA.push({item: 'PV_Period_6_Start_M', sitemap: 'Period 6'});</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D54" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>MANUAL_DATA.push({item: 'PV_Period_1_Stop_H', sitemap: 'Period 1'});</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D55" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>MANUAL_DATA.push({item: 'PV_Period_2_Stop_H', sitemap: 'Period 2'});</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D56" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>MANUAL_DATA.push({item: 'PV_Period_3_Stop_H', sitemap: 'Period 3'});</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D57" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>MANUAL_DATA.push({item: 'PV_Period_4_Stop_H', sitemap: 'Period 4'});</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D58" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>MANUAL_DATA.push({item: 'PV_Period_5_Stop_H', sitemap: 'Period 5'});</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D59" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>MANUAL_DATA.push({item: 'PV_Period_6_Stop_H', sitemap: 'Period 6'});</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D60" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>MANUAL_DATA.push({item: 'PV_Period_1_Stop_M', sitemap: 'Period 1'});</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D61" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>MANUAL_DATA.push({item: 'PV_Period_2_Stop_M', sitemap: 'Period 2'});</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D62" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>MANUAL_DATA.push({item: 'PV_Period_3_Stop_M', sitemap: 'Period 3'});</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D63" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>MANUAL_DATA.push({item: 'PV_Period_4_Stop_M', sitemap: 'Period 4'});</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D64" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>MANUAL_DATA.push({item: 'PV_Period_5_Stop_M', sitemap: 'Period 5'});</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D65" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>MANUAL_DATA.push({item: 'PV_Period_6_Stop_M', sitemap: 'Period 6'});</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Solinteg Modbus Registers.xlsx
+++ b/Solinteg Modbus Registers.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A3A14E-0343-4E7C-A98B-E67AC724370F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1EFB93-EB5B-48D3-A9BD-548E5A3379D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registers" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2317" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2319" uniqueCount="403">
   <si>
     <t>Table</t>
   </si>
@@ -251,9 +251,6 @@
     <t>Total Generation Hours</t>
   </si>
   <si>
-    <t>H</t>
-  </si>
-  <si>
     <t>Total PV Input Power</t>
   </si>
   <si>
@@ -659,9 +656,6 @@
     <t>Priority of Power Output Setting</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>0: PV Output Priority
 1: Battery Output Priority</t>
   </si>
@@ -1007,9 +1001,6 @@
     <t>solinteg-battery-proto.js</t>
   </si>
   <si>
-    <t>solinteg-saftey-code.js</t>
-  </si>
-  <si>
     <t>keyring</t>
   </si>
   <si>
@@ -1302,6 +1293,15 @@
   </si>
   <si>
     <t>Period 6</t>
+  </si>
+  <si>
+    <t>solinteg-safety-code.js</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>solinteg-fw-version.js</t>
   </si>
 </sst>
 </file>
@@ -1414,7 +1414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1444,9 +1444,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1806,9 +1803,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q259"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q243" sqref="Q243"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1868,19 +1865,19 @@
         <v>10</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>292</v>
-      </c>
       <c r="P1" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1918,13 +1915,13 @@
         <v>1</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1941,7 +1938,7 @@
         <v>1</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1958,7 +1955,7 @@
         <v>1</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1975,7 +1972,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1992,7 +1989,7 @@
         <v>1</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2009,7 +2006,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2026,7 +2023,7 @@
         <v>1</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2043,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2081,10 +2078,10 @@
         <v>1</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2121,11 +2118,14 @@
       <c r="L11" s="16">
         <v>1</v>
       </c>
+      <c r="N11" s="1" t="s">
+        <v>402</v>
+      </c>
       <c r="P11" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2198,10 +2198,10 @@
         <v>1</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2237,10 +2237,10 @@
         <v>1</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -2276,10 +2276,10 @@
         <v>1</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -2314,13 +2314,13 @@
         <v>25</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>304</v>
+        <v>400</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="90" customHeight="1">
@@ -2355,13 +2355,13 @@
         <v>32</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -2399,13 +2399,13 @@
         <v>1</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -2441,7 +2441,7 @@
         <v>1</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -2477,13 +2477,13 @@
         <v>1</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -2519,7 +2519,7 @@
         <v>1</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -2555,13 +2555,13 @@
         <v>1</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2597,7 +2597,7 @@
         <v>1</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2630,10 +2630,10 @@
       </c>
       <c r="J24" s="19"/>
       <c r="P24" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2700,10 +2700,10 @@
         <v>25</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2746,10 +2746,10 @@
         <v>41</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2816,10 +2816,10 @@
         <v>25</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2883,10 +2883,10 @@
         <v>47</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2953,10 +2953,10 @@
         <v>25</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -3023,10 +3023,10 @@
         <v>25</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -3061,10 +3061,10 @@
         <v>25</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -3099,10 +3099,10 @@
         <v>25</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -3137,10 +3137,10 @@
         <v>25</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -3175,10 +3175,10 @@
         <v>25</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -3213,10 +3213,10 @@
         <v>25</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -3251,10 +3251,10 @@
         <v>25</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -3289,10 +3289,10 @@
         <v>25</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -3327,10 +3327,10 @@
         <v>25</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3365,10 +3365,10 @@
         <v>25</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3385,7 +3385,7 @@
         <v>2</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>13</v>
@@ -3403,10 +3403,10 @@
         <v>25</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3455,7 +3455,7 @@
         <v>2</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>13</v>
@@ -3473,10 +3473,10 @@
         <v>25</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3525,7 +3525,7 @@
         <v>2</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>13</v>
@@ -3543,10 +3543,10 @@
         <v>25</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3604,16 +3604,16 @@
         <v>22</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>64</v>
+        <v>401</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>16</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3662,7 +3662,7 @@
         <v>2</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>13</v>
@@ -3677,10 +3677,10 @@
         <v>41</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3729,16 +3729,16 @@
         <v>1</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H56" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>51</v>
@@ -3747,10 +3747,10 @@
         <v>25</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -3767,16 +3767,16 @@
         <v>1</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G57" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H57" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>51</v>
@@ -3785,10 +3785,10 @@
         <v>25</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -3805,16 +3805,16 @@
         <v>1</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G58" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H58" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>51</v>
@@ -3823,10 +3823,10 @@
         <v>25</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -3843,16 +3843,16 @@
         <v>1</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G59" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H59" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>51</v>
@@ -3861,10 +3861,10 @@
         <v>25</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="Q59" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -3881,7 +3881,7 @@
         <v>1</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>13</v>
@@ -3899,10 +3899,10 @@
         <v>25</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -3919,7 +3919,7 @@
         <v>1</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>13</v>
@@ -3937,10 +3937,10 @@
         <v>25</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -3957,7 +3957,7 @@
         <v>1</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>13</v>
@@ -3975,10 +3975,10 @@
         <v>25</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -3995,7 +3995,7 @@
         <v>1</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>13</v>
@@ -4013,10 +4013,10 @@
         <v>25</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -4033,7 +4033,7 @@
         <v>2</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>13</v>
@@ -4051,10 +4051,10 @@
         <v>25</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q64" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="65" spans="1:17">
@@ -4103,7 +4103,7 @@
         <v>2</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>13</v>
@@ -4121,10 +4121,10 @@
         <v>25</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="67" spans="1:17">
@@ -4173,7 +4173,7 @@
         <v>2</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>13</v>
@@ -4194,13 +4194,13 @@
         <v>1</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="69" spans="1:17">
@@ -4236,7 +4236,7 @@
         <v>1</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -4253,7 +4253,7 @@
         <v>1</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>13</v>
@@ -4268,13 +4268,13 @@
         <v>51</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="71" spans="1:17">
@@ -4291,7 +4291,7 @@
         <v>1</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>13</v>
@@ -4306,13 +4306,13 @@
         <v>51</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q71" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="72" spans="1:17">
@@ -4329,7 +4329,7 @@
         <v>1</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>13</v>
@@ -4344,13 +4344,13 @@
         <v>47</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="73" spans="1:17">
@@ -4367,7 +4367,7 @@
         <v>2</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>13</v>
@@ -4382,13 +4382,13 @@
         <v>41</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q73" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="74" spans="1:17">
@@ -4437,7 +4437,7 @@
         <v>1</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>13</v>
@@ -4452,13 +4452,13 @@
         <v>51</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q75" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="76" spans="1:17">
@@ -4475,7 +4475,7 @@
         <v>1</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>13</v>
@@ -4490,13 +4490,13 @@
         <v>51</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q76" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="77" spans="1:17">
@@ -4513,7 +4513,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>13</v>
@@ -4528,13 +4528,13 @@
         <v>47</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P77" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q77" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="78" spans="1:17">
@@ -4551,7 +4551,7 @@
         <v>2</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>13</v>
@@ -4566,13 +4566,13 @@
         <v>41</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="79" spans="1:17">
@@ -4621,7 +4621,7 @@
         <v>1</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>13</v>
@@ -4636,13 +4636,13 @@
         <v>51</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q80" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="81" spans="1:17">
@@ -4659,7 +4659,7 @@
         <v>1</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>13</v>
@@ -4674,13 +4674,13 @@
         <v>51</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P81" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q81" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="82" spans="1:17">
@@ -4697,7 +4697,7 @@
         <v>1</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>13</v>
@@ -4712,13 +4712,13 @@
         <v>47</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="83" spans="1:17">
@@ -4735,7 +4735,7 @@
         <v>2</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>13</v>
@@ -4750,13 +4750,13 @@
         <v>41</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q83" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="84" spans="1:17">
@@ -4805,7 +4805,7 @@
         <v>2</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>13</v>
@@ -4820,13 +4820,13 @@
         <v>41</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q85" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="86" spans="1:17">
@@ -4854,7 +4854,7 @@
         <v>2</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>13</v>
@@ -4869,13 +4869,13 @@
         <v>41</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P87" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q87" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="88" spans="1:17">
@@ -4924,7 +4924,7 @@
         <v>2</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>13</v>
@@ -4939,13 +4939,13 @@
         <v>41</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P89" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q89" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="90" spans="1:17">
@@ -4994,7 +4994,7 @@
         <v>2</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>13</v>
@@ -5009,13 +5009,13 @@
         <v>41</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P91" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q91" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="92" spans="1:17">
@@ -5064,7 +5064,7 @@
         <v>1</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>13</v>
@@ -5079,13 +5079,13 @@
         <v>51</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P93" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Q93" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="94" spans="1:17">
@@ -5102,13 +5102,13 @@
         <v>1</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>56</v>
@@ -5117,13 +5117,13 @@
         <v>51</v>
       </c>
       <c r="J94" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="P94" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Q94" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="95" spans="1:17" ht="30" customHeight="1">
@@ -5140,7 +5140,7 @@
         <v>1</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>13</v>
@@ -5155,19 +5155,19 @@
         <v>16</v>
       </c>
       <c r="J95" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="96" spans="1:17">
@@ -5184,7 +5184,7 @@
         <v>2</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>13</v>
@@ -5199,13 +5199,13 @@
         <v>41</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Q96" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="97" spans="1:17">
@@ -5254,7 +5254,7 @@
         <v>1</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>13</v>
@@ -5269,10 +5269,10 @@
         <v>51</v>
       </c>
       <c r="P98" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q98" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="99" spans="1:17">
@@ -5289,7 +5289,7 @@
         <v>1</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>13</v>
@@ -5304,10 +5304,10 @@
         <v>51</v>
       </c>
       <c r="P99" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q99" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="100" spans="1:17">
@@ -5324,7 +5324,7 @@
         <v>1</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>13</v>
@@ -5339,10 +5339,10 @@
         <v>51</v>
       </c>
       <c r="P100" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q100" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="101" spans="1:17">
@@ -5359,7 +5359,7 @@
         <v>1</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>13</v>
@@ -5374,10 +5374,10 @@
         <v>51</v>
       </c>
       <c r="P101" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q101" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="102" spans="1:17">
@@ -5394,7 +5394,7 @@
         <v>1</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>13</v>
@@ -5409,10 +5409,10 @@
         <v>51</v>
       </c>
       <c r="P102" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q102" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="103" spans="1:17">
@@ -5429,7 +5429,7 @@
         <v>1</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>13</v>
@@ -5444,10 +5444,10 @@
         <v>51</v>
       </c>
       <c r="P103" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q103" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="104" spans="1:17">
@@ -5464,7 +5464,7 @@
         <v>1</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>13</v>
@@ -5479,10 +5479,10 @@
         <v>51</v>
       </c>
       <c r="P104" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q104" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="105" spans="1:17">
@@ -5499,7 +5499,7 @@
         <v>1</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>13</v>
@@ -5514,10 +5514,10 @@
         <v>51</v>
       </c>
       <c r="P105" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q105" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="106" spans="1:17">
@@ -5534,7 +5534,7 @@
         <v>2</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>13</v>
@@ -5549,10 +5549,10 @@
         <v>51</v>
       </c>
       <c r="P106" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q106" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="107" spans="1:17">
@@ -5601,7 +5601,7 @@
         <v>2</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>13</v>
@@ -5616,10 +5616,10 @@
         <v>51</v>
       </c>
       <c r="P108" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q108" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="109" spans="1:17">
@@ -5668,7 +5668,7 @@
         <v>2</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>13</v>
@@ -5683,10 +5683,10 @@
         <v>51</v>
       </c>
       <c r="P110" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q110" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="111" spans="1:17">
@@ -5735,7 +5735,7 @@
         <v>2</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>13</v>
@@ -5750,10 +5750,10 @@
         <v>51</v>
       </c>
       <c r="P112" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q112" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="113" spans="1:17">
@@ -5802,7 +5802,7 @@
         <v>2</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>13</v>
@@ -5817,10 +5817,10 @@
         <v>51</v>
       </c>
       <c r="P114" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q114" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="115" spans="1:17">
@@ -5869,7 +5869,7 @@
         <v>2</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>13</v>
@@ -5884,10 +5884,10 @@
         <v>51</v>
       </c>
       <c r="P116" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q116" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="117" spans="1:17">
@@ -5936,7 +5936,7 @@
         <v>2</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>13</v>
@@ -5951,10 +5951,10 @@
         <v>51</v>
       </c>
       <c r="P118" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q118" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="119" spans="1:17">
@@ -6003,7 +6003,7 @@
         <v>2</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>13</v>
@@ -6018,10 +6018,10 @@
         <v>51</v>
       </c>
       <c r="P120" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q120" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="121" spans="1:17">
@@ -6070,7 +6070,7 @@
         <v>1</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>13</v>
@@ -6085,10 +6085,10 @@
         <v>16</v>
       </c>
       <c r="P122" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Q122" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="123" spans="1:17">
@@ -6105,7 +6105,7 @@
         <v>1</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>13</v>
@@ -6123,10 +6123,10 @@
         <v>25</v>
       </c>
       <c r="P123" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Q123" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="124" spans="1:17">
@@ -6143,7 +6143,7 @@
         <v>1</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>13</v>
@@ -6161,10 +6161,10 @@
         <v>25</v>
       </c>
       <c r="P124" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Q124" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="125" spans="1:17">
@@ -6181,7 +6181,7 @@
         <v>1</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>13</v>
@@ -6199,10 +6199,10 @@
         <v>25</v>
       </c>
       <c r="P125" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Q125" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="126" spans="1:17">
@@ -6219,7 +6219,7 @@
         <v>1</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>13</v>
@@ -6237,10 +6237,10 @@
         <v>25</v>
       </c>
       <c r="P126" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Q126" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="127" spans="1:17">
@@ -6257,7 +6257,7 @@
         <v>1</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>13</v>
@@ -6275,10 +6275,10 @@
         <v>25</v>
       </c>
       <c r="P127" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Q127" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="128" spans="1:17">
@@ -6295,7 +6295,7 @@
         <v>1</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>13</v>
@@ -6310,10 +6310,10 @@
         <v>51</v>
       </c>
       <c r="P128" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Q128" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="129" spans="1:17">
@@ -6330,7 +6330,7 @@
         <v>1</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>13</v>
@@ -6339,7 +6339,7 @@
         <v>19</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I129" s="1" t="s">
         <v>47</v>
@@ -6348,10 +6348,10 @@
         <v>25</v>
       </c>
       <c r="P129" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Q129" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="130" spans="1:17">
@@ -6368,7 +6368,7 @@
         <v>1</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>13</v>
@@ -6377,7 +6377,7 @@
         <v>19</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I130" s="1" t="s">
         <v>47</v>
@@ -6386,10 +6386,10 @@
         <v>25</v>
       </c>
       <c r="P130" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Q130" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="131" spans="1:17">
@@ -6406,7 +6406,7 @@
         <v>1</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>13</v>
@@ -6424,10 +6424,10 @@
         <v>25</v>
       </c>
       <c r="P131" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Q131" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="132" spans="1:17">
@@ -6444,7 +6444,7 @@
         <v>1</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>13</v>
@@ -6453,16 +6453,16 @@
         <v>19</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I132" s="1" t="s">
         <v>51</v>
       </c>
       <c r="P132" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="Q132" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="133" spans="1:17">
@@ -6479,7 +6479,7 @@
         <v>1</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>13</v>
@@ -6494,10 +6494,10 @@
         <v>16</v>
       </c>
       <c r="P133" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="Q133" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="134" spans="1:17">
@@ -6514,7 +6514,7 @@
         <v>1</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>13</v>
@@ -6523,16 +6523,16 @@
         <v>19</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I134" s="1" t="s">
         <v>51</v>
       </c>
       <c r="P134" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="Q134" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="135" spans="1:17">
@@ -6549,7 +6549,7 @@
         <v>1</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>13</v>
@@ -6564,10 +6564,10 @@
         <v>16</v>
       </c>
       <c r="P135" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="Q135" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="136" spans="1:17">
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>13</v>
@@ -6593,16 +6593,16 @@
         <v>19</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I136" s="1" t="s">
         <v>51</v>
       </c>
       <c r="P136" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="Q136" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="137" spans="1:17">
@@ -6619,7 +6619,7 @@
         <v>1</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>13</v>
@@ -6634,10 +6634,10 @@
         <v>16</v>
       </c>
       <c r="P137" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q137" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="138" spans="1:17">
@@ -6654,7 +6654,7 @@
         <v>1</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>13</v>
@@ -6672,10 +6672,10 @@
         <v>25</v>
       </c>
       <c r="P138" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q138" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="139" spans="1:17">
@@ -6692,7 +6692,7 @@
         <v>1</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>13</v>
@@ -6710,10 +6710,10 @@
         <v>25</v>
       </c>
       <c r="P139" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q139" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="140" spans="1:17">
@@ -6730,7 +6730,7 @@
         <v>1</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>13</v>
@@ -6748,10 +6748,10 @@
         <v>25</v>
       </c>
       <c r="P140" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q140" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="141" spans="1:17">
@@ -6768,7 +6768,7 @@
         <v>2</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>13</v>
@@ -6783,10 +6783,10 @@
         <v>16</v>
       </c>
       <c r="P141" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="Q141" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="142" spans="1:17">
@@ -6817,7 +6817,7 @@
         <v>2</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>13</v>
@@ -6832,10 +6832,10 @@
         <v>16</v>
       </c>
       <c r="P143" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="Q143" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="144" spans="1:17">
@@ -6866,7 +6866,7 @@
         <v>1</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>13</v>
@@ -6881,10 +6881,10 @@
         <v>51</v>
       </c>
       <c r="P145" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Q145" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="146" spans="1:17">
@@ -6901,7 +6901,7 @@
         <v>1</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>13</v>
@@ -6916,10 +6916,10 @@
         <v>51</v>
       </c>
       <c r="P146" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Q146" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="147" spans="1:17">
@@ -6936,7 +6936,7 @@
         <v>1</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>13</v>
@@ -6951,10 +6951,10 @@
         <v>51</v>
       </c>
       <c r="P147" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Q147" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="148" spans="1:17">
@@ -6971,7 +6971,7 @@
         <v>1</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>13</v>
@@ -6986,15 +6986,15 @@
         <v>51</v>
       </c>
       <c r="P148" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Q148" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="149" spans="1:17" ht="30" customHeight="1">
       <c r="A149" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B149" s="1">
         <v>1</v>
@@ -7005,11 +7005,11 @@
       <c r="D149" s="1">
         <v>1</v>
       </c>
-      <c r="E149" s="20" t="s">
+      <c r="E149" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="F149" s="19" t="s">
         <v>129</v>
-      </c>
-      <c r="F149" s="19" t="s">
-        <v>130</v>
       </c>
       <c r="G149" s="19" t="s">
         <v>19</v>
@@ -7021,21 +7021,21 @@
         <v>16</v>
       </c>
       <c r="J149" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L149" s="16">
         <v>1</v>
       </c>
       <c r="P149" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="Q149" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="150" spans="1:17" ht="30" customHeight="1">
       <c r="A150" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B150" s="1">
         <v>2</v>
@@ -7046,7 +7046,7 @@
       <c r="D150" s="1">
         <v>1</v>
       </c>
-      <c r="E150" s="20"/>
+      <c r="E150" s="19"/>
       <c r="F150" s="19"/>
       <c r="G150" s="19"/>
       <c r="H150" s="1" t="s">
@@ -7056,21 +7056,21 @@
         <v>16</v>
       </c>
       <c r="J150" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L150" s="16">
         <v>1</v>
       </c>
       <c r="P150" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="Q150" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="151" spans="1:17" ht="30" customHeight="1">
       <c r="A151" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B151" s="1">
         <v>3</v>
@@ -7081,7 +7081,7 @@
       <c r="D151" s="1">
         <v>1</v>
       </c>
-      <c r="E151" s="20"/>
+      <c r="E151" s="19"/>
       <c r="F151" s="19"/>
       <c r="G151" s="19"/>
       <c r="H151" s="1" t="s">
@@ -7091,21 +7091,21 @@
         <v>16</v>
       </c>
       <c r="J151" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L151" s="16">
         <v>1</v>
       </c>
       <c r="P151" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="Q151" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="152" spans="1:17">
       <c r="A152" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B152" s="1">
         <v>4</v>
@@ -7120,7 +7120,7 @@
         <v>30</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G152" s="1" t="s">
         <v>19</v>
@@ -7132,18 +7132,21 @@
         <v>16</v>
       </c>
       <c r="J152" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
+      </c>
+      <c r="N152" s="1" t="s">
+        <v>400</v>
       </c>
       <c r="P152" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="Q152" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="153" spans="1:17" ht="45" customHeight="1">
       <c r="A153" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B153" s="1">
         <v>5</v>
@@ -7155,10 +7158,10 @@
         <v>1</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G153" s="7" t="s">
         <v>19</v>
@@ -7170,21 +7173,21 @@
         <v>16</v>
       </c>
       <c r="J153" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N153" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="P153" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q153" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="154" spans="1:17" ht="30" customHeight="1">
       <c r="A154" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B154" s="1">
         <v>6</v>
@@ -7196,10 +7199,10 @@
         <v>1</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G154" s="1" t="s">
         <v>19</v>
@@ -7211,21 +7214,21 @@
         <v>16</v>
       </c>
       <c r="J154" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M154" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="P154" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="Q154" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="155" spans="1:17">
       <c r="A155" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B155" s="1">
         <v>7</v>
@@ -7237,10 +7240,10 @@
         <v>1</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G155" s="1" t="s">
         <v>19</v>
@@ -7252,18 +7255,18 @@
         <v>41</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P155" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q155" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="156" spans="1:17" ht="30" customHeight="1">
       <c r="A156" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B156" s="1">
         <v>8</v>
@@ -7275,10 +7278,10 @@
         <v>1</v>
       </c>
       <c r="E156" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F156" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="F156" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="G156" s="1" t="s">
         <v>19</v>
@@ -7290,24 +7293,24 @@
         <v>16</v>
       </c>
       <c r="J156" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M156" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="O156" s="1">
         <v>1</v>
       </c>
       <c r="P156" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="Q156" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="157" spans="1:17">
       <c r="A157" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B157" s="1">
         <v>9</v>
@@ -7319,16 +7322,16 @@
         <v>2</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G157" s="1" t="s">
         <v>39</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I157" s="1" t="s">
         <v>16</v>
@@ -7337,15 +7340,15 @@
         <v>1</v>
       </c>
       <c r="P157" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q157" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="158" spans="1:17">
       <c r="A158" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B158" s="1">
         <v>10</v>
@@ -7357,16 +7360,16 @@
         <v>2</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G158" s="1" t="s">
         <v>39</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I158" s="1" t="s">
         <v>16</v>
@@ -7375,15 +7378,15 @@
         <v>1</v>
       </c>
       <c r="P158" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q158" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="159" spans="1:17">
       <c r="A159" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B159" s="1">
         <v>11</v>
@@ -7395,16 +7398,16 @@
         <v>2</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G159" s="1" t="s">
         <v>39</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I159" s="1" t="s">
         <v>16</v>
@@ -7413,15 +7416,15 @@
         <v>1</v>
       </c>
       <c r="P159" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q159" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="160" spans="1:17" ht="30" customHeight="1">
       <c r="A160" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B160" s="1">
         <v>12</v>
@@ -7433,13 +7436,13 @@
         <v>1</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>15</v>
@@ -7448,18 +7451,18 @@
         <v>41</v>
       </c>
       <c r="J160" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P160" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q160" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="161" spans="1:17">
       <c r="A161" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B161" s="1">
         <v>13</v>
@@ -7471,13 +7474,13 @@
         <v>1</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H161" s="1" t="s">
         <v>15</v>
@@ -7486,18 +7489,18 @@
         <v>41</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P161" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q161" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="162" spans="1:17" ht="75" customHeight="1">
       <c r="A162" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B162" s="1">
         <v>14</v>
@@ -7509,10 +7512,10 @@
         <v>1</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G162" s="1" t="s">
         <v>19</v>
@@ -7524,21 +7527,21 @@
         <v>16</v>
       </c>
       <c r="J162" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N162" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="P162" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q162" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="163" spans="1:17">
       <c r="A163" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B163" s="1">
         <v>15</v>
@@ -7550,10 +7553,10 @@
         <v>1</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G163" s="1" t="s">
         <v>19</v>
@@ -7565,18 +7568,18 @@
         <v>51</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P163" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="Q163" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="164" spans="1:17">
       <c r="A164" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B164" s="1">
         <v>16</v>
@@ -7588,10 +7591,10 @@
         <v>1</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G164" s="1" t="s">
         <v>19</v>
@@ -7603,18 +7606,18 @@
         <v>51</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P164" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="Q164" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="165" spans="1:17">
       <c r="A165" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B165" s="1">
         <v>17</v>
@@ -7626,10 +7629,10 @@
         <v>1</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G165" s="1" t="s">
         <v>19</v>
@@ -7641,18 +7644,18 @@
         <v>47</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P165" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="Q165" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="166" spans="1:17">
       <c r="A166" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B166" s="1">
         <v>18</v>
@@ -7664,10 +7667,10 @@
         <v>1</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G166" s="1" t="s">
         <v>19</v>
@@ -7679,18 +7682,18 @@
         <v>47</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P166" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="Q166" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="167" spans="1:17">
       <c r="A167" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B167" s="1">
         <v>19</v>
@@ -7702,10 +7705,10 @@
         <v>1</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G167" s="1" t="s">
         <v>19</v>
@@ -7717,18 +7720,18 @@
         <v>51</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P167" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="Q167" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="168" spans="1:17">
       <c r="A168" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B168" s="1">
         <v>20</v>
@@ -7740,33 +7743,33 @@
         <v>1</v>
       </c>
       <c r="E168" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H168" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="F168" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G168" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H168" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="I168" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P168" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="Q168" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="169" spans="1:17">
       <c r="A169" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B169" s="1">
         <v>21</v>
@@ -7778,10 +7781,10 @@
         <v>1</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G169" s="1" t="s">
         <v>19</v>
@@ -7793,18 +7796,18 @@
         <v>51</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P169" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="Q169" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="170" spans="1:17">
       <c r="A170" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B170" s="1">
         <v>22</v>
@@ -7816,33 +7819,33 @@
         <v>1</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G170" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I170" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J170" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P170" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="Q170" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="171" spans="1:17">
       <c r="A171" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B171" s="1">
         <v>23</v>
@@ -7854,10 +7857,10 @@
         <v>1</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G171" s="1" t="s">
         <v>19</v>
@@ -7869,18 +7872,18 @@
         <v>47</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P171" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="Q171" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="172" spans="1:17">
       <c r="A172" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B172" s="1">
         <v>24</v>
@@ -7892,33 +7895,33 @@
         <v>1</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G172" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I172" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P172" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="Q172" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="173" spans="1:17">
       <c r="A173" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B173" s="1">
         <v>25</v>
@@ -7930,10 +7933,10 @@
         <v>1</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G173" s="1" t="s">
         <v>19</v>
@@ -7945,18 +7948,18 @@
         <v>47</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P173" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="Q173" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="174" spans="1:17">
       <c r="A174" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B174" s="1">
         <v>26</v>
@@ -7968,33 +7971,33 @@
         <v>1</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G174" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I174" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P174" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="Q174" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="175" spans="1:17" ht="30" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B175" s="1">
         <v>27</v>
@@ -8006,10 +8009,10 @@
         <v>1</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G175" s="1" t="s">
         <v>19</v>
@@ -8021,21 +8024,21 @@
         <v>16</v>
       </c>
       <c r="J175" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M175" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="P175" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="Q175" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="176" spans="1:17">
       <c r="A176" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B176" s="1">
         <v>28</v>
@@ -8047,10 +8050,10 @@
         <v>1</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G176" s="1" t="s">
         <v>19</v>
@@ -8062,18 +8065,18 @@
         <v>51</v>
       </c>
       <c r="J176" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P176" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="Q176" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="177" spans="1:17">
       <c r="A177" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B177" s="1">
         <v>29</v>
@@ -8085,10 +8088,10 @@
         <v>1</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G177" s="1" t="s">
         <v>19</v>
@@ -8100,21 +8103,21 @@
         <v>16</v>
       </c>
       <c r="J177" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N177" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="P177" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="Q177" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="178" spans="1:17" ht="30" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B178" s="1">
         <v>30</v>
@@ -8126,10 +8129,10 @@
         <v>1</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G178" s="1" t="s">
         <v>19</v>
@@ -8141,21 +8144,21 @@
         <v>16</v>
       </c>
       <c r="J178" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M178" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="P178" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Q178" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="179" spans="1:17">
       <c r="A179" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B179" s="1">
         <v>31</v>
@@ -8167,10 +8170,10 @@
         <v>1</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G179" s="1" t="s">
         <v>19</v>
@@ -8182,15 +8185,15 @@
         <v>51</v>
       </c>
       <c r="P179" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q179" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="180" spans="1:17">
       <c r="A180" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B180" s="1">
         <v>32</v>
@@ -8202,10 +8205,10 @@
         <v>1</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G180" s="1" t="s">
         <v>19</v>
@@ -8217,18 +8220,18 @@
         <v>47</v>
       </c>
       <c r="J180" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P180" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q180" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="181" spans="1:17" ht="30" customHeight="1">
       <c r="A181" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B181" s="1">
         <v>33</v>
@@ -8240,10 +8243,10 @@
         <v>1</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G181" s="1" t="s">
         <v>19</v>
@@ -8255,21 +8258,21 @@
         <v>16</v>
       </c>
       <c r="J181" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M181" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="P181" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q181" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="182" spans="1:17" ht="30" customHeight="1">
       <c r="A182" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B182" s="1">
         <v>34</v>
@@ -8281,10 +8284,10 @@
         <v>1</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G182" s="1" t="s">
         <v>19</v>
@@ -8296,21 +8299,21 @@
         <v>16</v>
       </c>
       <c r="J182" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M182" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="P182" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q182" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="183" spans="1:17">
       <c r="A183" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B183" s="1">
         <v>35</v>
@@ -8322,30 +8325,30 @@
         <v>1</v>
       </c>
       <c r="E183" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H183" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="F183" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G183" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H183" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="I183" s="1" t="s">
         <v>51</v>
       </c>
       <c r="P183" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q183" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="184" spans="1:17" ht="45" customHeight="1">
       <c r="A184" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B184" s="1">
         <v>36</v>
@@ -8357,10 +8360,10 @@
         <v>1</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G184" s="1" t="s">
         <v>19</v>
@@ -8372,21 +8375,21 @@
         <v>16</v>
       </c>
       <c r="J184" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N184" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="P184" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="Q184" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="185" spans="1:17" ht="75" customHeight="1">
       <c r="A185" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B185" s="1">
         <v>37</v>
@@ -8398,10 +8401,10 @@
         <v>1</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G185" s="1" t="s">
         <v>19</v>
@@ -8413,21 +8416,21 @@
         <v>16</v>
       </c>
       <c r="J185" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N185" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="P185" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="Q185" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="186" spans="1:17">
       <c r="A186" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B186" s="1">
         <v>38</v>
@@ -8439,13 +8442,13 @@
         <v>1</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F186" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H186" s="1" t="s">
         <v>40</v>
@@ -8454,18 +8457,18 @@
         <v>47</v>
       </c>
       <c r="J186" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P186" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q186" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="187" spans="1:17">
       <c r="A187" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B187" s="1">
         <v>39</v>
@@ -8477,13 +8480,13 @@
         <v>1</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H187" s="1" t="s">
         <v>40</v>
@@ -8492,18 +8495,18 @@
         <v>47</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P187" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q187" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="188" spans="1:17">
       <c r="A188" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B188" s="1">
         <v>40</v>
@@ -8515,13 +8518,13 @@
         <v>1</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H188" s="1" t="s">
         <v>40</v>
@@ -8530,18 +8533,18 @@
         <v>47</v>
       </c>
       <c r="J188" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P188" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q188" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="189" spans="1:17">
       <c r="A189" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B189" s="1">
         <v>41</v>
@@ -8553,13 +8556,13 @@
         <v>1</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H189" s="1" t="s">
         <v>40</v>
@@ -8568,18 +8571,18 @@
         <v>47</v>
       </c>
       <c r="J189" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P189" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q189" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="190" spans="1:17">
       <c r="A190" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B190" s="1">
         <v>42</v>
@@ -8591,13 +8594,13 @@
         <v>1</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H190" s="1" t="s">
         <v>40</v>
@@ -8606,15 +8609,15 @@
         <v>47</v>
       </c>
       <c r="P190" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q190" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="191" spans="1:17">
       <c r="A191" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B191" s="1">
         <v>43</v>
@@ -8626,13 +8629,13 @@
         <v>1</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H191" s="1" t="s">
         <v>40</v>
@@ -8641,15 +8644,15 @@
         <v>47</v>
       </c>
       <c r="P191" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q191" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="192" spans="1:17">
       <c r="A192" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B192" s="1">
         <v>44</v>
@@ -8661,13 +8664,13 @@
         <v>1</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H192" s="1" t="s">
         <v>40</v>
@@ -8676,15 +8679,15 @@
         <v>47</v>
       </c>
       <c r="P192" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q192" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="193" spans="1:17" ht="30" customHeight="1">
       <c r="A193" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B193" s="1">
         <v>45</v>
@@ -8696,39 +8699,39 @@
         <v>1</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G193" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>194</v>
+        <v>15</v>
       </c>
       <c r="I193" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J193" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M193" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="N193" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="P193" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q193" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="194" spans="1:17">
       <c r="A194" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B194" s="1">
         <v>46</v>
@@ -8740,10 +8743,10 @@
         <v>1</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G194" s="1" t="s">
         <v>19</v>
@@ -8758,15 +8761,15 @@
         <v>25</v>
       </c>
       <c r="P194" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q194" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="195" spans="1:17">
       <c r="A195" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B195" s="1">
         <v>47</v>
@@ -8778,10 +8781,10 @@
         <v>1</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G195" s="1" t="s">
         <v>19</v>
@@ -8793,21 +8796,21 @@
         <v>16</v>
       </c>
       <c r="J195" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N195" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="P195" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Q195" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="196" spans="1:17">
       <c r="A196" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B196" s="1">
         <v>48</v>
@@ -8819,10 +8822,10 @@
         <v>1</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G196" s="1" t="s">
         <v>19</v>
@@ -8834,18 +8837,18 @@
         <v>16</v>
       </c>
       <c r="N196" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="P196" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Q196" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="197" spans="1:17" ht="30" customHeight="1">
       <c r="A197" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B197" s="1">
         <v>49</v>
@@ -8857,10 +8860,10 @@
         <v>1</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G197" s="1" t="s">
         <v>19</v>
@@ -8872,21 +8875,21 @@
         <v>16</v>
       </c>
       <c r="J197" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M197" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="P197" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Q197" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="198" spans="1:17">
       <c r="A198" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B198" s="1">
         <v>50</v>
@@ -8898,10 +8901,10 @@
         <v>1</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G198" s="1" t="s">
         <v>19</v>
@@ -8913,18 +8916,18 @@
         <v>41</v>
       </c>
       <c r="J198" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P198" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Q198" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="199" spans="1:17" ht="30" customHeight="1">
       <c r="A199" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B199" s="1">
         <v>51</v>
@@ -8936,10 +8939,10 @@
         <v>1</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G199" s="1" t="s">
         <v>19</v>
@@ -8951,21 +8954,21 @@
         <v>16</v>
       </c>
       <c r="J199" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M199" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="P199" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Q199" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="200" spans="1:17">
       <c r="A200" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B200" s="1">
         <v>52</v>
@@ -8977,10 +8980,10 @@
         <v>1</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G200" s="1" t="s">
         <v>19</v>
@@ -8992,18 +8995,18 @@
         <v>41</v>
       </c>
       <c r="J200" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P200" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Q200" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="201" spans="1:17" ht="60" customHeight="1">
       <c r="A201" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B201" s="1">
         <v>53</v>
@@ -9015,10 +9018,10 @@
         <v>1</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G201" s="1" t="s">
         <v>19</v>
@@ -9030,24 +9033,24 @@
         <v>16</v>
       </c>
       <c r="J201" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L201" s="16">
         <v>1</v>
       </c>
       <c r="M201" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="P201" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="Q201" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="202" spans="1:17" ht="45" customHeight="1">
       <c r="A202" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B202" s="1">
         <v>54</v>
@@ -9059,10 +9062,10 @@
         <v>1</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G202" s="1" t="s">
         <v>19</v>
@@ -9074,18 +9077,18 @@
         <v>16</v>
       </c>
       <c r="J202" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="P202" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Q202" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="203" spans="1:17" ht="30" customHeight="1">
       <c r="A203" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B203" s="1">
         <v>55</v>
@@ -9097,10 +9100,10 @@
         <v>1</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G203" s="1" t="s">
         <v>19</v>
@@ -9112,21 +9115,21 @@
         <v>16</v>
       </c>
       <c r="J203" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M203" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="P203" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q203" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="204" spans="1:17" ht="30" customHeight="1">
       <c r="A204" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B204" s="1">
         <v>56</v>
@@ -9138,10 +9141,10 @@
         <v>1</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G204" s="1" t="s">
         <v>19</v>
@@ -9153,21 +9156,21 @@
         <v>16</v>
       </c>
       <c r="J204" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O204" s="1">
         <v>1</v>
       </c>
       <c r="P204" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="Q204" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="205" spans="1:17" ht="30" customHeight="1">
       <c r="A205" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B205" s="1">
         <v>57</v>
@@ -9179,33 +9182,33 @@
         <v>1</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G205" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H205" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I205" s="1" t="s">
         <v>41</v>
       </c>
       <c r="J205" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="P205" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q205" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="206" spans="1:17" ht="30" customHeight="1">
       <c r="A206" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B206" s="1">
         <v>58</v>
@@ -9217,10 +9220,10 @@
         <v>1</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G206" s="1" t="s">
         <v>19</v>
@@ -9232,21 +9235,21 @@
         <v>16</v>
       </c>
       <c r="J206" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O206" s="1">
         <v>1</v>
       </c>
       <c r="P206" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="Q206" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="207" spans="1:17">
       <c r="A207" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B207" s="1">
         <v>59</v>
@@ -9258,10 +9261,10 @@
         <v>1</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G207" s="1" t="s">
         <v>19</v>
@@ -9272,22 +9275,22 @@
       <c r="I207" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J207" s="21" t="s">
-        <v>214</v>
+      <c r="J207" s="20" t="s">
+        <v>212</v>
       </c>
       <c r="L207" s="1">
         <v>1</v>
       </c>
       <c r="P207" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="Q207" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="208" spans="1:17">
       <c r="A208" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B208" s="1">
         <v>60</v>
@@ -9299,10 +9302,10 @@
         <v>1</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G208" s="1" t="s">
         <v>19</v>
@@ -9313,20 +9316,20 @@
       <c r="I208" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J208" s="21"/>
+      <c r="J208" s="20"/>
       <c r="L208" s="1">
         <v>1</v>
       </c>
       <c r="P208" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="Q208" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="209" spans="1:17">
       <c r="A209" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B209" s="1">
         <v>61</v>
@@ -9338,10 +9341,10 @@
         <v>1</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G209" s="1" t="s">
         <v>19</v>
@@ -9352,19 +9355,19 @@
       <c r="I209" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J209" s="21" t="s">
-        <v>217</v>
+      <c r="J209" s="20" t="s">
+        <v>215</v>
       </c>
       <c r="P209" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Q209" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="210" spans="1:17">
       <c r="A210" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B210" s="1">
         <v>62</v>
@@ -9376,10 +9379,10 @@
         <v>1</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G210" s="1" t="s">
         <v>19</v>
@@ -9390,20 +9393,20 @@
       <c r="I210" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J210" s="21"/>
+      <c r="J210" s="20"/>
       <c r="M210" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="P210" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q210" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="211" spans="1:17">
       <c r="A211" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B211" s="1">
         <v>63</v>
@@ -9415,10 +9418,10 @@
         <v>1</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G211" s="1" t="s">
         <v>19</v>
@@ -9429,20 +9432,20 @@
       <c r="I211" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J211" s="21"/>
+      <c r="J211" s="20"/>
       <c r="O211" s="1">
         <v>1</v>
       </c>
       <c r="P211" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="Q211" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="212" spans="1:17">
       <c r="A212" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B212" s="1">
         <v>64</v>
@@ -9454,31 +9457,31 @@
         <v>1</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G212" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="I212" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J212" s="21"/>
+      <c r="J212" s="20"/>
       <c r="P212" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q212" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="213" spans="1:17">
       <c r="A213" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B213" s="1">
         <v>65</v>
@@ -9490,10 +9493,10 @@
         <v>1</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G213" s="1" t="s">
         <v>19</v>
@@ -9504,20 +9507,20 @@
       <c r="I213" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J213" s="21"/>
+      <c r="J213" s="20"/>
       <c r="O213" s="1">
         <v>1</v>
       </c>
       <c r="P213" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="Q213" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="214" spans="1:17">
       <c r="A214" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B214" s="1">
         <v>66</v>
@@ -9529,10 +9532,10 @@
         <v>1</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G214" s="1" t="s">
         <v>19</v>
@@ -9543,20 +9546,20 @@
       <c r="I214" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J214" s="21"/>
+      <c r="J214" s="20"/>
       <c r="L214" s="1">
         <v>1</v>
       </c>
       <c r="P214" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="Q214" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="215" spans="1:17">
       <c r="A215" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B215" s="1">
         <v>67</v>
@@ -9568,10 +9571,10 @@
         <v>1</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G215" s="1" t="s">
         <v>19</v>
@@ -9582,20 +9585,20 @@
       <c r="I215" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J215" s="21"/>
+      <c r="J215" s="20"/>
       <c r="L215" s="1">
         <v>1</v>
       </c>
       <c r="P215" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="Q215" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="216" spans="1:17">
       <c r="A216" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B216" s="1">
         <v>68</v>
@@ -9607,10 +9610,10 @@
         <v>1</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G216" s="1" t="s">
         <v>19</v>
@@ -9621,19 +9624,19 @@
       <c r="I216" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J216" s="21" t="s">
-        <v>218</v>
+      <c r="J216" s="20" t="s">
+        <v>216</v>
       </c>
       <c r="P216" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Q216" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="217" spans="1:17">
       <c r="A217" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B217" s="1">
         <v>69</v>
@@ -9645,10 +9648,10 @@
         <v>1</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G217" s="1" t="s">
         <v>19</v>
@@ -9659,20 +9662,20 @@
       <c r="I217" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J217" s="21"/>
+      <c r="J217" s="20"/>
       <c r="M217" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="P217" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q217" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="218" spans="1:17">
       <c r="A218" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B218" s="1">
         <v>70</v>
@@ -9684,10 +9687,10 @@
         <v>1</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G218" s="1" t="s">
         <v>19</v>
@@ -9698,20 +9701,20 @@
       <c r="I218" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J218" s="21"/>
+      <c r="J218" s="20"/>
       <c r="O218" s="1">
         <v>1</v>
       </c>
       <c r="P218" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="Q218" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="219" spans="1:17">
       <c r="A219" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B219" s="1">
         <v>71</v>
@@ -9723,31 +9726,31 @@
         <v>1</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G219" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H219" s="1" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="I219" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J219" s="21"/>
+      <c r="J219" s="20"/>
       <c r="P219" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q219" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="220" spans="1:17">
       <c r="A220" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B220" s="1">
         <v>72</v>
@@ -9759,10 +9762,10 @@
         <v>1</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G220" s="1" t="s">
         <v>19</v>
@@ -9773,20 +9776,20 @@
       <c r="I220" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J220" s="21"/>
+      <c r="J220" s="20"/>
       <c r="O220" s="1">
         <v>1</v>
       </c>
       <c r="P220" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="Q220" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="221" spans="1:17">
       <c r="A221" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B221" s="1">
         <v>73</v>
@@ -9798,10 +9801,10 @@
         <v>1</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G221" s="1" t="s">
         <v>19</v>
@@ -9812,20 +9815,20 @@
       <c r="I221" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J221" s="21"/>
+      <c r="J221" s="20"/>
       <c r="L221" s="1">
         <v>1</v>
       </c>
       <c r="P221" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="Q221" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="222" spans="1:17">
       <c r="A222" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B222" s="1">
         <v>74</v>
@@ -9837,10 +9840,10 @@
         <v>1</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G222" s="1" t="s">
         <v>19</v>
@@ -9851,20 +9854,20 @@
       <c r="I222" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J222" s="21"/>
+      <c r="J222" s="20"/>
       <c r="L222" s="1">
         <v>1</v>
       </c>
       <c r="P222" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="Q222" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="223" spans="1:17">
       <c r="A223" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B223" s="1">
         <v>75</v>
@@ -9876,10 +9879,10 @@
         <v>1</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G223" s="1" t="s">
         <v>19</v>
@@ -9890,19 +9893,19 @@
       <c r="I223" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J223" s="21" t="s">
-        <v>219</v>
+      <c r="J223" s="20" t="s">
+        <v>217</v>
       </c>
       <c r="P223" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Q223" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="224" spans="1:17">
       <c r="A224" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B224" s="1">
         <v>76</v>
@@ -9914,10 +9917,10 @@
         <v>1</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G224" s="1" t="s">
         <v>19</v>
@@ -9928,20 +9931,20 @@
       <c r="I224" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J224" s="21"/>
+      <c r="J224" s="20"/>
       <c r="M224" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="P224" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q224" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="225" spans="1:17">
       <c r="A225" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B225" s="1">
         <v>77</v>
@@ -9953,10 +9956,10 @@
         <v>1</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G225" s="1" t="s">
         <v>19</v>
@@ -9967,20 +9970,20 @@
       <c r="I225" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J225" s="21"/>
+      <c r="J225" s="20"/>
       <c r="O225" s="1">
         <v>1</v>
       </c>
       <c r="P225" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="Q225" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="226" spans="1:17">
       <c r="A226" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B226" s="1">
         <v>78</v>
@@ -9992,31 +9995,31 @@
         <v>1</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G226" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H226" s="1" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="I226" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J226" s="21"/>
+      <c r="J226" s="20"/>
       <c r="P226" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q226" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="227" spans="1:17">
       <c r="A227" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B227" s="1">
         <v>79</v>
@@ -10028,10 +10031,10 @@
         <v>1</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G227" s="1" t="s">
         <v>19</v>
@@ -10042,20 +10045,20 @@
       <c r="I227" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J227" s="21"/>
+      <c r="J227" s="20"/>
       <c r="O227" s="1">
         <v>1</v>
       </c>
       <c r="P227" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="Q227" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="228" spans="1:17">
       <c r="A228" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B228" s="1">
         <v>80</v>
@@ -10067,10 +10070,10 @@
         <v>1</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G228" s="1" t="s">
         <v>19</v>
@@ -10081,20 +10084,20 @@
       <c r="I228" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J228" s="21"/>
+      <c r="J228" s="20"/>
       <c r="L228" s="1">
         <v>1</v>
       </c>
       <c r="P228" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="Q228" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="229" spans="1:17">
       <c r="A229" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B229" s="1">
         <v>81</v>
@@ -10106,10 +10109,10 @@
         <v>1</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G229" s="1" t="s">
         <v>19</v>
@@ -10120,20 +10123,20 @@
       <c r="I229" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J229" s="21"/>
+      <c r="J229" s="20"/>
       <c r="L229" s="1">
         <v>1</v>
       </c>
       <c r="P229" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="Q229" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="230" spans="1:17">
       <c r="A230" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B230" s="1">
         <v>82</v>
@@ -10145,10 +10148,10 @@
         <v>1</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G230" s="1" t="s">
         <v>19</v>
@@ -10159,19 +10162,19 @@
       <c r="I230" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J230" s="21" t="s">
-        <v>220</v>
+      <c r="J230" s="20" t="s">
+        <v>218</v>
       </c>
       <c r="P230" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Q230" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="231" spans="1:17">
       <c r="A231" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B231" s="1">
         <v>83</v>
@@ -10183,10 +10186,10 @@
         <v>1</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G231" s="1" t="s">
         <v>19</v>
@@ -10197,20 +10200,20 @@
       <c r="I231" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J231" s="21"/>
+      <c r="J231" s="20"/>
       <c r="M231" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="P231" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q231" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="232" spans="1:17">
       <c r="A232" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B232" s="1">
         <v>84</v>
@@ -10222,10 +10225,10 @@
         <v>1</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G232" s="1" t="s">
         <v>19</v>
@@ -10236,20 +10239,20 @@
       <c r="I232" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J232" s="21"/>
+      <c r="J232" s="20"/>
       <c r="O232" s="1">
         <v>1</v>
       </c>
       <c r="P232" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="Q232" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="233" spans="1:17">
       <c r="A233" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B233" s="1">
         <v>85</v>
@@ -10261,31 +10264,31 @@
         <v>1</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G233" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H233" s="1" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="I233" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J233" s="21"/>
+      <c r="J233" s="20"/>
       <c r="P233" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q233" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="234" spans="1:17">
       <c r="A234" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B234" s="1">
         <v>86</v>
@@ -10297,10 +10300,10 @@
         <v>1</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G234" s="1" t="s">
         <v>19</v>
@@ -10311,20 +10314,20 @@
       <c r="I234" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J234" s="21"/>
+      <c r="J234" s="20"/>
       <c r="O234" s="1">
         <v>1</v>
       </c>
       <c r="P234" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="Q234" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="235" spans="1:17">
       <c r="A235" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B235" s="1">
         <v>87</v>
@@ -10336,10 +10339,10 @@
         <v>1</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G235" s="1" t="s">
         <v>19</v>
@@ -10350,20 +10353,20 @@
       <c r="I235" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J235" s="21"/>
+      <c r="J235" s="20"/>
       <c r="L235" s="1">
         <v>1</v>
       </c>
       <c r="P235" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="Q235" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="236" spans="1:17">
       <c r="A236" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B236" s="1">
         <v>88</v>
@@ -10375,10 +10378,10 @@
         <v>1</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G236" s="1" t="s">
         <v>19</v>
@@ -10389,20 +10392,20 @@
       <c r="I236" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J236" s="21"/>
+      <c r="J236" s="20"/>
       <c r="L236" s="1">
         <v>1</v>
       </c>
       <c r="P236" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="Q236" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="237" spans="1:17">
       <c r="A237" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B237" s="1">
         <v>89</v>
@@ -10414,10 +10417,10 @@
         <v>1</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G237" s="1" t="s">
         <v>19</v>
@@ -10428,19 +10431,19 @@
       <c r="I237" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J237" s="21" t="s">
-        <v>221</v>
+      <c r="J237" s="20" t="s">
+        <v>219</v>
       </c>
       <c r="P237" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Q237" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="238" spans="1:17">
       <c r="A238" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B238" s="1">
         <v>90</v>
@@ -10452,10 +10455,10 @@
         <v>1</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G238" s="1" t="s">
         <v>19</v>
@@ -10466,20 +10469,20 @@
       <c r="I238" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J238" s="21"/>
+      <c r="J238" s="20"/>
       <c r="M238" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="P238" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q238" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="239" spans="1:17">
       <c r="A239" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B239" s="1">
         <v>91</v>
@@ -10491,10 +10494,10 @@
         <v>1</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G239" s="1" t="s">
         <v>19</v>
@@ -10505,20 +10508,20 @@
       <c r="I239" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J239" s="21"/>
+      <c r="J239" s="20"/>
       <c r="O239" s="1">
         <v>1</v>
       </c>
       <c r="P239" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="Q239" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="240" spans="1:17">
       <c r="A240" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B240" s="1">
         <v>92</v>
@@ -10530,31 +10533,31 @@
         <v>1</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G240" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H240" s="1" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="I240" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J240" s="21"/>
+      <c r="J240" s="20"/>
       <c r="P240" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q240" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="241" spans="1:17">
       <c r="A241" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B241" s="1">
         <v>93</v>
@@ -10566,10 +10569,10 @@
         <v>1</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G241" s="1" t="s">
         <v>19</v>
@@ -10580,20 +10583,20 @@
       <c r="I241" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J241" s="21"/>
+      <c r="J241" s="20"/>
       <c r="O241" s="1">
         <v>1</v>
       </c>
       <c r="P241" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="Q241" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="242" spans="1:17">
       <c r="A242" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B242" s="1">
         <v>94</v>
@@ -10605,10 +10608,10 @@
         <v>1</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G242" s="1" t="s">
         <v>19</v>
@@ -10619,20 +10622,20 @@
       <c r="I242" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J242" s="21"/>
+      <c r="J242" s="20"/>
       <c r="L242" s="1">
         <v>1</v>
       </c>
       <c r="P242" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="Q242" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="243" spans="1:17">
       <c r="A243" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B243" s="1">
         <v>95</v>
@@ -10644,10 +10647,10 @@
         <v>1</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G243" s="1" t="s">
         <v>19</v>
@@ -10658,20 +10661,20 @@
       <c r="I243" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J243" s="21"/>
+      <c r="J243" s="20"/>
       <c r="L243" s="1">
         <v>1</v>
       </c>
       <c r="P243" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="Q243" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="244" spans="1:17">
       <c r="A244" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B244" s="1">
         <v>96</v>
@@ -10683,10 +10686,10 @@
         <v>8</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G244" s="1" t="s">
         <v>14</v>
@@ -10698,21 +10701,21 @@
         <v>16</v>
       </c>
       <c r="J244" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O244" s="1">
         <v>1</v>
       </c>
       <c r="P244" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Q244" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="245" spans="1:17" ht="30" customHeight="1">
       <c r="A245" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B245" s="1">
         <v>97</v>
@@ -10724,10 +10727,10 @@
         <v>1</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G245" s="1" t="s">
         <v>19</v>
@@ -10739,21 +10742,21 @@
         <v>16</v>
       </c>
       <c r="J245" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O245" s="1">
         <v>1</v>
       </c>
       <c r="P245" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Q245" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="246" spans="1:17">
       <c r="A246" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B246" s="1">
         <v>98</v>
@@ -10765,10 +10768,10 @@
         <v>2</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G246" s="1" t="s">
         <v>22</v>
@@ -10779,22 +10782,22 @@
       <c r="I246" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J246" s="21" t="s">
-        <v>226</v>
+      <c r="J246" s="20" t="s">
+        <v>224</v>
       </c>
       <c r="O246" s="1">
         <v>1</v>
       </c>
       <c r="P246" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Q246" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="247" spans="1:17">
       <c r="A247" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B247" s="1">
         <v>99</v>
@@ -10806,10 +10809,10 @@
         <v>2</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G247" s="1" t="s">
         <v>22</v>
@@ -10820,20 +10823,20 @@
       <c r="I247" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J247" s="21"/>
+      <c r="J247" s="20"/>
       <c r="O247" s="1">
         <v>1</v>
       </c>
       <c r="P247" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Q247" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="248" spans="1:17">
       <c r="A248" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B248" s="1">
         <v>100</v>
@@ -10845,10 +10848,10 @@
         <v>2</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G248" s="1" t="s">
         <v>22</v>
@@ -10859,20 +10862,20 @@
       <c r="I248" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J248" s="21"/>
+      <c r="J248" s="20"/>
       <c r="O248" s="1">
         <v>1</v>
       </c>
       <c r="P248" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Q248" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="249" spans="1:17">
       <c r="A249" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B249" s="1">
         <v>101</v>
@@ -10884,10 +10887,10 @@
         <v>1</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G249" s="1" t="s">
         <v>19</v>
@@ -10899,21 +10902,21 @@
         <v>51</v>
       </c>
       <c r="J249" s="19" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O249" s="1">
         <v>1</v>
       </c>
       <c r="P249" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Q249" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="250" spans="1:17">
       <c r="A250" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B250" s="1">
         <v>102</v>
@@ -10925,10 +10928,10 @@
         <v>1</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G250" s="1" t="s">
         <v>19</v>
@@ -10944,15 +10947,15 @@
         <v>1</v>
       </c>
       <c r="P250" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Q250" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="251" spans="1:17">
       <c r="A251" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B251" s="1">
         <v>103</v>
@@ -10964,10 +10967,10 @@
         <v>1</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G251" s="1" t="s">
         <v>19</v>
@@ -10979,21 +10982,21 @@
         <v>51</v>
       </c>
       <c r="J251" s="19" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O251" s="1">
         <v>1</v>
       </c>
       <c r="P251" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Q251" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="252" spans="1:17">
       <c r="A252" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B252" s="1">
         <v>104</v>
@@ -11005,10 +11008,10 @@
         <v>1</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G252" s="1" t="s">
         <v>19</v>
@@ -11024,15 +11027,15 @@
         <v>1</v>
       </c>
       <c r="P252" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Q252" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="253" spans="1:17">
       <c r="A253" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B253" s="1">
         <v>105</v>
@@ -11044,16 +11047,16 @@
         <v>1</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G253" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I253" s="1" t="s">
         <v>47</v>
@@ -11063,15 +11066,15 @@
         <v>1</v>
       </c>
       <c r="P253" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Q253" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="254" spans="1:17">
       <c r="A254" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B254" s="1">
         <v>106</v>
@@ -11083,16 +11086,16 @@
         <v>1</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G254" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H254" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I254" s="1" t="s">
         <v>47</v>
@@ -11102,15 +11105,15 @@
         <v>1</v>
       </c>
       <c r="P254" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Q254" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="255" spans="1:17">
       <c r="A255" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B255" s="1">
         <v>107</v>
@@ -11122,10 +11125,10 @@
         <v>1</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G255" s="1" t="s">
         <v>19</v>
@@ -11141,15 +11144,15 @@
         <v>1</v>
       </c>
       <c r="P255" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Q255" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="256" spans="1:17">
       <c r="A256" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B256" s="1">
         <v>108</v>
@@ -11161,13 +11164,13 @@
         <v>1</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H256" s="1" t="s">
         <v>56</v>
@@ -11180,15 +11183,15 @@
         <v>1</v>
       </c>
       <c r="P256" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Q256" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="257" spans="1:17">
       <c r="A257" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B257" s="1">
         <v>109</v>
@@ -11200,16 +11203,16 @@
         <v>1</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I257" s="1">
         <v>10</v>
@@ -11219,15 +11222,15 @@
         <v>1</v>
       </c>
       <c r="P257" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Q257" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="258" spans="1:17" ht="30" customHeight="1">
       <c r="A258" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B258" s="1">
         <v>1</v>
@@ -11239,36 +11242,36 @@
         <v>1</v>
       </c>
       <c r="E258" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G258" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H258" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F258" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G258" s="1" t="s">
+      <c r="I258" s="1">
+        <v>1</v>
+      </c>
+      <c r="J258" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="H258" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="I258" s="1">
-        <v>1</v>
-      </c>
-      <c r="J258" s="6" t="s">
-        <v>243</v>
-      </c>
       <c r="M258" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="P258" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="Q258" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="259" spans="1:17">
       <c r="A259" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B259" s="1">
         <v>2</v>
@@ -11280,31 +11283,31 @@
         <v>1</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H259" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I259" s="1">
         <v>1</v>
       </c>
       <c r="J259" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M259" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="P259" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="Q259" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -11373,50 +11376,50 @@
   <sheetData>
     <row r="1" spans="2:3" ht="12.75" customHeight="1">
       <c r="B1" s="10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="2:3" ht="12.75" customHeight="1">
       <c r="B2" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="12.75" customHeight="1">
       <c r="B3" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="12.75" customHeight="1">
       <c r="B4" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="12.75" customHeight="1">
       <c r="B5" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="12.75" customHeight="1">
       <c r="B6" s="9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -11509,7 +11512,7 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B3" s="14">
         <v>15</v>
@@ -11563,7 +11566,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B4" s="12">
         <v>0</v>
@@ -11620,7 +11623,7 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B5" s="12">
         <v>0</v>
@@ -11677,7 +11680,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B6" s="12">
         <v>0</v>
@@ -11734,7 +11737,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B7" s="12">
         <v>0</v>
@@ -11791,7 +11794,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B8" s="12">
         <v>0</v>
@@ -11848,7 +11851,7 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B9" s="12">
         <v>0</v>
@@ -11905,7 +11908,7 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B10" s="12">
         <v>0</v>
@@ -11962,7 +11965,7 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B11" s="12">
         <v>0</v>
@@ -12027,8 +12030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A145AA7-9EA1-42EE-A176-4D22B50CD094}">
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:B41"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -12042,21 +12045,21 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="13" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D2" s="18" t="str">
         <f>"MANUAL_DATA.push({item: '"&amp;A2&amp;"', sitemap: '"&amp;B2&amp;"'});"</f>
@@ -12065,757 +12068,757 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D3" s="18" t="str">
-        <f t="shared" ref="D3:D65" si="0">"MANUAL_DATA.push({item: '"&amp;A3&amp;"', sitemap: '"&amp;B3&amp;"'});"</f>
+        <f>"MANUAL_DATA.push({item: '"&amp;A3&amp;"', sitemap: '"&amp;B3&amp;"'});"</f>
         <v>MANUAL_DATA.push({item: 'PV_Device_Model_Info', sitemap: 'Infos'});</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D4" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>"MANUAL_DATA.push({item: '"&amp;A4&amp;"', sitemap: '"&amp;B4&amp;"'});"</f>
         <v>MANUAL_DATA.push({item: 'PV_Firmware_Version', sitemap: 'Infos'});</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D5" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>"MANUAL_DATA.push({item: '"&amp;A5&amp;"', sitemap: '"&amp;B5&amp;"'});"</f>
         <v>MANUAL_DATA.push({item: 'PV_DateTime', sitemap: 'Infos'});</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D6" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>"MANUAL_DATA.push({item: '"&amp;A6&amp;"', sitemap: '"&amp;B6&amp;"'});"</f>
         <v>MANUAL_DATA.push({item: 'PV_Fault_1_0', sitemap: 'Status'});</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D7" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>"MANUAL_DATA.push({item: '"&amp;A7&amp;"', sitemap: '"&amp;B7&amp;"'});"</f>
         <v>MANUAL_DATA.push({item: 'PV_Fault_1_1', sitemap: 'Status'});</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D8" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>"MANUAL_DATA.push({item: '"&amp;A8&amp;"', sitemap: '"&amp;B8&amp;"'});"</f>
         <v>MANUAL_DATA.push({item: 'PV_Fault_1_2', sitemap: 'Status'});</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D9" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>"MANUAL_DATA.push({item: '"&amp;A9&amp;"', sitemap: '"&amp;B9&amp;"'});"</f>
         <v>MANUAL_DATA.push({item: 'PV_Fault_1_3', sitemap: 'Status'});</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D10" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>"MANUAL_DATA.push({item: '"&amp;A10&amp;"', sitemap: '"&amp;B10&amp;"'});"</f>
         <v>MANUAL_DATA.push({item: 'PV_Fault_1_4', sitemap: 'Status'});</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D11" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>"MANUAL_DATA.push({item: '"&amp;A11&amp;"', sitemap: '"&amp;B11&amp;"'});"</f>
         <v>MANUAL_DATA.push({item: 'PV_Fault_1_5', sitemap: 'Status'});</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D12" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>"MANUAL_DATA.push({item: '"&amp;A12&amp;"', sitemap: '"&amp;B12&amp;"'});"</f>
         <v>MANUAL_DATA.push({item: 'PV_Fault_1_6', sitemap: 'Status'});</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D13" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>"MANUAL_DATA.push({item: '"&amp;A13&amp;"', sitemap: '"&amp;B13&amp;"'});"</f>
         <v>MANUAL_DATA.push({item: 'PV_Fault_1_7', sitemap: 'Status'});</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D14" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>"MANUAL_DATA.push({item: '"&amp;A14&amp;"', sitemap: '"&amp;B14&amp;"'});"</f>
         <v>MANUAL_DATA.push({item: 'PV_Fault_1_8', sitemap: 'Status'});</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D15" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>"MANUAL_DATA.push({item: '"&amp;A15&amp;"', sitemap: '"&amp;B15&amp;"'});"</f>
         <v>MANUAL_DATA.push({item: 'PV_Fault_2_1', sitemap: 'Status'});</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D16" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>"MANUAL_DATA.push({item: '"&amp;A16&amp;"', sitemap: '"&amp;B16&amp;"'});"</f>
         <v>MANUAL_DATA.push({item: 'PV_Fault_2_2', sitemap: 'Status'});</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D17" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>"MANUAL_DATA.push({item: '"&amp;A17&amp;"', sitemap: '"&amp;B17&amp;"'});"</f>
         <v>MANUAL_DATA.push({item: 'PV_Fault_2_3', sitemap: 'Status'});</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D18" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>"MANUAL_DATA.push({item: '"&amp;A18&amp;"', sitemap: '"&amp;B18&amp;"'});"</f>
         <v>MANUAL_DATA.push({item: 'PV_Fault_2_4', sitemap: 'Status'});</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D19" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>"MANUAL_DATA.push({item: '"&amp;A19&amp;"', sitemap: '"&amp;B19&amp;"'});"</f>
         <v>MANUAL_DATA.push({item: 'PV_Fault_2_5', sitemap: 'Status'});</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D20" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>"MANUAL_DATA.push({item: '"&amp;A20&amp;"', sitemap: '"&amp;B20&amp;"'});"</f>
         <v>MANUAL_DATA.push({item: 'PV_Fault_2_6', sitemap: 'Status'});</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D21" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>"MANUAL_DATA.push({item: '"&amp;A21&amp;"', sitemap: '"&amp;B21&amp;"'});"</f>
         <v>MANUAL_DATA.push({item: 'PV_Fault_2_7', sitemap: 'Status'});</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D22" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>"MANUAL_DATA.push({item: '"&amp;A22&amp;"', sitemap: '"&amp;B22&amp;"'});"</f>
         <v>MANUAL_DATA.push({item: 'PV_Fault_3_0', sitemap: 'Status'});</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D23" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>"MANUAL_DATA.push({item: '"&amp;A23&amp;"', sitemap: '"&amp;B23&amp;"'});"</f>
         <v>MANUAL_DATA.push({item: 'PV_Fault_3_1', sitemap: 'Status'});</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D24" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>"MANUAL_DATA.push({item: '"&amp;A24&amp;"', sitemap: '"&amp;B24&amp;"'});"</f>
         <v>MANUAL_DATA.push({item: 'PV_Fault_3_2', sitemap: 'Status'});</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D25" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>"MANUAL_DATA.push({item: '"&amp;A25&amp;"', sitemap: '"&amp;B25&amp;"'});"</f>
         <v>MANUAL_DATA.push({item: 'PV_Fault_3_3', sitemap: 'Status'});</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D26" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>"MANUAL_DATA.push({item: '"&amp;A26&amp;"', sitemap: '"&amp;B26&amp;"'});"</f>
         <v>MANUAL_DATA.push({item: 'PV_Fault_3_4', sitemap: 'Status'});</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D27" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>"MANUAL_DATA.push({item: '"&amp;A27&amp;"', sitemap: '"&amp;B27&amp;"'});"</f>
         <v>MANUAL_DATA.push({item: 'PV_Fault_3_5', sitemap: 'Status'});</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D28" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>"MANUAL_DATA.push({item: '"&amp;A28&amp;"', sitemap: '"&amp;B28&amp;"'});"</f>
         <v>MANUAL_DATA.push({item: 'PV_Fault_3_6', sitemap: 'Status'});</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D29" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>"MANUAL_DATA.push({item: '"&amp;A29&amp;"', sitemap: '"&amp;B29&amp;"'});"</f>
         <v>MANUAL_DATA.push({item: 'PV_Fault_3_7', sitemap: 'Status'});</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D30" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>"MANUAL_DATA.push({item: '"&amp;A30&amp;"', sitemap: '"&amp;B30&amp;"'});"</f>
         <v>MANUAL_DATA.push({item: 'PV_Fault_3_8', sitemap: 'Status'});</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D31" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>"MANUAL_DATA.push({item: '"&amp;A31&amp;"', sitemap: '"&amp;B31&amp;"'});"</f>
         <v>MANUAL_DATA.push({item: 'PV_Fault_3_9', sitemap: 'Status'});</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D32" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>"MANUAL_DATA.push({item: '"&amp;A32&amp;"', sitemap: '"&amp;B32&amp;"'});"</f>
         <v>MANUAL_DATA.push({item: 'PV_Fault_3_10', sitemap: 'Status'});</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D33" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>"MANUAL_DATA.push({item: '"&amp;A33&amp;"', sitemap: '"&amp;B33&amp;"'});"</f>
         <v>MANUAL_DATA.push({item: 'PV_Fault_ARM_0', sitemap: 'Status'});</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D34" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>"MANUAL_DATA.push({item: '"&amp;A34&amp;"', sitemap: '"&amp;B34&amp;"'});"</f>
         <v>MANUAL_DATA.push({item: 'PV_Fault_ARM_1', sitemap: 'Status'});</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D35" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>"MANUAL_DATA.push({item: '"&amp;A35&amp;"', sitemap: '"&amp;B35&amp;"'});"</f>
         <v>MANUAL_DATA.push({item: 'PV_Fault_ARM_2', sitemap: 'Status'});</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D36" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>"MANUAL_DATA.push({item: '"&amp;A36&amp;"', sitemap: '"&amp;B36&amp;"'});"</f>
         <v>MANUAL_DATA.push({item: 'PV_Period_1_Enabled', sitemap: 'Period 1'});</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D37" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>"MANUAL_DATA.push({item: '"&amp;A37&amp;"', sitemap: '"&amp;B37&amp;"'});"</f>
         <v>MANUAL_DATA.push({item: 'PV_Period_2_Enabled', sitemap: 'Period 2'});</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D38" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>"MANUAL_DATA.push({item: '"&amp;A38&amp;"', sitemap: '"&amp;B38&amp;"'});"</f>
         <v>MANUAL_DATA.push({item: 'PV_Period_3_Enabled', sitemap: 'Period 3'});</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D39" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>"MANUAL_DATA.push({item: '"&amp;A39&amp;"', sitemap: '"&amp;B39&amp;"'});"</f>
         <v>MANUAL_DATA.push({item: 'PV_Period_4_Enabled', sitemap: 'Period 4'});</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D40" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>"MANUAL_DATA.push({item: '"&amp;A40&amp;"', sitemap: '"&amp;B40&amp;"'});"</f>
         <v>MANUAL_DATA.push({item: 'PV_Period_5_Enabled', sitemap: 'Period 5'});</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D41" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>"MANUAL_DATA.push({item: '"&amp;A41&amp;"', sitemap: '"&amp;B41&amp;"'});"</f>
         <v>MANUAL_DATA.push({item: 'PV_Period_6_Enabled', sitemap: 'Period 6'});</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D42" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>"MANUAL_DATA.push({item: '"&amp;A42&amp;"', sitemap: '"&amp;B42&amp;"'});"</f>
         <v>MANUAL_DATA.push({item: 'PV_Period_1_Start_H', sitemap: 'Period 1'});</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D43" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>"MANUAL_DATA.push({item: '"&amp;A43&amp;"', sitemap: '"&amp;B43&amp;"'});"</f>
         <v>MANUAL_DATA.push({item: 'PV_Period_2_Start_H', sitemap: 'Period 2'});</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D44" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>"MANUAL_DATA.push({item: '"&amp;A44&amp;"', sitemap: '"&amp;B44&amp;"'});"</f>
         <v>MANUAL_DATA.push({item: 'PV_Period_3_Start_H', sitemap: 'Period 3'});</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D45" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>"MANUAL_DATA.push({item: '"&amp;A45&amp;"', sitemap: '"&amp;B45&amp;"'});"</f>
         <v>MANUAL_DATA.push({item: 'PV_Period_4_Start_H', sitemap: 'Period 4'});</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D46" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>"MANUAL_DATA.push({item: '"&amp;A46&amp;"', sitemap: '"&amp;B46&amp;"'});"</f>
         <v>MANUAL_DATA.push({item: 'PV_Period_5_Start_H', sitemap: 'Period 5'});</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D47" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>"MANUAL_DATA.push({item: '"&amp;A47&amp;"', sitemap: '"&amp;B47&amp;"'});"</f>
         <v>MANUAL_DATA.push({item: 'PV_Period_6_Start_H', sitemap: 'Period 6'});</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D48" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>"MANUAL_DATA.push({item: '"&amp;A48&amp;"', sitemap: '"&amp;B48&amp;"'});"</f>
         <v>MANUAL_DATA.push({item: 'PV_Period_1_Start_M', sitemap: 'Period 1'});</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D49" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>"MANUAL_DATA.push({item: '"&amp;A49&amp;"', sitemap: '"&amp;B49&amp;"'});"</f>
         <v>MANUAL_DATA.push({item: 'PV_Period_2_Start_M', sitemap: 'Period 2'});</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D50" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>"MANUAL_DATA.push({item: '"&amp;A50&amp;"', sitemap: '"&amp;B50&amp;"'});"</f>
         <v>MANUAL_DATA.push({item: 'PV_Period_3_Start_M', sitemap: 'Period 3'});</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D51" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>"MANUAL_DATA.push({item: '"&amp;A51&amp;"', sitemap: '"&amp;B51&amp;"'});"</f>
         <v>MANUAL_DATA.push({item: 'PV_Period_4_Start_M', sitemap: 'Period 4'});</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D52" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>"MANUAL_DATA.push({item: '"&amp;A52&amp;"', sitemap: '"&amp;B52&amp;"'});"</f>
         <v>MANUAL_DATA.push({item: 'PV_Period_5_Start_M', sitemap: 'Period 5'});</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D53" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>"MANUAL_DATA.push({item: '"&amp;A53&amp;"', sitemap: '"&amp;B53&amp;"'});"</f>
         <v>MANUAL_DATA.push({item: 'PV_Period_6_Start_M', sitemap: 'Period 6'});</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D54" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>"MANUAL_DATA.push({item: '"&amp;A54&amp;"', sitemap: '"&amp;B54&amp;"'});"</f>
         <v>MANUAL_DATA.push({item: 'PV_Period_1_Stop_H', sitemap: 'Period 1'});</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D55" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>"MANUAL_DATA.push({item: '"&amp;A55&amp;"', sitemap: '"&amp;B55&amp;"'});"</f>
         <v>MANUAL_DATA.push({item: 'PV_Period_2_Stop_H', sitemap: 'Period 2'});</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D56" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>"MANUAL_DATA.push({item: '"&amp;A56&amp;"', sitemap: '"&amp;B56&amp;"'});"</f>
         <v>MANUAL_DATA.push({item: 'PV_Period_3_Stop_H', sitemap: 'Period 3'});</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D57" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>"MANUAL_DATA.push({item: '"&amp;A57&amp;"', sitemap: '"&amp;B57&amp;"'});"</f>
         <v>MANUAL_DATA.push({item: 'PV_Period_4_Stop_H', sitemap: 'Period 4'});</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D58" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>"MANUAL_DATA.push({item: '"&amp;A58&amp;"', sitemap: '"&amp;B58&amp;"'});"</f>
         <v>MANUAL_DATA.push({item: 'PV_Period_5_Stop_H', sitemap: 'Period 5'});</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D59" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>"MANUAL_DATA.push({item: '"&amp;A59&amp;"', sitemap: '"&amp;B59&amp;"'});"</f>
         <v>MANUAL_DATA.push({item: 'PV_Period_6_Stop_H', sitemap: 'Period 6'});</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D60" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>"MANUAL_DATA.push({item: '"&amp;A60&amp;"', sitemap: '"&amp;B60&amp;"'});"</f>
         <v>MANUAL_DATA.push({item: 'PV_Period_1_Stop_M', sitemap: 'Period 1'});</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D61" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>"MANUAL_DATA.push({item: '"&amp;A61&amp;"', sitemap: '"&amp;B61&amp;"'});"</f>
         <v>MANUAL_DATA.push({item: 'PV_Period_2_Stop_M', sitemap: 'Period 2'});</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D62" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>"MANUAL_DATA.push({item: '"&amp;A62&amp;"', sitemap: '"&amp;B62&amp;"'});"</f>
         <v>MANUAL_DATA.push({item: 'PV_Period_3_Stop_M', sitemap: 'Period 3'});</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D63" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>"MANUAL_DATA.push({item: '"&amp;A63&amp;"', sitemap: '"&amp;B63&amp;"'});"</f>
         <v>MANUAL_DATA.push({item: 'PV_Period_4_Stop_M', sitemap: 'Period 4'});</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D64" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>"MANUAL_DATA.push({item: '"&amp;A64&amp;"', sitemap: '"&amp;B64&amp;"'});"</f>
         <v>MANUAL_DATA.push({item: 'PV_Period_5_Stop_M', sitemap: 'Period 5'});</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D65" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>"MANUAL_DATA.push({item: '"&amp;A65&amp;"', sitemap: '"&amp;B65&amp;"'});"</f>
         <v>MANUAL_DATA.push({item: 'PV_Period_6_Stop_M', sitemap: 'Period 6'});</v>
       </c>
     </row>

--- a/Solinteg Modbus Registers.xlsx
+++ b/Solinteg Modbus Registers.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1EFB93-EB5B-48D3-A9BD-548E5A3379D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B92BAD1-9FDB-43EB-816D-2F2149FB47AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registers" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Manual Config" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Registers!$A$1:$Q$259</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Registers!$A$1:$R$259</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2319" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2320" uniqueCount="404">
   <si>
     <t>Table</t>
   </si>
@@ -1302,6 +1302,9 @@
   </si>
   <si>
     <t>solinteg-fw-version.js</t>
+  </si>
+  <si>
+    <t>refresh</t>
   </si>
 </sst>
 </file>
@@ -1443,10 +1446,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1801,11 +1804,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q259"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:R259"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N16" sqref="N16"/>
+      <pane ySplit="1" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E176" sqref="E176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1824,13 +1828,14 @@
     <col min="12" max="12" width="17" style="1" customWidth="1"/>
     <col min="13" max="13" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="34.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="11.42578125" style="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1871,16 +1876,19 @@
         <v>291</v>
       </c>
       <c r="O1" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:18" hidden="1">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -1917,14 +1925,14 @@
       <c r="M2" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1941,7 +1949,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1958,7 +1966,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1975,7 +1983,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1992,7 +2000,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -2009,7 +2017,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -2026,7 +2034,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -2043,7 +2051,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:18" hidden="1">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -2077,14 +2085,14 @@
       <c r="L10" s="16">
         <v>1</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="Q10" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="R10" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:18" hidden="1">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -2121,14 +2129,14 @@
       <c r="N11" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="Q11" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="R11" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -2163,7 +2171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:18" hidden="1">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -2191,20 +2199,20 @@
       <c r="I13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="19" t="s">
+      <c r="J13" s="20" t="s">
         <v>27</v>
       </c>
       <c r="L13" s="16">
         <v>1</v>
       </c>
-      <c r="P13" s="1" t="s">
+      <c r="Q13" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="R13" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:18" hidden="1">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -2232,18 +2240,18 @@
       <c r="I14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="19"/>
+      <c r="J14" s="20"/>
       <c r="L14" s="16">
         <v>1</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="Q14" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="Q14" s="1" t="s">
+      <c r="R14" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:18" hidden="1">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -2271,18 +2279,18 @@
       <c r="I15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="19"/>
+      <c r="J15" s="20"/>
       <c r="L15" s="16">
         <v>1</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="Q15" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="R15" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:18" hidden="1">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -2316,14 +2324,18 @@
       <c r="N16" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="O16" s="1">
+        <f>1000*60*60</f>
+        <v>3600000</v>
+      </c>
+      <c r="Q16" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="R16" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="90" customHeight="1">
+    <row r="17" spans="1:18" ht="90" hidden="1" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -2357,14 +2369,18 @@
       <c r="N17" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="P17" s="1" t="s">
+      <c r="O17" s="1">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+      <c r="Q17" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="Q17" s="1" t="s">
+      <c r="R17" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:18" hidden="1">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -2392,7 +2408,7 @@
       <c r="I18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="19" t="s">
+      <c r="J18" s="20" t="s">
         <v>34</v>
       </c>
       <c r="L18" s="16">
@@ -2401,14 +2417,14 @@
       <c r="M18" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="P18" s="1" t="s">
+      <c r="Q18" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="Q18" s="1" t="s">
+      <c r="R18" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:18">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -2436,7 +2452,7 @@
       <c r="I19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J19" s="19"/>
+      <c r="J19" s="20"/>
       <c r="L19" s="16">
         <v>1</v>
       </c>
@@ -2444,7 +2460,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:18" hidden="1">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
@@ -2472,21 +2488,21 @@
       <c r="I20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="19"/>
+      <c r="J20" s="20"/>
       <c r="L20" s="16">
         <v>1</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="P20" s="1" t="s">
+      <c r="Q20" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="Q20" s="1" t="s">
+      <c r="R20" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:18">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
@@ -2514,7 +2530,7 @@
       <c r="I21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J21" s="19"/>
+      <c r="J21" s="20"/>
       <c r="L21" s="16">
         <v>1</v>
       </c>
@@ -2522,7 +2538,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:18" hidden="1">
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
@@ -2550,21 +2566,21 @@
       <c r="I22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="19"/>
+      <c r="J22" s="20"/>
       <c r="L22" s="16">
         <v>1</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="P22" s="1" t="s">
+      <c r="Q22" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="Q22" s="1" t="s">
+      <c r="R22" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:18">
       <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
@@ -2592,7 +2608,7 @@
       <c r="I23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J23" s="19"/>
+      <c r="J23" s="20"/>
       <c r="L23" s="16">
         <v>1</v>
       </c>
@@ -2600,7 +2616,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:18" hidden="1">
       <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
@@ -2628,15 +2644,19 @@
       <c r="I24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J24" s="19"/>
-      <c r="P24" s="1" t="s">
+      <c r="J24" s="20"/>
+      <c r="O24" s="1">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+      <c r="Q24" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q24" s="1" t="s">
+      <c r="R24" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:18">
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
@@ -2668,7 +2688,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:18" hidden="1">
       <c r="A26" s="1" t="s">
         <v>11</v>
       </c>
@@ -2699,14 +2719,18 @@
       <c r="J26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P26" s="1" t="s">
+      <c r="O26" s="1">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+      <c r="Q26" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q26" s="1" t="s">
+      <c r="R26" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:18">
       <c r="A27" s="1" t="s">
         <v>11</v>
       </c>
@@ -2717,7 +2741,7 @@
         <v>10997</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:18" hidden="1">
       <c r="A28" s="1" t="s">
         <v>11</v>
       </c>
@@ -2745,14 +2769,18 @@
       <c r="I28" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P28" s="1" t="s">
+      <c r="O28" s="1">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+      <c r="Q28" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q28" s="1" t="s">
+      <c r="R28" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:18">
       <c r="A29" s="1" t="s">
         <v>11</v>
       </c>
@@ -2784,7 +2812,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:18" hidden="1">
       <c r="A30" s="1" t="s">
         <v>11</v>
       </c>
@@ -2815,14 +2843,18 @@
       <c r="J30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P30" s="1" t="s">
+      <c r="O30" s="1">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+      <c r="Q30" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q30" s="1" t="s">
+      <c r="R30" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:18">
       <c r="A31" s="1" t="s">
         <v>11</v>
       </c>
@@ -2854,7 +2886,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:18" hidden="1">
       <c r="A32" s="1" t="s">
         <v>11</v>
       </c>
@@ -2882,14 +2914,18 @@
       <c r="I32" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="P32" s="1" t="s">
+      <c r="O32" s="1">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+      <c r="Q32" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q32" s="1" t="s">
+      <c r="R32" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:18">
       <c r="A33" s="1" t="s">
         <v>11</v>
       </c>
@@ -2921,7 +2957,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:18" hidden="1">
       <c r="A34" s="1" t="s">
         <v>11</v>
       </c>
@@ -2952,14 +2988,18 @@
       <c r="J34" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P34" s="1" t="s">
+      <c r="O34" s="1">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+      <c r="Q34" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q34" s="1" t="s">
+      <c r="R34" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:18">
       <c r="A35" s="1" t="s">
         <v>11</v>
       </c>
@@ -2991,7 +3031,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:18" hidden="1">
       <c r="A36" s="1" t="s">
         <v>11</v>
       </c>
@@ -3022,14 +3062,18 @@
       <c r="J36" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P36" s="1" t="s">
+      <c r="O36" s="1">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+      <c r="Q36" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q36" s="1" t="s">
+      <c r="R36" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:18" hidden="1">
       <c r="A37" s="1" t="s">
         <v>11</v>
       </c>
@@ -3060,14 +3104,18 @@
       <c r="J37" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P37" s="1" t="s">
+      <c r="O37" s="1">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+      <c r="Q37" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q37" s="1" t="s">
+      <c r="R37" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:18" hidden="1">
       <c r="A38" s="1" t="s">
         <v>11</v>
       </c>
@@ -3098,14 +3146,18 @@
       <c r="J38" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P38" s="1" t="s">
+      <c r="O38" s="1">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+      <c r="Q38" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q38" s="1" t="s">
+      <c r="R38" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:18" hidden="1">
       <c r="A39" s="1" t="s">
         <v>11</v>
       </c>
@@ -3136,14 +3188,18 @@
       <c r="J39" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P39" s="1" t="s">
+      <c r="O39" s="1">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+      <c r="Q39" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q39" s="1" t="s">
+      <c r="R39" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:18" hidden="1">
       <c r="A40" s="1" t="s">
         <v>11</v>
       </c>
@@ -3174,14 +3230,18 @@
       <c r="J40" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P40" s="1" t="s">
+      <c r="O40" s="1">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+      <c r="Q40" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q40" s="1" t="s">
+      <c r="R40" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:18" hidden="1">
       <c r="A41" s="1" t="s">
         <v>11</v>
       </c>
@@ -3212,14 +3272,18 @@
       <c r="J41" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P41" s="1" t="s">
+      <c r="O41" s="1">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+      <c r="Q41" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q41" s="1" t="s">
+      <c r="R41" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:18" hidden="1">
       <c r="A42" s="1" t="s">
         <v>11</v>
       </c>
@@ -3250,14 +3314,18 @@
       <c r="J42" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P42" s="1" t="s">
+      <c r="O42" s="1">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+      <c r="Q42" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q42" s="1" t="s">
+      <c r="R42" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:18" hidden="1">
       <c r="A43" s="1" t="s">
         <v>11</v>
       </c>
@@ -3288,14 +3356,18 @@
       <c r="J43" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P43" s="1" t="s">
+      <c r="O43" s="1">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+      <c r="Q43" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q43" s="1" t="s">
+      <c r="R43" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:18" hidden="1">
       <c r="A44" s="1" t="s">
         <v>11</v>
       </c>
@@ -3326,14 +3398,18 @@
       <c r="J44" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P44" s="1" t="s">
+      <c r="O44" s="1">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+      <c r="Q44" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q44" s="1" t="s">
+      <c r="R44" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:18" hidden="1">
       <c r="A45" s="1" t="s">
         <v>11</v>
       </c>
@@ -3364,14 +3440,18 @@
       <c r="J45" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P45" s="1" t="s">
+      <c r="O45" s="1">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+      <c r="Q45" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q45" s="1" t="s">
+      <c r="R45" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:18" hidden="1">
       <c r="A46" s="1" t="s">
         <v>11</v>
       </c>
@@ -3402,14 +3482,18 @@
       <c r="J46" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P46" s="1" t="s">
+      <c r="O46" s="1">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+      <c r="Q46" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q46" s="1" t="s">
+      <c r="R46" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:18">
       <c r="A47" s="1" t="s">
         <v>11</v>
       </c>
@@ -3441,7 +3525,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:18" hidden="1">
       <c r="A48" s="1" t="s">
         <v>11</v>
       </c>
@@ -3472,14 +3556,18 @@
       <c r="J48" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P48" s="1" t="s">
+      <c r="O48" s="1">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+      <c r="Q48" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q48" s="1" t="s">
+      <c r="R48" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:18">
       <c r="A49" s="1" t="s">
         <v>11</v>
       </c>
@@ -3511,7 +3599,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:18" hidden="1">
       <c r="A50" s="1" t="s">
         <v>11</v>
       </c>
@@ -3542,14 +3630,18 @@
       <c r="J50" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P50" s="1" t="s">
+      <c r="O50" s="1">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+      <c r="Q50" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q50" s="1" t="s">
+      <c r="R50" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:18">
       <c r="A51" s="1" t="s">
         <v>11</v>
       </c>
@@ -3581,7 +3673,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:18" hidden="1">
       <c r="A52" s="1" t="s">
         <v>11</v>
       </c>
@@ -3609,14 +3701,18 @@
       <c r="I52" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P52" s="1" t="s">
+      <c r="O52" s="1">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+      <c r="Q52" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="Q52" s="1" t="s">
+      <c r="R52" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:18">
       <c r="A53" s="1" t="s">
         <v>11</v>
       </c>
@@ -3648,7 +3744,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:18" hidden="1">
       <c r="A54" s="1" t="s">
         <v>11</v>
       </c>
@@ -3676,14 +3772,18 @@
       <c r="I54" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P54" s="1" t="s">
+      <c r="O54" s="1">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+      <c r="Q54" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q54" s="1" t="s">
+      <c r="R54" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:18">
       <c r="A55" s="1" t="s">
         <v>11</v>
       </c>
@@ -3715,7 +3815,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:18" hidden="1">
       <c r="A56" s="1" t="s">
         <v>11</v>
       </c>
@@ -3746,14 +3846,18 @@
       <c r="J56" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P56" s="1" t="s">
+      <c r="O56" s="1">
+        <f>1000*60</f>
+        <v>60000</v>
+      </c>
+      <c r="Q56" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="Q56" s="1" t="s">
+      <c r="R56" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:18" hidden="1">
       <c r="A57" s="1" t="s">
         <v>11</v>
       </c>
@@ -3784,14 +3888,18 @@
       <c r="J57" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P57" s="1" t="s">
+      <c r="O57" s="1">
+        <f>1000*60</f>
+        <v>60000</v>
+      </c>
+      <c r="Q57" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="Q57" s="1" t="s">
+      <c r="R57" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:18" hidden="1">
       <c r="A58" s="1" t="s">
         <v>11</v>
       </c>
@@ -3822,14 +3930,18 @@
       <c r="J58" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P58" s="1" t="s">
+      <c r="O58" s="1">
+        <f>1000*60</f>
+        <v>60000</v>
+      </c>
+      <c r="Q58" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="Q58" s="1" t="s">
+      <c r="R58" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:18" hidden="1">
       <c r="A59" s="1" t="s">
         <v>11</v>
       </c>
@@ -3860,14 +3972,18 @@
       <c r="J59" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P59" s="1" t="s">
+      <c r="O59" s="1">
+        <f>1000*60</f>
+        <v>60000</v>
+      </c>
+      <c r="Q59" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="Q59" s="1" t="s">
+      <c r="R59" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:18" hidden="1">
       <c r="A60" s="1" t="s">
         <v>11</v>
       </c>
@@ -3898,14 +4014,18 @@
       <c r="J60" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P60" s="1" t="s">
+      <c r="O60" s="1">
+        <f>1000*5</f>
+        <v>5000</v>
+      </c>
+      <c r="Q60" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q60" s="1" t="s">
+      <c r="R60" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:18" hidden="1">
       <c r="A61" s="1" t="s">
         <v>11</v>
       </c>
@@ -3936,14 +4056,18 @@
       <c r="J61" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P61" s="1" t="s">
+      <c r="O61" s="1">
+        <f>1000*5</f>
+        <v>5000</v>
+      </c>
+      <c r="Q61" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q61" s="1" t="s">
+      <c r="R61" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:18" hidden="1">
       <c r="A62" s="1" t="s">
         <v>11</v>
       </c>
@@ -3974,14 +4098,18 @@
       <c r="J62" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P62" s="1" t="s">
+      <c r="O62" s="1">
+        <f>1000*5</f>
+        <v>5000</v>
+      </c>
+      <c r="Q62" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q62" s="1" t="s">
+      <c r="R62" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:18" hidden="1">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -4012,14 +4140,18 @@
       <c r="J63" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P63" s="1" t="s">
+      <c r="O63" s="1">
+        <f>1000*5</f>
+        <v>5000</v>
+      </c>
+      <c r="Q63" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q63" s="1" t="s">
+      <c r="R63" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:18" hidden="1">
       <c r="A64" s="1" t="s">
         <v>11</v>
       </c>
@@ -4050,14 +4182,18 @@
       <c r="J64" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P64" s="1" t="s">
+      <c r="O64" s="1">
+        <f>1000*5</f>
+        <v>5000</v>
+      </c>
+      <c r="Q64" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q64" s="1" t="s">
+      <c r="R64" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:18">
       <c r="A65" s="1" t="s">
         <v>11</v>
       </c>
@@ -4089,7 +4225,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:18" hidden="1">
       <c r="A66" s="1" t="s">
         <v>11</v>
       </c>
@@ -4120,14 +4256,18 @@
       <c r="J66" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P66" s="1" t="s">
+      <c r="O66" s="1">
+        <f>1000*5</f>
+        <v>5000</v>
+      </c>
+      <c r="Q66" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q66" s="1" t="s">
+      <c r="R66" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:18">
       <c r="A67" s="1" t="s">
         <v>11</v>
       </c>
@@ -4159,7 +4299,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:18" hidden="1">
       <c r="A68" s="1" t="s">
         <v>11</v>
       </c>
@@ -4187,7 +4327,7 @@
       <c r="I68" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J68" s="19" t="s">
+      <c r="J68" s="20" t="s">
         <v>34</v>
       </c>
       <c r="L68" s="16">
@@ -4196,14 +4336,14 @@
       <c r="M68" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="P68" s="1" t="s">
+      <c r="Q68" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="Q68" s="1" t="s">
+      <c r="R68" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:18">
       <c r="A69" s="1" t="s">
         <v>11</v>
       </c>
@@ -4231,7 +4371,7 @@
       <c r="I69" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J69" s="19"/>
+      <c r="J69" s="20"/>
       <c r="L69" s="16">
         <v>1</v>
       </c>
@@ -4239,7 +4379,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:18" hidden="1">
       <c r="A70" s="1" t="s">
         <v>11</v>
       </c>
@@ -4270,14 +4410,18 @@
       <c r="J70" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="P70" s="1" t="s">
+      <c r="O70" s="1">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+      <c r="Q70" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q70" s="1" t="s">
+      <c r="R70" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:18" hidden="1">
       <c r="A71" s="1" t="s">
         <v>11</v>
       </c>
@@ -4308,14 +4452,18 @@
       <c r="J71" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="P71" s="1" t="s">
+      <c r="O71" s="1">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+      <c r="Q71" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q71" s="1" t="s">
+      <c r="R71" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:18" hidden="1">
       <c r="A72" s="1" t="s">
         <v>11</v>
       </c>
@@ -4346,14 +4494,18 @@
       <c r="J72" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="P72" s="1" t="s">
+      <c r="O72" s="1">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+      <c r="Q72" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q72" s="1" t="s">
+      <c r="R72" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:18" hidden="1">
       <c r="A73" s="1" t="s">
         <v>11</v>
       </c>
@@ -4384,14 +4536,18 @@
       <c r="J73" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="P73" s="1" t="s">
+      <c r="O73" s="1">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+      <c r="Q73" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q73" s="1" t="s">
+      <c r="R73" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:18">
       <c r="A74" s="1" t="s">
         <v>11</v>
       </c>
@@ -4423,7 +4579,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:18" hidden="1">
       <c r="A75" s="1" t="s">
         <v>11</v>
       </c>
@@ -4454,14 +4610,18 @@
       <c r="J75" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="P75" s="1" t="s">
+      <c r="O75" s="1">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+      <c r="Q75" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q75" s="1" t="s">
+      <c r="R75" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:18" hidden="1">
       <c r="A76" s="1" t="s">
         <v>11</v>
       </c>
@@ -4492,14 +4652,18 @@
       <c r="J76" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="P76" s="1" t="s">
+      <c r="O76" s="1">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+      <c r="Q76" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q76" s="1" t="s">
+      <c r="R76" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:18" hidden="1">
       <c r="A77" s="1" t="s">
         <v>11</v>
       </c>
@@ -4530,14 +4694,18 @@
       <c r="J77" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="P77" s="1" t="s">
+      <c r="O77" s="1">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+      <c r="Q77" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q77" s="1" t="s">
+      <c r="R77" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:18" hidden="1">
       <c r="A78" s="1" t="s">
         <v>11</v>
       </c>
@@ -4568,14 +4736,18 @@
       <c r="J78" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="P78" s="1" t="s">
+      <c r="O78" s="1">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+      <c r="Q78" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q78" s="1" t="s">
+      <c r="R78" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:18">
       <c r="A79" s="1" t="s">
         <v>11</v>
       </c>
@@ -4607,7 +4779,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:18" hidden="1">
       <c r="A80" s="1" t="s">
         <v>11</v>
       </c>
@@ -4638,14 +4810,18 @@
       <c r="J80" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="P80" s="1" t="s">
+      <c r="O80" s="1">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+      <c r="Q80" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q80" s="1" t="s">
+      <c r="R80" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="81" spans="1:17">
+    <row r="81" spans="1:18" hidden="1">
       <c r="A81" s="1" t="s">
         <v>11</v>
       </c>
@@ -4676,14 +4852,18 @@
       <c r="J81" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="P81" s="1" t="s">
+      <c r="O81" s="1">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+      <c r="Q81" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q81" s="1" t="s">
+      <c r="R81" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="82" spans="1:17">
+    <row r="82" spans="1:18" hidden="1">
       <c r="A82" s="1" t="s">
         <v>11</v>
       </c>
@@ -4714,14 +4894,18 @@
       <c r="J82" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="P82" s="1" t="s">
+      <c r="O82" s="1">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+      <c r="Q82" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q82" s="1" t="s">
+      <c r="R82" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="83" spans="1:17">
+    <row r="83" spans="1:18" hidden="1">
       <c r="A83" s="1" t="s">
         <v>11</v>
       </c>
@@ -4752,14 +4936,18 @@
       <c r="J83" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="P83" s="1" t="s">
+      <c r="O83" s="1">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+      <c r="Q83" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q83" s="1" t="s">
+      <c r="R83" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="84" spans="1:17">
+    <row r="84" spans="1:18">
       <c r="A84" s="1" t="s">
         <v>11</v>
       </c>
@@ -4791,7 +4979,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:17">
+    <row r="85" spans="1:18" hidden="1">
       <c r="A85" s="1" t="s">
         <v>11</v>
       </c>
@@ -4822,14 +5010,18 @@
       <c r="J85" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="P85" s="1" t="s">
+      <c r="O85" s="1">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+      <c r="Q85" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q85" s="1" t="s">
+      <c r="R85" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="86" spans="1:17">
+    <row r="86" spans="1:18">
       <c r="A86" s="1" t="s">
         <v>11</v>
       </c>
@@ -4840,7 +5032,7 @@
         <v>20231</v>
       </c>
     </row>
-    <row r="87" spans="1:17">
+    <row r="87" spans="1:18" hidden="1">
       <c r="A87" s="1" t="s">
         <v>11</v>
       </c>
@@ -4871,14 +5063,18 @@
       <c r="J87" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="P87" s="1" t="s">
+      <c r="O87" s="1">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+      <c r="Q87" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q87" s="1" t="s">
+      <c r="R87" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="88" spans="1:17">
+    <row r="88" spans="1:18">
       <c r="A88" s="1" t="s">
         <v>11</v>
       </c>
@@ -4910,7 +5106,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:17">
+    <row r="89" spans="1:18" hidden="1">
       <c r="A89" s="1" t="s">
         <v>11</v>
       </c>
@@ -4941,14 +5137,18 @@
       <c r="J89" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P89" s="1" t="s">
+      <c r="O89" s="1">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+      <c r="Q89" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q89" s="1" t="s">
+      <c r="R89" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="90" spans="1:17">
+    <row r="90" spans="1:18">
       <c r="A90" s="1" t="s">
         <v>11</v>
       </c>
@@ -4980,7 +5180,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="1:17">
+    <row r="91" spans="1:18" hidden="1">
       <c r="A91" s="1" t="s">
         <v>11</v>
       </c>
@@ -5011,14 +5211,18 @@
       <c r="J91" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="P91" s="1" t="s">
+      <c r="O91" s="1">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+      <c r="Q91" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q91" s="1" t="s">
+      <c r="R91" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="92" spans="1:17">
+    <row r="92" spans="1:18">
       <c r="A92" s="1" t="s">
         <v>11</v>
       </c>
@@ -5050,7 +5254,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:17">
+    <row r="93" spans="1:18" hidden="1">
       <c r="A93" s="1" t="s">
         <v>11</v>
       </c>
@@ -5081,14 +5285,18 @@
       <c r="J93" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="P93" s="1" t="s">
+      <c r="O93" s="1">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+      <c r="Q93" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="Q93" s="1" t="s">
+      <c r="R93" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="94" spans="1:17">
+    <row r="94" spans="1:18" hidden="1">
       <c r="A94" s="1" t="s">
         <v>11</v>
       </c>
@@ -5119,14 +5327,18 @@
       <c r="J94" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="P94" s="1" t="s">
+      <c r="O94" s="1">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+      <c r="Q94" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="Q94" s="1" t="s">
+      <c r="R94" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="30" customHeight="1">
+    <row r="95" spans="1:18" ht="30" hidden="1" customHeight="1">
       <c r="A95" s="1" t="s">
         <v>11</v>
       </c>
@@ -5163,14 +5375,18 @@
       <c r="N95" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="P95" s="1" t="s">
+      <c r="O95" s="1">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+      <c r="Q95" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="Q95" s="1" t="s">
+      <c r="R95" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="96" spans="1:17">
+    <row r="96" spans="1:18" hidden="1">
       <c r="A96" s="1" t="s">
         <v>11</v>
       </c>
@@ -5201,14 +5417,18 @@
       <c r="J96" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P96" s="1" t="s">
+      <c r="O96" s="1">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+      <c r="Q96" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="Q96" s="1" t="s">
+      <c r="R96" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="97" spans="1:17">
+    <row r="97" spans="1:18">
       <c r="A97" s="1" t="s">
         <v>11</v>
       </c>
@@ -5240,7 +5460,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="1:17">
+    <row r="98" spans="1:18" hidden="1">
       <c r="A98" s="1" t="s">
         <v>11</v>
       </c>
@@ -5268,14 +5488,18 @@
       <c r="I98" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="P98" s="1" t="s">
+      <c r="O98" s="1">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+      <c r="Q98" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q98" s="1" t="s">
+      <c r="R98" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="99" spans="1:17">
+    <row r="99" spans="1:18" hidden="1">
       <c r="A99" s="1" t="s">
         <v>11</v>
       </c>
@@ -5303,14 +5527,18 @@
       <c r="I99" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="P99" s="1" t="s">
+      <c r="O99" s="1">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+      <c r="Q99" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q99" s="1" t="s">
+      <c r="R99" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="100" spans="1:17">
+    <row r="100" spans="1:18" hidden="1">
       <c r="A100" s="1" t="s">
         <v>11</v>
       </c>
@@ -5338,14 +5566,18 @@
       <c r="I100" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="P100" s="1" t="s">
+      <c r="O100" s="1">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+      <c r="Q100" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q100" s="1" t="s">
+      <c r="R100" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="101" spans="1:17">
+    <row r="101" spans="1:18" hidden="1">
       <c r="A101" s="1" t="s">
         <v>11</v>
       </c>
@@ -5373,14 +5605,18 @@
       <c r="I101" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="P101" s="1" t="s">
+      <c r="O101" s="1">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+      <c r="Q101" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q101" s="1" t="s">
+      <c r="R101" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="102" spans="1:17">
+    <row r="102" spans="1:18" hidden="1">
       <c r="A102" s="1" t="s">
         <v>11</v>
       </c>
@@ -5408,14 +5644,18 @@
       <c r="I102" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="P102" s="1" t="s">
+      <c r="O102" s="1">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+      <c r="Q102" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q102" s="1" t="s">
+      <c r="R102" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="103" spans="1:17">
+    <row r="103" spans="1:18" hidden="1">
       <c r="A103" s="1" t="s">
         <v>11</v>
       </c>
@@ -5443,14 +5683,18 @@
       <c r="I103" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="P103" s="1" t="s">
+      <c r="O103" s="1">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+      <c r="Q103" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q103" s="1" t="s">
+      <c r="R103" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="104" spans="1:17">
+    <row r="104" spans="1:18" hidden="1">
       <c r="A104" s="1" t="s">
         <v>11</v>
       </c>
@@ -5478,14 +5722,18 @@
       <c r="I104" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="P104" s="1" t="s">
+      <c r="O104" s="1">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+      <c r="Q104" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q104" s="1" t="s">
+      <c r="R104" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="105" spans="1:17">
+    <row r="105" spans="1:18" hidden="1">
       <c r="A105" s="1" t="s">
         <v>11</v>
       </c>
@@ -5513,14 +5761,18 @@
       <c r="I105" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="P105" s="1" t="s">
+      <c r="O105" s="1">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+      <c r="Q105" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q105" s="1" t="s">
+      <c r="R105" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="106" spans="1:17">
+    <row r="106" spans="1:18" hidden="1">
       <c r="A106" s="1" t="s">
         <v>11</v>
       </c>
@@ -5548,14 +5800,18 @@
       <c r="I106" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="P106" s="1" t="s">
+      <c r="O106" s="1">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+      <c r="Q106" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q106" s="1" t="s">
+      <c r="R106" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="107" spans="1:17">
+    <row r="107" spans="1:18">
       <c r="A107" s="1" t="s">
         <v>11</v>
       </c>
@@ -5587,7 +5843,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="108" spans="1:17">
+    <row r="108" spans="1:18" hidden="1">
       <c r="A108" s="1" t="s">
         <v>11</v>
       </c>
@@ -5615,14 +5871,18 @@
       <c r="I108" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="P108" s="1" t="s">
+      <c r="O108" s="1">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+      <c r="Q108" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q108" s="1" t="s">
+      <c r="R108" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="109" spans="1:17">
+    <row r="109" spans="1:18">
       <c r="A109" s="1" t="s">
         <v>11</v>
       </c>
@@ -5654,7 +5914,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="110" spans="1:17">
+    <row r="110" spans="1:18" hidden="1">
       <c r="A110" s="1" t="s">
         <v>11</v>
       </c>
@@ -5682,14 +5942,18 @@
       <c r="I110" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="P110" s="1" t="s">
+      <c r="O110" s="1">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+      <c r="Q110" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q110" s="1" t="s">
+      <c r="R110" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="111" spans="1:17">
+    <row r="111" spans="1:18">
       <c r="A111" s="1" t="s">
         <v>11</v>
       </c>
@@ -5721,7 +5985,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:17">
+    <row r="112" spans="1:18" hidden="1">
       <c r="A112" s="1" t="s">
         <v>11</v>
       </c>
@@ -5749,14 +6013,18 @@
       <c r="I112" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="P112" s="1" t="s">
+      <c r="O112" s="1">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+      <c r="Q112" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q112" s="1" t="s">
+      <c r="R112" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="113" spans="1:17">
+    <row r="113" spans="1:18">
       <c r="A113" s="1" t="s">
         <v>11</v>
       </c>
@@ -5788,7 +6056,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="1:17">
+    <row r="114" spans="1:18" hidden="1">
       <c r="A114" s="1" t="s">
         <v>11</v>
       </c>
@@ -5816,14 +6084,18 @@
       <c r="I114" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="P114" s="1" t="s">
+      <c r="O114" s="1">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+      <c r="Q114" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q114" s="1" t="s">
+      <c r="R114" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="115" spans="1:17">
+    <row r="115" spans="1:18">
       <c r="A115" s="1" t="s">
         <v>11</v>
       </c>
@@ -5855,7 +6127,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="1:17">
+    <row r="116" spans="1:18" hidden="1">
       <c r="A116" s="1" t="s">
         <v>11</v>
       </c>
@@ -5883,14 +6155,18 @@
       <c r="I116" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="P116" s="1" t="s">
+      <c r="O116" s="1">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+      <c r="Q116" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q116" s="1" t="s">
+      <c r="R116" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="117" spans="1:17">
+    <row r="117" spans="1:18">
       <c r="A117" s="1" t="s">
         <v>11</v>
       </c>
@@ -5922,7 +6198,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="118" spans="1:17">
+    <row r="118" spans="1:18" hidden="1">
       <c r="A118" s="1" t="s">
         <v>11</v>
       </c>
@@ -5950,14 +6226,18 @@
       <c r="I118" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="P118" s="1" t="s">
+      <c r="O118" s="1">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+      <c r="Q118" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q118" s="1" t="s">
+      <c r="R118" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="119" spans="1:17">
+    <row r="119" spans="1:18">
       <c r="A119" s="1" t="s">
         <v>11</v>
       </c>
@@ -5989,7 +6269,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="120" spans="1:17">
+    <row r="120" spans="1:18" hidden="1">
       <c r="A120" s="1" t="s">
         <v>11</v>
       </c>
@@ -6017,14 +6297,18 @@
       <c r="I120" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="P120" s="1" t="s">
+      <c r="O120" s="1">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+      <c r="Q120" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q120" s="1" t="s">
+      <c r="R120" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="121" spans="1:17">
+    <row r="121" spans="1:18">
       <c r="A121" s="1" t="s">
         <v>11</v>
       </c>
@@ -6056,7 +6340,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="122" spans="1:17">
+    <row r="122" spans="1:18" hidden="1">
       <c r="A122" s="1" t="s">
         <v>11</v>
       </c>
@@ -6084,14 +6368,18 @@
       <c r="I122" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P122" s="1" t="s">
+      <c r="O122" s="1">
+        <f>1000*60*60</f>
+        <v>3600000</v>
+      </c>
+      <c r="Q122" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="Q122" s="1" t="s">
+      <c r="R122" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="123" spans="1:17">
+    <row r="123" spans="1:18" hidden="1">
       <c r="A123" s="1" t="s">
         <v>11</v>
       </c>
@@ -6122,14 +6410,18 @@
       <c r="J123" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P123" s="1" t="s">
+      <c r="O123" s="1">
+        <f>1000*60*60</f>
+        <v>3600000</v>
+      </c>
+      <c r="Q123" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="Q123" s="1" t="s">
+      <c r="R123" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="124" spans="1:17">
+    <row r="124" spans="1:18" hidden="1">
       <c r="A124" s="1" t="s">
         <v>11</v>
       </c>
@@ -6160,14 +6452,18 @@
       <c r="J124" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P124" s="1" t="s">
+      <c r="O124" s="1">
+        <f>1000*60*60</f>
+        <v>3600000</v>
+      </c>
+      <c r="Q124" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="Q124" s="1" t="s">
+      <c r="R124" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="125" spans="1:17">
+    <row r="125" spans="1:18" hidden="1">
       <c r="A125" s="1" t="s">
         <v>11</v>
       </c>
@@ -6198,14 +6494,18 @@
       <c r="J125" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P125" s="1" t="s">
+      <c r="O125" s="1">
+        <f>1000*60*60</f>
+        <v>3600000</v>
+      </c>
+      <c r="Q125" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="Q125" s="1" t="s">
+      <c r="R125" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="126" spans="1:17">
+    <row r="126" spans="1:18" hidden="1">
       <c r="A126" s="1" t="s">
         <v>11</v>
       </c>
@@ -6236,14 +6536,18 @@
       <c r="J126" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P126" s="1" t="s">
+      <c r="O126" s="1">
+        <f>1000*60*60</f>
+        <v>3600000</v>
+      </c>
+      <c r="Q126" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="Q126" s="1" t="s">
+      <c r="R126" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="127" spans="1:17">
+    <row r="127" spans="1:18" hidden="1">
       <c r="A127" s="1" t="s">
         <v>11</v>
       </c>
@@ -6274,14 +6578,18 @@
       <c r="J127" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P127" s="1" t="s">
+      <c r="O127" s="1">
+        <f>1000*60</f>
+        <v>60000</v>
+      </c>
+      <c r="Q127" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="Q127" s="1" t="s">
+      <c r="R127" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="128" spans="1:17">
+    <row r="128" spans="1:18" hidden="1">
       <c r="A128" s="1" t="s">
         <v>11</v>
       </c>
@@ -6309,14 +6617,18 @@
       <c r="I128" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="P128" s="1" t="s">
+      <c r="O128" s="1">
+        <f>1000*60</f>
+        <v>60000</v>
+      </c>
+      <c r="Q128" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="Q128" s="1" t="s">
+      <c r="R128" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="129" spans="1:17">
+    <row r="129" spans="1:18" hidden="1">
       <c r="A129" s="1" t="s">
         <v>11</v>
       </c>
@@ -6347,14 +6659,18 @@
       <c r="J129" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P129" s="1" t="s">
+      <c r="O129" s="1">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+      <c r="Q129" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="Q129" s="1" t="s">
+      <c r="R129" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="130" spans="1:17">
+    <row r="130" spans="1:18" hidden="1">
       <c r="A130" s="1" t="s">
         <v>11</v>
       </c>
@@ -6385,14 +6701,18 @@
       <c r="J130" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P130" s="1" t="s">
+      <c r="O130" s="1">
+        <f>1000*60*60</f>
+        <v>3600000</v>
+      </c>
+      <c r="Q130" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="Q130" s="1" t="s">
+      <c r="R130" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="131" spans="1:17">
+    <row r="131" spans="1:18" hidden="1">
       <c r="A131" s="1" t="s">
         <v>11</v>
       </c>
@@ -6423,14 +6743,18 @@
       <c r="J131" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P131" s="1" t="s">
+      <c r="O131" s="1">
+        <f>1000*60</f>
+        <v>60000</v>
+      </c>
+      <c r="Q131" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="Q131" s="1" t="s">
+      <c r="R131" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="132" spans="1:17">
+    <row r="132" spans="1:18" hidden="1">
       <c r="A132" s="1" t="s">
         <v>11</v>
       </c>
@@ -6458,14 +6782,18 @@
       <c r="I132" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="P132" s="1" t="s">
+      <c r="O132" s="1">
+        <f>1000*60</f>
+        <v>60000</v>
+      </c>
+      <c r="Q132" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="Q132" s="1" t="s">
+      <c r="R132" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="133" spans="1:17">
+    <row r="133" spans="1:18" hidden="1">
       <c r="A133" s="1" t="s">
         <v>11</v>
       </c>
@@ -6493,14 +6821,18 @@
       <c r="I133" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P133" s="1" t="s">
+      <c r="O133" s="1">
+        <f>1000*60</f>
+        <v>60000</v>
+      </c>
+      <c r="Q133" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="Q133" s="1" t="s">
+      <c r="R133" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="134" spans="1:17">
+    <row r="134" spans="1:18" hidden="1">
       <c r="A134" s="1" t="s">
         <v>11</v>
       </c>
@@ -6528,14 +6860,18 @@
       <c r="I134" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="P134" s="1" t="s">
+      <c r="O134" s="1">
+        <f>1000*60</f>
+        <v>60000</v>
+      </c>
+      <c r="Q134" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="Q134" s="1" t="s">
+      <c r="R134" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="135" spans="1:17">
+    <row r="135" spans="1:18" hidden="1">
       <c r="A135" s="1" t="s">
         <v>11</v>
       </c>
@@ -6563,14 +6899,18 @@
       <c r="I135" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P135" s="1" t="s">
+      <c r="O135" s="1">
+        <f t="shared" ref="O135:O138" si="0">1000*60</f>
+        <v>60000</v>
+      </c>
+      <c r="Q135" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="Q135" s="1" t="s">
+      <c r="R135" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="136" spans="1:17">
+    <row r="136" spans="1:18" hidden="1">
       <c r="A136" s="1" t="s">
         <v>11</v>
       </c>
@@ -6598,14 +6938,18 @@
       <c r="I136" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="P136" s="1" t="s">
+      <c r="O136" s="1">
+        <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
+      <c r="Q136" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="Q136" s="1" t="s">
+      <c r="R136" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="137" spans="1:17">
+    <row r="137" spans="1:18" hidden="1">
       <c r="A137" s="1" t="s">
         <v>11</v>
       </c>
@@ -6633,14 +6977,18 @@
       <c r="I137" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P137" s="1" t="s">
+      <c r="O137" s="1">
+        <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
+      <c r="Q137" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q137" s="1" t="s">
+      <c r="R137" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="138" spans="1:17">
+    <row r="138" spans="1:18" hidden="1">
       <c r="A138" s="1" t="s">
         <v>11</v>
       </c>
@@ -6671,14 +7019,18 @@
       <c r="J138" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P138" s="1" t="s">
+      <c r="O138" s="1">
+        <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
+      <c r="Q138" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q138" s="1" t="s">
+      <c r="R138" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="139" spans="1:17">
+    <row r="139" spans="1:18" hidden="1">
       <c r="A139" s="1" t="s">
         <v>11</v>
       </c>
@@ -6709,14 +7061,18 @@
       <c r="J139" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P139" s="1" t="s">
+      <c r="O139" s="1">
+        <f>1000*60</f>
+        <v>60000</v>
+      </c>
+      <c r="Q139" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q139" s="1" t="s">
+      <c r="R139" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="140" spans="1:17">
+    <row r="140" spans="1:18" hidden="1">
       <c r="A140" s="1" t="s">
         <v>11</v>
       </c>
@@ -6747,14 +7103,18 @@
       <c r="J140" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P140" s="1" t="s">
+      <c r="O140" s="1">
+        <f>1000*60</f>
+        <v>60000</v>
+      </c>
+      <c r="Q140" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q140" s="1" t="s">
+      <c r="R140" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="141" spans="1:17">
+    <row r="141" spans="1:18" hidden="1">
       <c r="A141" s="1" t="s">
         <v>11</v>
       </c>
@@ -6782,14 +7142,18 @@
       <c r="I141" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P141" s="1" t="s">
+      <c r="O141" s="1">
+        <f>1000*60</f>
+        <v>60000</v>
+      </c>
+      <c r="Q141" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="Q141" s="1" t="s">
+      <c r="R141" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="142" spans="1:17">
+    <row r="142" spans="1:18">
       <c r="A142" s="1" t="s">
         <v>11</v>
       </c>
@@ -6803,7 +7167,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="143" spans="1:17">
+    <row r="143" spans="1:18" hidden="1">
       <c r="A143" s="1" t="s">
         <v>11</v>
       </c>
@@ -6831,14 +7195,18 @@
       <c r="I143" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P143" s="1" t="s">
+      <c r="O143" s="1">
+        <f>1000*60</f>
+        <v>60000</v>
+      </c>
+      <c r="Q143" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="Q143" s="1" t="s">
+      <c r="R143" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="144" spans="1:17">
+    <row r="144" spans="1:18">
       <c r="A144" s="1" t="s">
         <v>11</v>
       </c>
@@ -6852,7 +7220,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="145" spans="1:17">
+    <row r="145" spans="1:18" hidden="1">
       <c r="A145" s="1" t="s">
         <v>11</v>
       </c>
@@ -6880,14 +7248,18 @@
       <c r="I145" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="P145" s="1" t="s">
+      <c r="O145" s="1">
+        <f>1000*60*60</f>
+        <v>3600000</v>
+      </c>
+      <c r="Q145" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="Q145" s="1" t="s">
+      <c r="R145" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="146" spans="1:17">
+    <row r="146" spans="1:18" hidden="1">
       <c r="A146" s="1" t="s">
         <v>11</v>
       </c>
@@ -6915,14 +7287,18 @@
       <c r="I146" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="P146" s="1" t="s">
+      <c r="O146" s="1">
+        <f>1000*60*60</f>
+        <v>3600000</v>
+      </c>
+      <c r="Q146" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="Q146" s="1" t="s">
+      <c r="R146" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="147" spans="1:17">
+    <row r="147" spans="1:18" hidden="1">
       <c r="A147" s="1" t="s">
         <v>11</v>
       </c>
@@ -6950,14 +7326,18 @@
       <c r="I147" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="P147" s="1" t="s">
+      <c r="O147" s="1">
+        <f>1000*60*60</f>
+        <v>3600000</v>
+      </c>
+      <c r="Q147" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="Q147" s="1" t="s">
+      <c r="R147" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="148" spans="1:17">
+    <row r="148" spans="1:18" hidden="1">
       <c r="A148" s="1" t="s">
         <v>11</v>
       </c>
@@ -6985,14 +7365,18 @@
       <c r="I148" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="P148" s="1" t="s">
+      <c r="O148" s="1">
+        <f>1000*60*60</f>
+        <v>3600000</v>
+      </c>
+      <c r="Q148" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="Q148" s="1" t="s">
+      <c r="R148" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="149" spans="1:17" ht="30" customHeight="1">
+    <row r="149" spans="1:18" ht="30" customHeight="1">
       <c r="A149" s="1" t="s">
         <v>127</v>
       </c>
@@ -7005,13 +7389,13 @@
       <c r="D149" s="1">
         <v>1</v>
       </c>
-      <c r="E149" s="19" t="s">
+      <c r="E149" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="F149" s="19" t="s">
+      <c r="F149" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="G149" s="19" t="s">
+      <c r="G149" s="20" t="s">
         <v>19</v>
       </c>
       <c r="H149" s="1" t="s">
@@ -7026,14 +7410,14 @@
       <c r="L149" s="16">
         <v>1</v>
       </c>
-      <c r="P149" s="1" t="s">
+      <c r="Q149" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="Q149" s="1" t="s">
+      <c r="R149" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="150" spans="1:17" ht="30" customHeight="1">
+    <row r="150" spans="1:18" ht="30" customHeight="1">
       <c r="A150" s="1" t="s">
         <v>127</v>
       </c>
@@ -7046,9 +7430,9 @@
       <c r="D150" s="1">
         <v>1</v>
       </c>
-      <c r="E150" s="19"/>
-      <c r="F150" s="19"/>
-      <c r="G150" s="19"/>
+      <c r="E150" s="20"/>
+      <c r="F150" s="20"/>
+      <c r="G150" s="20"/>
       <c r="H150" s="1" t="s">
         <v>15</v>
       </c>
@@ -7061,14 +7445,14 @@
       <c r="L150" s="16">
         <v>1</v>
       </c>
-      <c r="P150" s="1" t="s">
+      <c r="Q150" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="Q150" s="1" t="s">
+      <c r="R150" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="151" spans="1:17" ht="30" customHeight="1">
+    <row r="151" spans="1:18" ht="30" customHeight="1">
       <c r="A151" s="1" t="s">
         <v>127</v>
       </c>
@@ -7081,9 +7465,9 @@
       <c r="D151" s="1">
         <v>1</v>
       </c>
-      <c r="E151" s="19"/>
-      <c r="F151" s="19"/>
-      <c r="G151" s="19"/>
+      <c r="E151" s="20"/>
+      <c r="F151" s="20"/>
+      <c r="G151" s="20"/>
       <c r="H151" s="1" t="s">
         <v>15</v>
       </c>
@@ -7096,14 +7480,14 @@
       <c r="L151" s="16">
         <v>1</v>
       </c>
-      <c r="P151" s="1" t="s">
+      <c r="Q151" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="Q151" s="1" t="s">
+      <c r="R151" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="152" spans="1:17">
+    <row r="152" spans="1:18">
       <c r="A152" s="1" t="s">
         <v>127</v>
       </c>
@@ -7137,14 +7521,18 @@
       <c r="N152" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="P152" s="1" t="s">
+      <c r="O152" s="1">
+        <f>1000*60*60</f>
+        <v>3600000</v>
+      </c>
+      <c r="Q152" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="Q152" s="1" t="s">
+      <c r="R152" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="153" spans="1:17" ht="45" customHeight="1">
+    <row r="153" spans="1:18" ht="45" customHeight="1">
       <c r="A153" s="1" t="s">
         <v>127</v>
       </c>
@@ -7178,14 +7566,18 @@
       <c r="N153" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="P153" s="1" t="s">
+      <c r="O153" s="1">
+        <f>1000*60*60</f>
+        <v>3600000</v>
+      </c>
+      <c r="Q153" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q153" s="1" t="s">
+      <c r="R153" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="154" spans="1:17" ht="30" customHeight="1">
+    <row r="154" spans="1:18" ht="30" customHeight="1">
       <c r="A154" s="1" t="s">
         <v>127</v>
       </c>
@@ -7219,14 +7611,18 @@
       <c r="M154" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="P154" s="1" t="s">
+      <c r="O154" s="1">
+        <f>1000*60</f>
+        <v>60000</v>
+      </c>
+      <c r="Q154" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="Q154" s="1" t="s">
+      <c r="R154" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="155" spans="1:17">
+    <row r="155" spans="1:18">
       <c r="A155" s="1" t="s">
         <v>127</v>
       </c>
@@ -7248,8 +7644,8 @@
       <c r="G155" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H155" s="1" t="s">
-        <v>15</v>
+      <c r="H155" s="7" t="s">
+        <v>109</v>
       </c>
       <c r="I155" s="1" t="s">
         <v>41</v>
@@ -7257,14 +7653,18 @@
       <c r="J155" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="P155" s="1" t="s">
+      <c r="O155" s="1">
+        <f>1000*60</f>
+        <v>60000</v>
+      </c>
+      <c r="Q155" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q155" s="1" t="s">
+      <c r="R155" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="156" spans="1:17" ht="30" customHeight="1">
+    <row r="156" spans="1:18" ht="30" hidden="1" customHeight="1">
       <c r="A156" s="1" t="s">
         <v>127</v>
       </c>
@@ -7298,17 +7698,17 @@
       <c r="M156" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="O156" s="1">
-        <v>1</v>
-      </c>
-      <c r="P156" s="1" t="s">
+      <c r="P156" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q156" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="Q156" s="1" t="s">
+      <c r="R156" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="157" spans="1:17">
+    <row r="157" spans="1:18" hidden="1">
       <c r="A157" s="1" t="s">
         <v>127</v>
       </c>
@@ -7336,17 +7736,17 @@
       <c r="I157" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O157" s="1">
-        <v>1</v>
-      </c>
-      <c r="P157" s="1" t="s">
+      <c r="P157" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q157" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q157" s="1" t="s">
+      <c r="R157" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="158" spans="1:17">
+    <row r="158" spans="1:18" hidden="1">
       <c r="A158" s="1" t="s">
         <v>127</v>
       </c>
@@ -7374,17 +7774,17 @@
       <c r="I158" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O158" s="1">
-        <v>1</v>
-      </c>
-      <c r="P158" s="1" t="s">
+      <c r="P158" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q158" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q158" s="1" t="s">
+      <c r="R158" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="159" spans="1:17">
+    <row r="159" spans="1:18" hidden="1">
       <c r="A159" s="1" t="s">
         <v>127</v>
       </c>
@@ -7412,17 +7812,17 @@
       <c r="I159" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O159" s="1">
-        <v>1</v>
-      </c>
-      <c r="P159" s="1" t="s">
+      <c r="P159" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q159" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q159" s="1" t="s">
+      <c r="R159" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="160" spans="1:17" ht="30" customHeight="1">
+    <row r="160" spans="1:18" ht="30" customHeight="1">
       <c r="A160" s="1" t="s">
         <v>127</v>
       </c>
@@ -7444,8 +7844,8 @@
       <c r="G160" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H160" s="1" t="s">
-        <v>15</v>
+      <c r="H160" s="7" t="s">
+        <v>109</v>
       </c>
       <c r="I160" s="1" t="s">
         <v>41</v>
@@ -7453,14 +7853,18 @@
       <c r="J160" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="P160" s="1" t="s">
+      <c r="O160" s="1">
+        <f>1000*60</f>
+        <v>60000</v>
+      </c>
+      <c r="Q160" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q160" s="1" t="s">
+      <c r="R160" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="161" spans="1:17">
+    <row r="161" spans="1:18">
       <c r="A161" s="1" t="s">
         <v>127</v>
       </c>
@@ -7491,14 +7895,18 @@
       <c r="J161" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="P161" s="1" t="s">
+      <c r="O161" s="1">
+        <f>1000*60</f>
+        <v>60000</v>
+      </c>
+      <c r="Q161" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q161" s="1" t="s">
+      <c r="R161" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="162" spans="1:17" ht="75" customHeight="1">
+    <row r="162" spans="1:18" ht="75" customHeight="1">
       <c r="A162" s="1" t="s">
         <v>127</v>
       </c>
@@ -7532,14 +7940,18 @@
       <c r="N162" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="P162" s="1" t="s">
+      <c r="O162" s="1">
+        <f>1000*60</f>
+        <v>60000</v>
+      </c>
+      <c r="Q162" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q162" s="1" t="s">
+      <c r="R162" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="163" spans="1:17">
+    <row r="163" spans="1:18">
       <c r="A163" s="1" t="s">
         <v>127</v>
       </c>
@@ -7570,14 +7982,18 @@
       <c r="J163" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="P163" s="1" t="s">
+      <c r="O163" s="1">
+        <f>1000*60*60</f>
+        <v>3600000</v>
+      </c>
+      <c r="Q163" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="Q163" s="1" t="s">
+      <c r="R163" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="164" spans="1:17">
+    <row r="164" spans="1:18">
       <c r="A164" s="1" t="s">
         <v>127</v>
       </c>
@@ -7608,14 +8024,18 @@
       <c r="J164" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="P164" s="1" t="s">
+      <c r="O164" s="1">
+        <f>1000*60*60</f>
+        <v>3600000</v>
+      </c>
+      <c r="Q164" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="Q164" s="1" t="s">
+      <c r="R164" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="165" spans="1:17">
+    <row r="165" spans="1:18">
       <c r="A165" s="1" t="s">
         <v>127</v>
       </c>
@@ -7646,14 +8066,18 @@
       <c r="J165" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="P165" s="1" t="s">
+      <c r="O165" s="1">
+        <f>1000*60*60</f>
+        <v>3600000</v>
+      </c>
+      <c r="Q165" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="Q165" s="1" t="s">
+      <c r="R165" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="166" spans="1:17">
+    <row r="166" spans="1:18">
       <c r="A166" s="1" t="s">
         <v>127</v>
       </c>
@@ -7684,14 +8108,18 @@
       <c r="J166" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="P166" s="1" t="s">
+      <c r="O166" s="1">
+        <f>1000*60*60</f>
+        <v>3600000</v>
+      </c>
+      <c r="Q166" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="Q166" s="1" t="s">
+      <c r="R166" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="167" spans="1:17">
+    <row r="167" spans="1:18">
       <c r="A167" s="1" t="s">
         <v>127</v>
       </c>
@@ -7722,14 +8150,18 @@
       <c r="J167" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="P167" s="1" t="s">
+      <c r="O167" s="1">
+        <f>1000*60*60</f>
+        <v>3600000</v>
+      </c>
+      <c r="Q167" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="Q167" s="1" t="s">
+      <c r="R167" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="168" spans="1:17">
+    <row r="168" spans="1:18">
       <c r="A168" s="1" t="s">
         <v>127</v>
       </c>
@@ -7760,14 +8192,18 @@
       <c r="J168" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="P168" s="1" t="s">
+      <c r="O168" s="1">
+        <f>1000*60*60</f>
+        <v>3600000</v>
+      </c>
+      <c r="Q168" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="Q168" s="1" t="s">
+      <c r="R168" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="169" spans="1:17">
+    <row r="169" spans="1:18">
       <c r="A169" s="1" t="s">
         <v>127</v>
       </c>
@@ -7798,14 +8234,18 @@
       <c r="J169" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="P169" s="1" t="s">
+      <c r="O169" s="1">
+        <f>1000*60*60</f>
+        <v>3600000</v>
+      </c>
+      <c r="Q169" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="Q169" s="1" t="s">
+      <c r="R169" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="170" spans="1:17">
+    <row r="170" spans="1:18">
       <c r="A170" s="1" t="s">
         <v>127</v>
       </c>
@@ -7836,14 +8276,18 @@
       <c r="J170" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="P170" s="1" t="s">
+      <c r="O170" s="1">
+        <f>1000*60*60</f>
+        <v>3600000</v>
+      </c>
+      <c r="Q170" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="Q170" s="1" t="s">
+      <c r="R170" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="171" spans="1:17">
+    <row r="171" spans="1:18">
       <c r="A171" s="1" t="s">
         <v>127</v>
       </c>
@@ -7874,14 +8318,18 @@
       <c r="J171" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="P171" s="1" t="s">
+      <c r="O171" s="1">
+        <f>1000*60*60</f>
+        <v>3600000</v>
+      </c>
+      <c r="Q171" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="Q171" s="1" t="s">
+      <c r="R171" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="172" spans="1:17">
+    <row r="172" spans="1:18">
       <c r="A172" s="1" t="s">
         <v>127</v>
       </c>
@@ -7912,14 +8360,18 @@
       <c r="J172" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="P172" s="1" t="s">
+      <c r="O172" s="1">
+        <f>1000*60*60</f>
+        <v>3600000</v>
+      </c>
+      <c r="Q172" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="Q172" s="1" t="s">
+      <c r="R172" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="173" spans="1:17">
+    <row r="173" spans="1:18">
       <c r="A173" s="1" t="s">
         <v>127</v>
       </c>
@@ -7950,14 +8402,18 @@
       <c r="J173" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="P173" s="1" t="s">
+      <c r="O173" s="1">
+        <f>1000*60*60</f>
+        <v>3600000</v>
+      </c>
+      <c r="Q173" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="Q173" s="1" t="s">
+      <c r="R173" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="174" spans="1:17">
+    <row r="174" spans="1:18">
       <c r="A174" s="1" t="s">
         <v>127</v>
       </c>
@@ -7988,14 +8444,18 @@
       <c r="J174" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="P174" s="1" t="s">
+      <c r="O174" s="1">
+        <f>1000*60*60</f>
+        <v>3600000</v>
+      </c>
+      <c r="Q174" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="Q174" s="1" t="s">
+      <c r="R174" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="175" spans="1:17" ht="30" customHeight="1">
+    <row r="175" spans="1:18" ht="30" customHeight="1">
       <c r="A175" s="1" t="s">
         <v>127</v>
       </c>
@@ -8029,14 +8489,18 @@
       <c r="M175" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="P175" s="1" t="s">
+      <c r="O175" s="1">
+        <f>1000*60*60</f>
+        <v>3600000</v>
+      </c>
+      <c r="Q175" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="Q175" s="1" t="s">
+      <c r="R175" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="176" spans="1:17">
+    <row r="176" spans="1:18">
       <c r="A176" s="1" t="s">
         <v>127</v>
       </c>
@@ -8067,14 +8531,18 @@
       <c r="J176" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="P176" s="1" t="s">
+      <c r="O176" s="1">
+        <f>1000*60*60</f>
+        <v>3600000</v>
+      </c>
+      <c r="Q176" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="Q176" s="1" t="s">
+      <c r="R176" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="177" spans="1:17">
+    <row r="177" spans="1:18">
       <c r="A177" s="1" t="s">
         <v>127</v>
       </c>
@@ -8108,14 +8576,18 @@
       <c r="N177" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="P177" s="1" t="s">
+      <c r="O177" s="1">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+      <c r="Q177" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="Q177" s="1" t="s">
+      <c r="R177" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="178" spans="1:17" ht="30" customHeight="1">
+    <row r="178" spans="1:18" ht="30" customHeight="1">
       <c r="A178" s="1" t="s">
         <v>127</v>
       </c>
@@ -8149,14 +8621,18 @@
       <c r="M178" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="P178" s="1" t="s">
+      <c r="O178" s="1">
+        <f>1000*60</f>
+        <v>60000</v>
+      </c>
+      <c r="Q178" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="Q178" s="1" t="s">
+      <c r="R178" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="179" spans="1:17">
+    <row r="179" spans="1:18">
       <c r="A179" s="1" t="s">
         <v>127</v>
       </c>
@@ -8184,14 +8660,18 @@
       <c r="I179" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="P179" s="1" t="s">
+      <c r="O179" s="1">
+        <f>1000*60*60</f>
+        <v>3600000</v>
+      </c>
+      <c r="Q179" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q179" s="1" t="s">
+      <c r="R179" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="180" spans="1:17">
+    <row r="180" spans="1:18">
       <c r="A180" s="1" t="s">
         <v>127</v>
       </c>
@@ -8222,14 +8702,18 @@
       <c r="J180" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="P180" s="1" t="s">
+      <c r="O180" s="1">
+        <f>1000*60*60</f>
+        <v>3600000</v>
+      </c>
+      <c r="Q180" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q180" s="1" t="s">
+      <c r="R180" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="181" spans="1:17" ht="30" customHeight="1">
+    <row r="181" spans="1:18" ht="30" customHeight="1">
       <c r="A181" s="1" t="s">
         <v>127</v>
       </c>
@@ -8263,14 +8747,18 @@
       <c r="M181" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="P181" s="1" t="s">
+      <c r="O181" s="1">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+      <c r="Q181" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q181" s="1" t="s">
+      <c r="R181" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="182" spans="1:17" ht="30" customHeight="1">
+    <row r="182" spans="1:18" ht="30" customHeight="1">
       <c r="A182" s="1" t="s">
         <v>127</v>
       </c>
@@ -8304,14 +8792,18 @@
       <c r="M182" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="P182" s="1" t="s">
+      <c r="O182" s="1">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+      <c r="Q182" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q182" s="1" t="s">
+      <c r="R182" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="183" spans="1:17">
+    <row r="183" spans="1:18">
       <c r="A183" s="1" t="s">
         <v>127</v>
       </c>
@@ -8339,14 +8831,18 @@
       <c r="I183" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="P183" s="1" t="s">
+      <c r="O183" s="1">
+        <f>1000*60</f>
+        <v>60000</v>
+      </c>
+      <c r="Q183" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q183" s="1" t="s">
+      <c r="R183" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="184" spans="1:17" ht="45" customHeight="1">
+    <row r="184" spans="1:18" ht="45" customHeight="1">
       <c r="A184" s="1" t="s">
         <v>127</v>
       </c>
@@ -8380,14 +8876,18 @@
       <c r="N184" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="P184" s="1" t="s">
+      <c r="O184" s="1">
+        <f>1000*60*60</f>
+        <v>3600000</v>
+      </c>
+      <c r="Q184" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="Q184" s="1" t="s">
+      <c r="R184" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="185" spans="1:17" ht="75" customHeight="1">
+    <row r="185" spans="1:18" ht="75" customHeight="1">
       <c r="A185" s="1" t="s">
         <v>127</v>
       </c>
@@ -8421,14 +8921,18 @@
       <c r="N185" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="P185" s="1" t="s">
+      <c r="O185" s="1">
+        <f>1000*60</f>
+        <v>60000</v>
+      </c>
+      <c r="Q185" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="Q185" s="1" t="s">
+      <c r="R185" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="186" spans="1:17">
+    <row r="186" spans="1:18">
       <c r="A186" s="1" t="s">
         <v>127</v>
       </c>
@@ -8459,14 +8963,18 @@
       <c r="J186" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="P186" s="1" t="s">
+      <c r="O186" s="1">
+        <f>1000*60</f>
+        <v>60000</v>
+      </c>
+      <c r="Q186" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q186" s="1" t="s">
+      <c r="R186" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="187" spans="1:17">
+    <row r="187" spans="1:18">
       <c r="A187" s="1" t="s">
         <v>127</v>
       </c>
@@ -8497,14 +9005,18 @@
       <c r="J187" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="P187" s="1" t="s">
+      <c r="O187" s="1">
+        <f>1000*60</f>
+        <v>60000</v>
+      </c>
+      <c r="Q187" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q187" s="1" t="s">
+      <c r="R187" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="188" spans="1:17">
+    <row r="188" spans="1:18">
       <c r="A188" s="1" t="s">
         <v>127</v>
       </c>
@@ -8535,14 +9047,18 @@
       <c r="J188" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="P188" s="1" t="s">
+      <c r="O188" s="1">
+        <f>1000*60</f>
+        <v>60000</v>
+      </c>
+      <c r="Q188" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q188" s="1" t="s">
+      <c r="R188" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="189" spans="1:17">
+    <row r="189" spans="1:18">
       <c r="A189" s="1" t="s">
         <v>127</v>
       </c>
@@ -8573,14 +9089,18 @@
       <c r="J189" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="P189" s="1" t="s">
+      <c r="O189" s="1">
+        <f>1000*60</f>
+        <v>60000</v>
+      </c>
+      <c r="Q189" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q189" s="1" t="s">
+      <c r="R189" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="190" spans="1:17">
+    <row r="190" spans="1:18">
       <c r="A190" s="1" t="s">
         <v>127</v>
       </c>
@@ -8608,14 +9128,18 @@
       <c r="I190" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="P190" s="1" t="s">
+      <c r="O190" s="1">
+        <f>1000*60</f>
+        <v>60000</v>
+      </c>
+      <c r="Q190" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q190" s="1" t="s">
+      <c r="R190" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="191" spans="1:17">
+    <row r="191" spans="1:18">
       <c r="A191" s="1" t="s">
         <v>127</v>
       </c>
@@ -8643,14 +9167,18 @@
       <c r="I191" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="P191" s="1" t="s">
+      <c r="O191" s="1">
+        <f>1000*60</f>
+        <v>60000</v>
+      </c>
+      <c r="Q191" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q191" s="1" t="s">
+      <c r="R191" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="192" spans="1:17">
+    <row r="192" spans="1:18">
       <c r="A192" s="1" t="s">
         <v>127</v>
       </c>
@@ -8678,14 +9206,18 @@
       <c r="I192" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="P192" s="1" t="s">
+      <c r="O192" s="1">
+        <f>1000*60</f>
+        <v>60000</v>
+      </c>
+      <c r="Q192" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q192" s="1" t="s">
+      <c r="R192" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="193" spans="1:17" ht="30" customHeight="1">
+    <row r="193" spans="1:18" ht="30" customHeight="1">
       <c r="A193" s="1" t="s">
         <v>127</v>
       </c>
@@ -8722,14 +9254,18 @@
       <c r="N193" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="P193" s="1" t="s">
+      <c r="O193" s="1">
+        <f>1000*60</f>
+        <v>60000</v>
+      </c>
+      <c r="Q193" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q193" s="1" t="s">
+      <c r="R193" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="194" spans="1:17">
+    <row r="194" spans="1:18">
       <c r="A194" s="1" t="s">
         <v>127</v>
       </c>
@@ -8760,14 +9296,18 @@
       <c r="J194" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P194" s="1" t="s">
+      <c r="O194" s="1">
+        <f>1000*60</f>
+        <v>60000</v>
+      </c>
+      <c r="Q194" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q194" s="1" t="s">
+      <c r="R194" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="195" spans="1:17">
+    <row r="195" spans="1:18">
       <c r="A195" s="1" t="s">
         <v>127</v>
       </c>
@@ -8801,14 +9341,18 @@
       <c r="N195" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="P195" s="1" t="s">
+      <c r="O195" s="1">
+        <f>1000*60*60</f>
+        <v>3600000</v>
+      </c>
+      <c r="Q195" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="Q195" s="1" t="s">
+      <c r="R195" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="196" spans="1:17">
+    <row r="196" spans="1:18">
       <c r="A196" s="1" t="s">
         <v>127</v>
       </c>
@@ -8839,14 +9383,18 @@
       <c r="N196" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="P196" s="1" t="s">
+      <c r="O196" s="1">
+        <f>1000*60*60</f>
+        <v>3600000</v>
+      </c>
+      <c r="Q196" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="Q196" s="1" t="s">
+      <c r="R196" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="197" spans="1:17" ht="30" customHeight="1">
+    <row r="197" spans="1:18" ht="30" customHeight="1">
       <c r="A197" s="1" t="s">
         <v>127</v>
       </c>
@@ -8880,14 +9428,18 @@
       <c r="M197" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="P197" s="1" t="s">
+      <c r="O197" s="1">
+        <f>1000*60*60</f>
+        <v>3600000</v>
+      </c>
+      <c r="Q197" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="Q197" s="1" t="s">
+      <c r="R197" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="198" spans="1:17">
+    <row r="198" spans="1:18">
       <c r="A198" s="1" t="s">
         <v>127</v>
       </c>
@@ -8909,8 +9461,8 @@
       <c r="G198" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H198" s="1" t="s">
-        <v>15</v>
+      <c r="H198" s="7" t="s">
+        <v>109</v>
       </c>
       <c r="I198" s="1" t="s">
         <v>41</v>
@@ -8918,14 +9470,18 @@
       <c r="J198" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="P198" s="1" t="s">
+      <c r="O198" s="1">
+        <f>1000*60*60</f>
+        <v>3600000</v>
+      </c>
+      <c r="Q198" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="Q198" s="1" t="s">
+      <c r="R198" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="199" spans="1:17" ht="30" customHeight="1">
+    <row r="199" spans="1:18" ht="30" customHeight="1">
       <c r="A199" s="1" t="s">
         <v>127</v>
       </c>
@@ -8959,14 +9515,18 @@
       <c r="M199" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="P199" s="1" t="s">
+      <c r="O199" s="1">
+        <f>1000*60*60</f>
+        <v>3600000</v>
+      </c>
+      <c r="Q199" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="Q199" s="1" t="s">
+      <c r="R199" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="200" spans="1:17">
+    <row r="200" spans="1:18">
       <c r="A200" s="1" t="s">
         <v>127</v>
       </c>
@@ -8988,8 +9548,8 @@
       <c r="G200" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H200" s="1" t="s">
-        <v>15</v>
+      <c r="H200" s="7" t="s">
+        <v>109</v>
       </c>
       <c r="I200" s="1" t="s">
         <v>41</v>
@@ -8997,14 +9557,18 @@
       <c r="J200" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="P200" s="1" t="s">
+      <c r="O200" s="1">
+        <f>1000*60*60</f>
+        <v>3600000</v>
+      </c>
+      <c r="Q200" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="Q200" s="1" t="s">
+      <c r="R200" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="201" spans="1:17" ht="60" customHeight="1">
+    <row r="201" spans="1:18" ht="60" customHeight="1">
       <c r="A201" s="1" t="s">
         <v>127</v>
       </c>
@@ -9041,14 +9605,14 @@
       <c r="M201" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="P201" s="1" t="s">
+      <c r="Q201" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="Q201" s="1" t="s">
+      <c r="R201" s="1" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="202" spans="1:17" ht="45" customHeight="1">
+    <row r="202" spans="1:18" ht="45" customHeight="1">
       <c r="A202" s="1" t="s">
         <v>127</v>
       </c>
@@ -9079,14 +9643,18 @@
       <c r="J202" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="P202" s="1" t="s">
+      <c r="O202" s="1">
+        <f>1000*60*60</f>
+        <v>3600000</v>
+      </c>
+      <c r="Q202" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="Q202" s="1" t="s">
+      <c r="R202" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="203" spans="1:17" ht="30" customHeight="1">
+    <row r="203" spans="1:18" ht="30" customHeight="1">
       <c r="A203" s="1" t="s">
         <v>127</v>
       </c>
@@ -9120,14 +9688,18 @@
       <c r="M203" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="P203" s="1" t="s">
+      <c r="O203" s="1">
+        <f>1000*60*60</f>
+        <v>3600000</v>
+      </c>
+      <c r="Q203" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q203" s="1" t="s">
+      <c r="R203" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="204" spans="1:17" ht="30" customHeight="1">
+    <row r="204" spans="1:18" ht="30" customHeight="1">
       <c r="A204" s="1" t="s">
         <v>127</v>
       </c>
@@ -9159,16 +9731,20 @@
         <v>208</v>
       </c>
       <c r="O204" s="1">
-        <v>1</v>
-      </c>
-      <c r="P204" s="1" t="s">
+        <f>1000*60*60</f>
+        <v>3600000</v>
+      </c>
+      <c r="P204" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q204" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="Q204" s="1" t="s">
+      <c r="R204" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="205" spans="1:17" ht="30" customHeight="1">
+    <row r="205" spans="1:18" ht="30" customHeight="1">
       <c r="A205" s="1" t="s">
         <v>127</v>
       </c>
@@ -9199,14 +9775,18 @@
       <c r="J205" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="P205" s="1" t="s">
+      <c r="O205" s="1">
+        <f>1000*60*60</f>
+        <v>3600000</v>
+      </c>
+      <c r="Q205" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q205" s="1" t="s">
+      <c r="R205" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="206" spans="1:17" ht="30" customHeight="1">
+    <row r="206" spans="1:18" ht="30" customHeight="1">
       <c r="A206" s="1" t="s">
         <v>127</v>
       </c>
@@ -9238,16 +9818,20 @@
         <v>208</v>
       </c>
       <c r="O206" s="1">
-        <v>1</v>
-      </c>
-      <c r="P206" s="1" t="s">
+        <f>1000*60*60</f>
+        <v>3600000</v>
+      </c>
+      <c r="P206" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q206" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="Q206" s="1" t="s">
+      <c r="R206" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="207" spans="1:17">
+    <row r="207" spans="1:18">
       <c r="A207" s="1" t="s">
         <v>127</v>
       </c>
@@ -9275,20 +9859,20 @@
       <c r="I207" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J207" s="20" t="s">
+      <c r="J207" s="19" t="s">
         <v>212</v>
       </c>
       <c r="L207" s="1">
         <v>1</v>
       </c>
-      <c r="P207" s="1" t="s">
+      <c r="Q207" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="Q207" s="1" t="s">
+      <c r="R207" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="208" spans="1:17">
+    <row r="208" spans="1:18">
       <c r="A208" s="1" t="s">
         <v>127</v>
       </c>
@@ -9316,18 +9900,18 @@
       <c r="I208" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J208" s="20"/>
+      <c r="J208" s="19"/>
       <c r="L208" s="1">
         <v>1</v>
       </c>
-      <c r="P208" s="1" t="s">
+      <c r="Q208" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="Q208" s="1" t="s">
+      <c r="R208" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="209" spans="1:17">
+    <row r="209" spans="1:18">
       <c r="A209" s="1" t="s">
         <v>127</v>
       </c>
@@ -9355,17 +9939,21 @@
       <c r="I209" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J209" s="20" t="s">
+      <c r="J209" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="P209" s="1" t="s">
+      <c r="O209" s="1">
+        <f>1000*60*60</f>
+        <v>3600000</v>
+      </c>
+      <c r="Q209" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="Q209" s="1" t="s">
+      <c r="R209" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="210" spans="1:17">
+    <row r="210" spans="1:18">
       <c r="A210" s="1" t="s">
         <v>127</v>
       </c>
@@ -9393,18 +9981,22 @@
       <c r="I210" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J210" s="20"/>
+      <c r="J210" s="19"/>
       <c r="M210" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="P210" s="1" t="s">
+      <c r="O210" s="1">
+        <f>1000*60*60</f>
+        <v>3600000</v>
+      </c>
+      <c r="Q210" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q210" s="1" t="s">
+      <c r="R210" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="211" spans="1:17">
+    <row r="211" spans="1:18">
       <c r="A211" s="1" t="s">
         <v>127</v>
       </c>
@@ -9432,18 +10024,22 @@
       <c r="I211" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J211" s="20"/>
+      <c r="J211" s="19"/>
       <c r="O211" s="1">
-        <v>1</v>
-      </c>
-      <c r="P211" s="1" t="s">
+        <f>1000*60*60</f>
+        <v>3600000</v>
+      </c>
+      <c r="P211" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q211" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="Q211" s="1" t="s">
+      <c r="R211" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="212" spans="1:17">
+    <row r="212" spans="1:18">
       <c r="A212" s="1" t="s">
         <v>127</v>
       </c>
@@ -9471,15 +10067,19 @@
       <c r="I212" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J212" s="20"/>
-      <c r="P212" s="1" t="s">
+      <c r="J212" s="19"/>
+      <c r="O212" s="1">
+        <f>1000*60*60</f>
+        <v>3600000</v>
+      </c>
+      <c r="Q212" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q212" s="1" t="s">
+      <c r="R212" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="213" spans="1:17">
+    <row r="213" spans="1:18">
       <c r="A213" s="1" t="s">
         <v>127</v>
       </c>
@@ -9507,18 +10107,22 @@
       <c r="I213" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J213" s="20"/>
+      <c r="J213" s="19"/>
       <c r="O213" s="1">
-        <v>1</v>
-      </c>
-      <c r="P213" s="1" t="s">
+        <f>1000*60*60</f>
+        <v>3600000</v>
+      </c>
+      <c r="P213" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q213" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="Q213" s="1" t="s">
+      <c r="R213" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="214" spans="1:17">
+    <row r="214" spans="1:18">
       <c r="A214" s="1" t="s">
         <v>127</v>
       </c>
@@ -9546,18 +10150,18 @@
       <c r="I214" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J214" s="20"/>
+      <c r="J214" s="19"/>
       <c r="L214" s="1">
         <v>1</v>
       </c>
-      <c r="P214" s="1" t="s">
+      <c r="Q214" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="Q214" s="1" t="s">
+      <c r="R214" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="215" spans="1:17">
+    <row r="215" spans="1:18">
       <c r="A215" s="1" t="s">
         <v>127</v>
       </c>
@@ -9585,18 +10189,18 @@
       <c r="I215" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J215" s="20"/>
+      <c r="J215" s="19"/>
       <c r="L215" s="1">
         <v>1</v>
       </c>
-      <c r="P215" s="1" t="s">
+      <c r="Q215" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="Q215" s="1" t="s">
+      <c r="R215" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="216" spans="1:17">
+    <row r="216" spans="1:18">
       <c r="A216" s="1" t="s">
         <v>127</v>
       </c>
@@ -9624,17 +10228,21 @@
       <c r="I216" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J216" s="20" t="s">
+      <c r="J216" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="P216" s="1" t="s">
+      <c r="O216" s="1">
+        <f>1000*60*60</f>
+        <v>3600000</v>
+      </c>
+      <c r="Q216" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="Q216" s="1" t="s">
+      <c r="R216" s="1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="217" spans="1:17">
+    <row r="217" spans="1:18">
       <c r="A217" s="1" t="s">
         <v>127</v>
       </c>
@@ -9662,18 +10270,22 @@
       <c r="I217" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J217" s="20"/>
+      <c r="J217" s="19"/>
       <c r="M217" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="P217" s="1" t="s">
+      <c r="O217" s="1">
+        <f>1000*60*60</f>
+        <v>3600000</v>
+      </c>
+      <c r="Q217" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q217" s="1" t="s">
+      <c r="R217" s="1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="218" spans="1:17">
+    <row r="218" spans="1:18">
       <c r="A218" s="1" t="s">
         <v>127</v>
       </c>
@@ -9701,18 +10313,22 @@
       <c r="I218" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J218" s="20"/>
+      <c r="J218" s="19"/>
       <c r="O218" s="1">
-        <v>1</v>
-      </c>
-      <c r="P218" s="1" t="s">
+        <f>1000*60*60</f>
+        <v>3600000</v>
+      </c>
+      <c r="P218" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q218" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="Q218" s="1" t="s">
+      <c r="R218" s="1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="219" spans="1:17">
+    <row r="219" spans="1:18">
       <c r="A219" s="1" t="s">
         <v>127</v>
       </c>
@@ -9740,15 +10356,19 @@
       <c r="I219" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J219" s="20"/>
-      <c r="P219" s="1" t="s">
+      <c r="J219" s="19"/>
+      <c r="O219" s="1">
+        <f>1000*60*60</f>
+        <v>3600000</v>
+      </c>
+      <c r="Q219" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q219" s="1" t="s">
+      <c r="R219" s="1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="220" spans="1:17">
+    <row r="220" spans="1:18">
       <c r="A220" s="1" t="s">
         <v>127</v>
       </c>
@@ -9776,18 +10396,22 @@
       <c r="I220" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J220" s="20"/>
+      <c r="J220" s="19"/>
       <c r="O220" s="1">
-        <v>1</v>
-      </c>
-      <c r="P220" s="1" t="s">
+        <f>1000*60*60</f>
+        <v>3600000</v>
+      </c>
+      <c r="P220" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q220" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="Q220" s="1" t="s">
+      <c r="R220" s="1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="221" spans="1:17">
+    <row r="221" spans="1:18">
       <c r="A221" s="1" t="s">
         <v>127</v>
       </c>
@@ -9815,18 +10439,18 @@
       <c r="I221" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J221" s="20"/>
+      <c r="J221" s="19"/>
       <c r="L221" s="1">
         <v>1</v>
       </c>
-      <c r="P221" s="1" t="s">
+      <c r="Q221" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="Q221" s="1" t="s">
+      <c r="R221" s="1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="222" spans="1:17">
+    <row r="222" spans="1:18">
       <c r="A222" s="1" t="s">
         <v>127</v>
       </c>
@@ -9854,18 +10478,18 @@
       <c r="I222" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J222" s="20"/>
+      <c r="J222" s="19"/>
       <c r="L222" s="1">
         <v>1</v>
       </c>
-      <c r="P222" s="1" t="s">
+      <c r="Q222" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="Q222" s="1" t="s">
+      <c r="R222" s="1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="223" spans="1:17">
+    <row r="223" spans="1:18">
       <c r="A223" s="1" t="s">
         <v>127</v>
       </c>
@@ -9893,17 +10517,21 @@
       <c r="I223" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J223" s="20" t="s">
+      <c r="J223" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="P223" s="1" t="s">
+      <c r="O223" s="1">
+        <f>1000*60*60</f>
+        <v>3600000</v>
+      </c>
+      <c r="Q223" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="Q223" s="1" t="s">
+      <c r="R223" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="224" spans="1:17">
+    <row r="224" spans="1:18">
       <c r="A224" s="1" t="s">
         <v>127</v>
       </c>
@@ -9931,18 +10559,22 @@
       <c r="I224" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J224" s="20"/>
+      <c r="J224" s="19"/>
       <c r="M224" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="P224" s="1" t="s">
+      <c r="O224" s="1">
+        <f>1000*60*60</f>
+        <v>3600000</v>
+      </c>
+      <c r="Q224" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q224" s="1" t="s">
+      <c r="R224" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="225" spans="1:17">
+    <row r="225" spans="1:18">
       <c r="A225" s="1" t="s">
         <v>127</v>
       </c>
@@ -9970,18 +10602,22 @@
       <c r="I225" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J225" s="20"/>
+      <c r="J225" s="19"/>
       <c r="O225" s="1">
-        <v>1</v>
-      </c>
-      <c r="P225" s="1" t="s">
+        <f>1000*60*60</f>
+        <v>3600000</v>
+      </c>
+      <c r="P225" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q225" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="Q225" s="1" t="s">
+      <c r="R225" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="226" spans="1:17">
+    <row r="226" spans="1:18">
       <c r="A226" s="1" t="s">
         <v>127</v>
       </c>
@@ -10009,15 +10645,19 @@
       <c r="I226" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J226" s="20"/>
-      <c r="P226" s="1" t="s">
+      <c r="J226" s="19"/>
+      <c r="O226" s="1">
+        <f>1000*60*60</f>
+        <v>3600000</v>
+      </c>
+      <c r="Q226" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q226" s="1" t="s">
+      <c r="R226" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="227" spans="1:17">
+    <row r="227" spans="1:18">
       <c r="A227" s="1" t="s">
         <v>127</v>
       </c>
@@ -10045,18 +10685,22 @@
       <c r="I227" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J227" s="20"/>
+      <c r="J227" s="19"/>
       <c r="O227" s="1">
-        <v>1</v>
-      </c>
-      <c r="P227" s="1" t="s">
+        <f>1000*60*60</f>
+        <v>3600000</v>
+      </c>
+      <c r="P227" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q227" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="Q227" s="1" t="s">
+      <c r="R227" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="228" spans="1:17">
+    <row r="228" spans="1:18">
       <c r="A228" s="1" t="s">
         <v>127</v>
       </c>
@@ -10084,18 +10728,18 @@
       <c r="I228" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J228" s="20"/>
+      <c r="J228" s="19"/>
       <c r="L228" s="1">
         <v>1</v>
       </c>
-      <c r="P228" s="1" t="s">
+      <c r="Q228" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="Q228" s="1" t="s">
+      <c r="R228" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="229" spans="1:17">
+    <row r="229" spans="1:18">
       <c r="A229" s="1" t="s">
         <v>127</v>
       </c>
@@ -10123,18 +10767,18 @@
       <c r="I229" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J229" s="20"/>
+      <c r="J229" s="19"/>
       <c r="L229" s="1">
         <v>1</v>
       </c>
-      <c r="P229" s="1" t="s">
+      <c r="Q229" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="Q229" s="1" t="s">
+      <c r="R229" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="230" spans="1:17">
+    <row r="230" spans="1:18">
       <c r="A230" s="1" t="s">
         <v>127</v>
       </c>
@@ -10162,17 +10806,21 @@
       <c r="I230" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J230" s="20" t="s">
+      <c r="J230" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="P230" s="1" t="s">
+      <c r="O230" s="1">
+        <f>1000*60*60</f>
+        <v>3600000</v>
+      </c>
+      <c r="Q230" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="Q230" s="1" t="s">
+      <c r="R230" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="231" spans="1:17">
+    <row r="231" spans="1:18">
       <c r="A231" s="1" t="s">
         <v>127</v>
       </c>
@@ -10200,18 +10848,22 @@
       <c r="I231" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J231" s="20"/>
+      <c r="J231" s="19"/>
       <c r="M231" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="P231" s="1" t="s">
+      <c r="O231" s="1">
+        <f>1000*60*60</f>
+        <v>3600000</v>
+      </c>
+      <c r="Q231" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q231" s="1" t="s">
+      <c r="R231" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="232" spans="1:17">
+    <row r="232" spans="1:18">
       <c r="A232" s="1" t="s">
         <v>127</v>
       </c>
@@ -10239,18 +10891,22 @@
       <c r="I232" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J232" s="20"/>
+      <c r="J232" s="19"/>
       <c r="O232" s="1">
-        <v>1</v>
-      </c>
-      <c r="P232" s="1" t="s">
+        <f>1000*60*60</f>
+        <v>3600000</v>
+      </c>
+      <c r="P232" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q232" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="Q232" s="1" t="s">
+      <c r="R232" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="233" spans="1:17">
+    <row r="233" spans="1:18">
       <c r="A233" s="1" t="s">
         <v>127</v>
       </c>
@@ -10278,15 +10934,19 @@
       <c r="I233" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J233" s="20"/>
-      <c r="P233" s="1" t="s">
+      <c r="J233" s="19"/>
+      <c r="O233" s="1">
+        <f>1000*60*60</f>
+        <v>3600000</v>
+      </c>
+      <c r="Q233" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q233" s="1" t="s">
+      <c r="R233" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="234" spans="1:17">
+    <row r="234" spans="1:18">
       <c r="A234" s="1" t="s">
         <v>127</v>
       </c>
@@ -10314,18 +10974,22 @@
       <c r="I234" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J234" s="20"/>
+      <c r="J234" s="19"/>
       <c r="O234" s="1">
-        <v>1</v>
-      </c>
-      <c r="P234" s="1" t="s">
+        <f>1000*60*60</f>
+        <v>3600000</v>
+      </c>
+      <c r="P234" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q234" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="Q234" s="1" t="s">
+      <c r="R234" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="235" spans="1:17">
+    <row r="235" spans="1:18">
       <c r="A235" s="1" t="s">
         <v>127</v>
       </c>
@@ -10353,18 +11017,18 @@
       <c r="I235" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J235" s="20"/>
+      <c r="J235" s="19"/>
       <c r="L235" s="1">
         <v>1</v>
       </c>
-      <c r="P235" s="1" t="s">
+      <c r="Q235" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="Q235" s="1" t="s">
+      <c r="R235" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="236" spans="1:17">
+    <row r="236" spans="1:18">
       <c r="A236" s="1" t="s">
         <v>127</v>
       </c>
@@ -10392,18 +11056,18 @@
       <c r="I236" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J236" s="20"/>
+      <c r="J236" s="19"/>
       <c r="L236" s="1">
         <v>1</v>
       </c>
-      <c r="P236" s="1" t="s">
+      <c r="Q236" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="Q236" s="1" t="s">
+      <c r="R236" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="237" spans="1:17">
+    <row r="237" spans="1:18">
       <c r="A237" s="1" t="s">
         <v>127</v>
       </c>
@@ -10431,17 +11095,21 @@
       <c r="I237" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J237" s="20" t="s">
+      <c r="J237" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="P237" s="1" t="s">
+      <c r="O237" s="1">
+        <f>1000*60*60</f>
+        <v>3600000</v>
+      </c>
+      <c r="Q237" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="Q237" s="1" t="s">
+      <c r="R237" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="238" spans="1:17">
+    <row r="238" spans="1:18">
       <c r="A238" s="1" t="s">
         <v>127</v>
       </c>
@@ -10469,18 +11137,22 @@
       <c r="I238" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J238" s="20"/>
+      <c r="J238" s="19"/>
       <c r="M238" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="P238" s="1" t="s">
+      <c r="O238" s="1">
+        <f>1000*60*60</f>
+        <v>3600000</v>
+      </c>
+      <c r="Q238" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q238" s="1" t="s">
+      <c r="R238" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="239" spans="1:17">
+    <row r="239" spans="1:18">
       <c r="A239" s="1" t="s">
         <v>127</v>
       </c>
@@ -10508,18 +11180,22 @@
       <c r="I239" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J239" s="20"/>
+      <c r="J239" s="19"/>
       <c r="O239" s="1">
-        <v>1</v>
-      </c>
-      <c r="P239" s="1" t="s">
+        <f>1000*60*60</f>
+        <v>3600000</v>
+      </c>
+      <c r="P239" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q239" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="Q239" s="1" t="s">
+      <c r="R239" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="240" spans="1:17">
+    <row r="240" spans="1:18">
       <c r="A240" s="1" t="s">
         <v>127</v>
       </c>
@@ -10547,15 +11223,19 @@
       <c r="I240" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J240" s="20"/>
-      <c r="P240" s="1" t="s">
+      <c r="J240" s="19"/>
+      <c r="O240" s="1">
+        <f>1000*60*60</f>
+        <v>3600000</v>
+      </c>
+      <c r="Q240" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q240" s="1" t="s">
+      <c r="R240" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="241" spans="1:17">
+    <row r="241" spans="1:18">
       <c r="A241" s="1" t="s">
         <v>127</v>
       </c>
@@ -10583,18 +11263,22 @@
       <c r="I241" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J241" s="20"/>
+      <c r="J241" s="19"/>
       <c r="O241" s="1">
-        <v>1</v>
-      </c>
-      <c r="P241" s="1" t="s">
+        <f>1000*60*60</f>
+        <v>3600000</v>
+      </c>
+      <c r="P241" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q241" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="Q241" s="1" t="s">
+      <c r="R241" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="242" spans="1:17">
+    <row r="242" spans="1:18">
       <c r="A242" s="1" t="s">
         <v>127</v>
       </c>
@@ -10622,18 +11306,18 @@
       <c r="I242" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J242" s="20"/>
+      <c r="J242" s="19"/>
       <c r="L242" s="1">
         <v>1</v>
       </c>
-      <c r="P242" s="1" t="s">
+      <c r="Q242" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="Q242" s="1" t="s">
+      <c r="R242" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="243" spans="1:17">
+    <row r="243" spans="1:18">
       <c r="A243" s="1" t="s">
         <v>127</v>
       </c>
@@ -10661,18 +11345,18 @@
       <c r="I243" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J243" s="20"/>
+      <c r="J243" s="19"/>
       <c r="L243" s="1">
         <v>1</v>
       </c>
-      <c r="P243" s="1" t="s">
+      <c r="Q243" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="Q243" s="1" t="s">
+      <c r="R243" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="244" spans="1:17">
+    <row r="244" spans="1:18" hidden="1">
       <c r="A244" s="1" t="s">
         <v>127</v>
       </c>
@@ -10703,17 +11387,17 @@
       <c r="J244" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="O244" s="1">
-        <v>1</v>
-      </c>
-      <c r="P244" s="1" t="s">
+      <c r="P244" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q244" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="Q244" s="1" t="s">
+      <c r="R244" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="245" spans="1:17" ht="30" customHeight="1">
+    <row r="245" spans="1:18" ht="30" hidden="1" customHeight="1">
       <c r="A245" s="1" t="s">
         <v>127</v>
       </c>
@@ -10744,17 +11428,17 @@
       <c r="J245" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="O245" s="1">
-        <v>1</v>
-      </c>
-      <c r="P245" s="1" t="s">
+      <c r="P245" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q245" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="Q245" s="1" t="s">
+      <c r="R245" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="246" spans="1:17">
+    <row r="246" spans="1:18" hidden="1">
       <c r="A246" s="1" t="s">
         <v>127</v>
       </c>
@@ -10782,20 +11466,20 @@
       <c r="I246" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J246" s="20" t="s">
+      <c r="J246" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="O246" s="1">
-        <v>1</v>
-      </c>
-      <c r="P246" s="1" t="s">
+      <c r="P246" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q246" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="Q246" s="1" t="s">
+      <c r="R246" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="247" spans="1:17">
+    <row r="247" spans="1:18" hidden="1">
       <c r="A247" s="1" t="s">
         <v>127</v>
       </c>
@@ -10823,18 +11507,18 @@
       <c r="I247" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J247" s="20"/>
-      <c r="O247" s="1">
-        <v>1</v>
-      </c>
-      <c r="P247" s="1" t="s">
+      <c r="J247" s="19"/>
+      <c r="P247" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q247" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="Q247" s="1" t="s">
+      <c r="R247" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="248" spans="1:17">
+    <row r="248" spans="1:18" hidden="1">
       <c r="A248" s="1" t="s">
         <v>127</v>
       </c>
@@ -10862,18 +11546,18 @@
       <c r="I248" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J248" s="20"/>
-      <c r="O248" s="1">
-        <v>1</v>
-      </c>
-      <c r="P248" s="1" t="s">
+      <c r="J248" s="19"/>
+      <c r="P248" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q248" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="Q248" s="1" t="s">
+      <c r="R248" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="249" spans="1:17">
+    <row r="249" spans="1:18" hidden="1">
       <c r="A249" s="1" t="s">
         <v>127</v>
       </c>
@@ -10901,20 +11585,20 @@
       <c r="I249" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J249" s="19" t="s">
+      <c r="J249" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="O249" s="1">
-        <v>1</v>
-      </c>
-      <c r="P249" s="1" t="s">
+      <c r="P249" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q249" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="Q249" s="1" t="s">
+      <c r="R249" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="250" spans="1:17">
+    <row r="250" spans="1:18" hidden="1">
       <c r="A250" s="1" t="s">
         <v>127</v>
       </c>
@@ -10942,18 +11626,18 @@
       <c r="I250" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J250" s="19"/>
-      <c r="O250" s="1">
-        <v>1</v>
-      </c>
-      <c r="P250" s="1" t="s">
+      <c r="J250" s="20"/>
+      <c r="P250" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q250" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="Q250" s="1" t="s">
+      <c r="R250" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="251" spans="1:17">
+    <row r="251" spans="1:18" hidden="1">
       <c r="A251" s="1" t="s">
         <v>127</v>
       </c>
@@ -10981,20 +11665,20 @@
       <c r="I251" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J251" s="19" t="s">
+      <c r="J251" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="O251" s="1">
-        <v>1</v>
-      </c>
-      <c r="P251" s="1" t="s">
+      <c r="P251" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q251" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="Q251" s="1" t="s">
+      <c r="R251" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="252" spans="1:17">
+    <row r="252" spans="1:18" hidden="1">
       <c r="A252" s="1" t="s">
         <v>127</v>
       </c>
@@ -11022,18 +11706,18 @@
       <c r="I252" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J252" s="19"/>
-      <c r="O252" s="1">
-        <v>1</v>
-      </c>
-      <c r="P252" s="1" t="s">
+      <c r="J252" s="20"/>
+      <c r="P252" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q252" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="Q252" s="1" t="s">
+      <c r="R252" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="253" spans="1:17">
+    <row r="253" spans="1:18" hidden="1">
       <c r="A253" s="1" t="s">
         <v>127</v>
       </c>
@@ -11061,18 +11745,18 @@
       <c r="I253" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J253" s="19"/>
-      <c r="O253" s="1">
-        <v>1</v>
-      </c>
-      <c r="P253" s="1" t="s">
+      <c r="J253" s="20"/>
+      <c r="P253" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q253" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="Q253" s="1" t="s">
+      <c r="R253" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="254" spans="1:17">
+    <row r="254" spans="1:18" hidden="1">
       <c r="A254" s="1" t="s">
         <v>127</v>
       </c>
@@ -11100,18 +11784,18 @@
       <c r="I254" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J254" s="19"/>
-      <c r="O254" s="1">
-        <v>1</v>
-      </c>
-      <c r="P254" s="1" t="s">
+      <c r="J254" s="20"/>
+      <c r="P254" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q254" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="Q254" s="1" t="s">
+      <c r="R254" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="255" spans="1:17">
+    <row r="255" spans="1:18" hidden="1">
       <c r="A255" s="1" t="s">
         <v>127</v>
       </c>
@@ -11139,18 +11823,18 @@
       <c r="I255" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J255" s="19"/>
-      <c r="O255" s="1">
-        <v>1</v>
-      </c>
-      <c r="P255" s="1" t="s">
+      <c r="J255" s="20"/>
+      <c r="P255" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q255" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="Q255" s="1" t="s">
+      <c r="R255" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="256" spans="1:17">
+    <row r="256" spans="1:18" hidden="1">
       <c r="A256" s="1" t="s">
         <v>127</v>
       </c>
@@ -11178,18 +11862,18 @@
       <c r="I256" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J256" s="19"/>
-      <c r="O256" s="1">
-        <v>1</v>
-      </c>
-      <c r="P256" s="1" t="s">
+      <c r="J256" s="20"/>
+      <c r="P256" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q256" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="Q256" s="1" t="s">
+      <c r="R256" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="257" spans="1:17">
+    <row r="257" spans="1:18" hidden="1">
       <c r="A257" s="1" t="s">
         <v>127</v>
       </c>
@@ -11217,18 +11901,18 @@
       <c r="I257" s="1">
         <v>10</v>
       </c>
-      <c r="J257" s="19"/>
-      <c r="O257" s="1">
-        <v>1</v>
-      </c>
-      <c r="P257" s="1" t="s">
+      <c r="J257" s="20"/>
+      <c r="P257" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q257" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="Q257" s="1" t="s">
+      <c r="R257" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="258" spans="1:17" ht="30" customHeight="1">
+    <row r="258" spans="1:18" ht="30" hidden="1" customHeight="1">
       <c r="A258" s="1" t="s">
         <v>237</v>
       </c>
@@ -11262,14 +11946,14 @@
       <c r="M258" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="P258" s="1" t="s">
+      <c r="Q258" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="Q258" s="1" t="s">
+      <c r="R258" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="259" spans="1:17">
+    <row r="259" spans="1:18" hidden="1">
       <c r="A259" s="1" t="s">
         <v>237</v>
       </c>
@@ -11303,16 +11987,28 @@
       <c r="M259" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="P259" s="1" t="s">
+      <c r="Q259" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="Q259" s="1" t="s">
+      <c r="R259" s="1" t="s">
         <v>326</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q259" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:R259" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="5">
+      <filters blank="1">
+        <filter val="RW"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="15">
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="J18:J24"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="E149:E151"/>
+    <mergeCell ref="F149:F151"/>
+    <mergeCell ref="G149:G151"/>
     <mergeCell ref="J237:J243"/>
     <mergeCell ref="J246:J248"/>
     <mergeCell ref="J249:J250"/>
@@ -11322,12 +12018,6 @@
     <mergeCell ref="J216:J222"/>
     <mergeCell ref="J223:J229"/>
     <mergeCell ref="J230:J236"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="J18:J24"/>
-    <mergeCell ref="J68:J69"/>
-    <mergeCell ref="E149:E151"/>
-    <mergeCell ref="F149:F151"/>
-    <mergeCell ref="G149:G151"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="0"/>
@@ -12062,7 +12752,7 @@
         <v>316</v>
       </c>
       <c r="D2" s="18" t="str">
-        <f>"MANUAL_DATA.push({item: '"&amp;A2&amp;"', sitemap: '"&amp;B2&amp;"'});"</f>
+        <f t="shared" ref="D2:D33" si="0">"MANUAL_DATA.push({item: '"&amp;A2&amp;"', sitemap: '"&amp;B2&amp;"'});"</f>
         <v>MANUAL_DATA.push({item: 'PV_Device_SN', sitemap: 'Infos'});</v>
       </c>
     </row>
@@ -12074,7 +12764,7 @@
         <v>316</v>
       </c>
       <c r="D3" s="18" t="str">
-        <f>"MANUAL_DATA.push({item: '"&amp;A3&amp;"', sitemap: '"&amp;B3&amp;"'});"</f>
+        <f t="shared" si="0"/>
         <v>MANUAL_DATA.push({item: 'PV_Device_Model_Info', sitemap: 'Infos'});</v>
       </c>
     </row>
@@ -12086,7 +12776,7 @@
         <v>316</v>
       </c>
       <c r="D4" s="18" t="str">
-        <f>"MANUAL_DATA.push({item: '"&amp;A4&amp;"', sitemap: '"&amp;B4&amp;"'});"</f>
+        <f t="shared" si="0"/>
         <v>MANUAL_DATA.push({item: 'PV_Firmware_Version', sitemap: 'Infos'});</v>
       </c>
     </row>
@@ -12098,7 +12788,7 @@
         <v>316</v>
       </c>
       <c r="D5" s="18" t="str">
-        <f>"MANUAL_DATA.push({item: '"&amp;A5&amp;"', sitemap: '"&amp;B5&amp;"'});"</f>
+        <f t="shared" si="0"/>
         <v>MANUAL_DATA.push({item: 'PV_DateTime', sitemap: 'Infos'});</v>
       </c>
     </row>
@@ -12110,7 +12800,7 @@
         <v>317</v>
       </c>
       <c r="D6" s="18" t="str">
-        <f>"MANUAL_DATA.push({item: '"&amp;A6&amp;"', sitemap: '"&amp;B6&amp;"'});"</f>
+        <f t="shared" si="0"/>
         <v>MANUAL_DATA.push({item: 'PV_Fault_1_0', sitemap: 'Status'});</v>
       </c>
     </row>
@@ -12122,7 +12812,7 @@
         <v>317</v>
       </c>
       <c r="D7" s="18" t="str">
-        <f>"MANUAL_DATA.push({item: '"&amp;A7&amp;"', sitemap: '"&amp;B7&amp;"'});"</f>
+        <f t="shared" si="0"/>
         <v>MANUAL_DATA.push({item: 'PV_Fault_1_1', sitemap: 'Status'});</v>
       </c>
     </row>
@@ -12134,7 +12824,7 @@
         <v>317</v>
       </c>
       <c r="D8" s="18" t="str">
-        <f>"MANUAL_DATA.push({item: '"&amp;A8&amp;"', sitemap: '"&amp;B8&amp;"'});"</f>
+        <f t="shared" si="0"/>
         <v>MANUAL_DATA.push({item: 'PV_Fault_1_2', sitemap: 'Status'});</v>
       </c>
     </row>
@@ -12146,7 +12836,7 @@
         <v>317</v>
       </c>
       <c r="D9" s="18" t="str">
-        <f>"MANUAL_DATA.push({item: '"&amp;A9&amp;"', sitemap: '"&amp;B9&amp;"'});"</f>
+        <f t="shared" si="0"/>
         <v>MANUAL_DATA.push({item: 'PV_Fault_1_3', sitemap: 'Status'});</v>
       </c>
     </row>
@@ -12158,7 +12848,7 @@
         <v>317</v>
       </c>
       <c r="D10" s="18" t="str">
-        <f>"MANUAL_DATA.push({item: '"&amp;A10&amp;"', sitemap: '"&amp;B10&amp;"'});"</f>
+        <f t="shared" si="0"/>
         <v>MANUAL_DATA.push({item: 'PV_Fault_1_4', sitemap: 'Status'});</v>
       </c>
     </row>
@@ -12170,7 +12860,7 @@
         <v>317</v>
       </c>
       <c r="D11" s="18" t="str">
-        <f>"MANUAL_DATA.push({item: '"&amp;A11&amp;"', sitemap: '"&amp;B11&amp;"'});"</f>
+        <f t="shared" si="0"/>
         <v>MANUAL_DATA.push({item: 'PV_Fault_1_5', sitemap: 'Status'});</v>
       </c>
     </row>
@@ -12182,7 +12872,7 @@
         <v>317</v>
       </c>
       <c r="D12" s="18" t="str">
-        <f>"MANUAL_DATA.push({item: '"&amp;A12&amp;"', sitemap: '"&amp;B12&amp;"'});"</f>
+        <f t="shared" si="0"/>
         <v>MANUAL_DATA.push({item: 'PV_Fault_1_6', sitemap: 'Status'});</v>
       </c>
     </row>
@@ -12194,7 +12884,7 @@
         <v>317</v>
       </c>
       <c r="D13" s="18" t="str">
-        <f>"MANUAL_DATA.push({item: '"&amp;A13&amp;"', sitemap: '"&amp;B13&amp;"'});"</f>
+        <f t="shared" si="0"/>
         <v>MANUAL_DATA.push({item: 'PV_Fault_1_7', sitemap: 'Status'});</v>
       </c>
     </row>
@@ -12206,7 +12896,7 @@
         <v>317</v>
       </c>
       <c r="D14" s="18" t="str">
-        <f>"MANUAL_DATA.push({item: '"&amp;A14&amp;"', sitemap: '"&amp;B14&amp;"'});"</f>
+        <f t="shared" si="0"/>
         <v>MANUAL_DATA.push({item: 'PV_Fault_1_8', sitemap: 'Status'});</v>
       </c>
     </row>
@@ -12218,7 +12908,7 @@
         <v>317</v>
       </c>
       <c r="D15" s="18" t="str">
-        <f>"MANUAL_DATA.push({item: '"&amp;A15&amp;"', sitemap: '"&amp;B15&amp;"'});"</f>
+        <f t="shared" si="0"/>
         <v>MANUAL_DATA.push({item: 'PV_Fault_2_1', sitemap: 'Status'});</v>
       </c>
     </row>
@@ -12230,7 +12920,7 @@
         <v>317</v>
       </c>
       <c r="D16" s="18" t="str">
-        <f>"MANUAL_DATA.push({item: '"&amp;A16&amp;"', sitemap: '"&amp;B16&amp;"'});"</f>
+        <f t="shared" si="0"/>
         <v>MANUAL_DATA.push({item: 'PV_Fault_2_2', sitemap: 'Status'});</v>
       </c>
     </row>
@@ -12242,7 +12932,7 @@
         <v>317</v>
       </c>
       <c r="D17" s="18" t="str">
-        <f>"MANUAL_DATA.push({item: '"&amp;A17&amp;"', sitemap: '"&amp;B17&amp;"'});"</f>
+        <f t="shared" si="0"/>
         <v>MANUAL_DATA.push({item: 'PV_Fault_2_3', sitemap: 'Status'});</v>
       </c>
     </row>
@@ -12254,7 +12944,7 @@
         <v>317</v>
       </c>
       <c r="D18" s="18" t="str">
-        <f>"MANUAL_DATA.push({item: '"&amp;A18&amp;"', sitemap: '"&amp;B18&amp;"'});"</f>
+        <f t="shared" si="0"/>
         <v>MANUAL_DATA.push({item: 'PV_Fault_2_4', sitemap: 'Status'});</v>
       </c>
     </row>
@@ -12266,7 +12956,7 @@
         <v>317</v>
       </c>
       <c r="D19" s="18" t="str">
-        <f>"MANUAL_DATA.push({item: '"&amp;A19&amp;"', sitemap: '"&amp;B19&amp;"'});"</f>
+        <f t="shared" si="0"/>
         <v>MANUAL_DATA.push({item: 'PV_Fault_2_5', sitemap: 'Status'});</v>
       </c>
     </row>
@@ -12278,7 +12968,7 @@
         <v>317</v>
       </c>
       <c r="D20" s="18" t="str">
-        <f>"MANUAL_DATA.push({item: '"&amp;A20&amp;"', sitemap: '"&amp;B20&amp;"'});"</f>
+        <f t="shared" si="0"/>
         <v>MANUAL_DATA.push({item: 'PV_Fault_2_6', sitemap: 'Status'});</v>
       </c>
     </row>
@@ -12290,7 +12980,7 @@
         <v>317</v>
       </c>
       <c r="D21" s="18" t="str">
-        <f>"MANUAL_DATA.push({item: '"&amp;A21&amp;"', sitemap: '"&amp;B21&amp;"'});"</f>
+        <f t="shared" si="0"/>
         <v>MANUAL_DATA.push({item: 'PV_Fault_2_7', sitemap: 'Status'});</v>
       </c>
     </row>
@@ -12302,7 +12992,7 @@
         <v>317</v>
       </c>
       <c r="D22" s="18" t="str">
-        <f>"MANUAL_DATA.push({item: '"&amp;A22&amp;"', sitemap: '"&amp;B22&amp;"'});"</f>
+        <f t="shared" si="0"/>
         <v>MANUAL_DATA.push({item: 'PV_Fault_3_0', sitemap: 'Status'});</v>
       </c>
     </row>
@@ -12314,7 +13004,7 @@
         <v>317</v>
       </c>
       <c r="D23" s="18" t="str">
-        <f>"MANUAL_DATA.push({item: '"&amp;A23&amp;"', sitemap: '"&amp;B23&amp;"'});"</f>
+        <f t="shared" si="0"/>
         <v>MANUAL_DATA.push({item: 'PV_Fault_3_1', sitemap: 'Status'});</v>
       </c>
     </row>
@@ -12326,7 +13016,7 @@
         <v>317</v>
       </c>
       <c r="D24" s="18" t="str">
-        <f>"MANUAL_DATA.push({item: '"&amp;A24&amp;"', sitemap: '"&amp;B24&amp;"'});"</f>
+        <f t="shared" si="0"/>
         <v>MANUAL_DATA.push({item: 'PV_Fault_3_2', sitemap: 'Status'});</v>
       </c>
     </row>
@@ -12338,7 +13028,7 @@
         <v>317</v>
       </c>
       <c r="D25" s="18" t="str">
-        <f>"MANUAL_DATA.push({item: '"&amp;A25&amp;"', sitemap: '"&amp;B25&amp;"'});"</f>
+        <f t="shared" si="0"/>
         <v>MANUAL_DATA.push({item: 'PV_Fault_3_3', sitemap: 'Status'});</v>
       </c>
     </row>
@@ -12350,7 +13040,7 @@
         <v>317</v>
       </c>
       <c r="D26" s="18" t="str">
-        <f>"MANUAL_DATA.push({item: '"&amp;A26&amp;"', sitemap: '"&amp;B26&amp;"'});"</f>
+        <f t="shared" si="0"/>
         <v>MANUAL_DATA.push({item: 'PV_Fault_3_4', sitemap: 'Status'});</v>
       </c>
     </row>
@@ -12362,7 +13052,7 @@
         <v>317</v>
       </c>
       <c r="D27" s="18" t="str">
-        <f>"MANUAL_DATA.push({item: '"&amp;A27&amp;"', sitemap: '"&amp;B27&amp;"'});"</f>
+        <f t="shared" si="0"/>
         <v>MANUAL_DATA.push({item: 'PV_Fault_3_5', sitemap: 'Status'});</v>
       </c>
     </row>
@@ -12374,7 +13064,7 @@
         <v>317</v>
       </c>
       <c r="D28" s="18" t="str">
-        <f>"MANUAL_DATA.push({item: '"&amp;A28&amp;"', sitemap: '"&amp;B28&amp;"'});"</f>
+        <f t="shared" si="0"/>
         <v>MANUAL_DATA.push({item: 'PV_Fault_3_6', sitemap: 'Status'});</v>
       </c>
     </row>
@@ -12386,7 +13076,7 @@
         <v>317</v>
       </c>
       <c r="D29" s="18" t="str">
-        <f>"MANUAL_DATA.push({item: '"&amp;A29&amp;"', sitemap: '"&amp;B29&amp;"'});"</f>
+        <f t="shared" si="0"/>
         <v>MANUAL_DATA.push({item: 'PV_Fault_3_7', sitemap: 'Status'});</v>
       </c>
     </row>
@@ -12398,7 +13088,7 @@
         <v>317</v>
       </c>
       <c r="D30" s="18" t="str">
-        <f>"MANUAL_DATA.push({item: '"&amp;A30&amp;"', sitemap: '"&amp;B30&amp;"'});"</f>
+        <f t="shared" si="0"/>
         <v>MANUAL_DATA.push({item: 'PV_Fault_3_8', sitemap: 'Status'});</v>
       </c>
     </row>
@@ -12410,7 +13100,7 @@
         <v>317</v>
       </c>
       <c r="D31" s="18" t="str">
-        <f>"MANUAL_DATA.push({item: '"&amp;A31&amp;"', sitemap: '"&amp;B31&amp;"'});"</f>
+        <f t="shared" si="0"/>
         <v>MANUAL_DATA.push({item: 'PV_Fault_3_9', sitemap: 'Status'});</v>
       </c>
     </row>
@@ -12422,7 +13112,7 @@
         <v>317</v>
       </c>
       <c r="D32" s="18" t="str">
-        <f>"MANUAL_DATA.push({item: '"&amp;A32&amp;"', sitemap: '"&amp;B32&amp;"'});"</f>
+        <f t="shared" si="0"/>
         <v>MANUAL_DATA.push({item: 'PV_Fault_3_10', sitemap: 'Status'});</v>
       </c>
     </row>
@@ -12434,7 +13124,7 @@
         <v>317</v>
       </c>
       <c r="D33" s="18" t="str">
-        <f>"MANUAL_DATA.push({item: '"&amp;A33&amp;"', sitemap: '"&amp;B33&amp;"'});"</f>
+        <f t="shared" si="0"/>
         <v>MANUAL_DATA.push({item: 'PV_Fault_ARM_0', sitemap: 'Status'});</v>
       </c>
     </row>
@@ -12446,7 +13136,7 @@
         <v>317</v>
       </c>
       <c r="D34" s="18" t="str">
-        <f>"MANUAL_DATA.push({item: '"&amp;A34&amp;"', sitemap: '"&amp;B34&amp;"'});"</f>
+        <f t="shared" ref="D34:D65" si="1">"MANUAL_DATA.push({item: '"&amp;A34&amp;"', sitemap: '"&amp;B34&amp;"'});"</f>
         <v>MANUAL_DATA.push({item: 'PV_Fault_ARM_1', sitemap: 'Status'});</v>
       </c>
     </row>
@@ -12458,7 +13148,7 @@
         <v>317</v>
       </c>
       <c r="D35" s="18" t="str">
-        <f>"MANUAL_DATA.push({item: '"&amp;A35&amp;"', sitemap: '"&amp;B35&amp;"'});"</f>
+        <f t="shared" si="1"/>
         <v>MANUAL_DATA.push({item: 'PV_Fault_ARM_2', sitemap: 'Status'});</v>
       </c>
     </row>
@@ -12470,7 +13160,7 @@
         <v>394</v>
       </c>
       <c r="D36" s="18" t="str">
-        <f>"MANUAL_DATA.push({item: '"&amp;A36&amp;"', sitemap: '"&amp;B36&amp;"'});"</f>
+        <f t="shared" si="1"/>
         <v>MANUAL_DATA.push({item: 'PV_Period_1_Enabled', sitemap: 'Period 1'});</v>
       </c>
     </row>
@@ -12482,7 +13172,7 @@
         <v>395</v>
       </c>
       <c r="D37" s="18" t="str">
-        <f>"MANUAL_DATA.push({item: '"&amp;A37&amp;"', sitemap: '"&amp;B37&amp;"'});"</f>
+        <f t="shared" si="1"/>
         <v>MANUAL_DATA.push({item: 'PV_Period_2_Enabled', sitemap: 'Period 2'});</v>
       </c>
     </row>
@@ -12494,7 +13184,7 @@
         <v>396</v>
       </c>
       <c r="D38" s="18" t="str">
-        <f>"MANUAL_DATA.push({item: '"&amp;A38&amp;"', sitemap: '"&amp;B38&amp;"'});"</f>
+        <f t="shared" si="1"/>
         <v>MANUAL_DATA.push({item: 'PV_Period_3_Enabled', sitemap: 'Period 3'});</v>
       </c>
     </row>
@@ -12506,7 +13196,7 @@
         <v>397</v>
       </c>
       <c r="D39" s="18" t="str">
-        <f>"MANUAL_DATA.push({item: '"&amp;A39&amp;"', sitemap: '"&amp;B39&amp;"'});"</f>
+        <f t="shared" si="1"/>
         <v>MANUAL_DATA.push({item: 'PV_Period_4_Enabled', sitemap: 'Period 4'});</v>
       </c>
     </row>
@@ -12518,7 +13208,7 @@
         <v>398</v>
       </c>
       <c r="D40" s="18" t="str">
-        <f>"MANUAL_DATA.push({item: '"&amp;A40&amp;"', sitemap: '"&amp;B40&amp;"'});"</f>
+        <f t="shared" si="1"/>
         <v>MANUAL_DATA.push({item: 'PV_Period_5_Enabled', sitemap: 'Period 5'});</v>
       </c>
     </row>
@@ -12530,7 +13220,7 @@
         <v>399</v>
       </c>
       <c r="D41" s="18" t="str">
-        <f>"MANUAL_DATA.push({item: '"&amp;A41&amp;"', sitemap: '"&amp;B41&amp;"'});"</f>
+        <f t="shared" si="1"/>
         <v>MANUAL_DATA.push({item: 'PV_Period_6_Enabled', sitemap: 'Period 6'});</v>
       </c>
     </row>
@@ -12542,7 +13232,7 @@
         <v>394</v>
       </c>
       <c r="D42" s="18" t="str">
-        <f>"MANUAL_DATA.push({item: '"&amp;A42&amp;"', sitemap: '"&amp;B42&amp;"'});"</f>
+        <f t="shared" si="1"/>
         <v>MANUAL_DATA.push({item: 'PV_Period_1_Start_H', sitemap: 'Period 1'});</v>
       </c>
     </row>
@@ -12554,7 +13244,7 @@
         <v>395</v>
       </c>
       <c r="D43" s="18" t="str">
-        <f>"MANUAL_DATA.push({item: '"&amp;A43&amp;"', sitemap: '"&amp;B43&amp;"'});"</f>
+        <f t="shared" si="1"/>
         <v>MANUAL_DATA.push({item: 'PV_Period_2_Start_H', sitemap: 'Period 2'});</v>
       </c>
     </row>
@@ -12566,7 +13256,7 @@
         <v>396</v>
       </c>
       <c r="D44" s="18" t="str">
-        <f>"MANUAL_DATA.push({item: '"&amp;A44&amp;"', sitemap: '"&amp;B44&amp;"'});"</f>
+        <f t="shared" si="1"/>
         <v>MANUAL_DATA.push({item: 'PV_Period_3_Start_H', sitemap: 'Period 3'});</v>
       </c>
     </row>
@@ -12578,7 +13268,7 @@
         <v>397</v>
       </c>
       <c r="D45" s="18" t="str">
-        <f>"MANUAL_DATA.push({item: '"&amp;A45&amp;"', sitemap: '"&amp;B45&amp;"'});"</f>
+        <f t="shared" si="1"/>
         <v>MANUAL_DATA.push({item: 'PV_Period_4_Start_H', sitemap: 'Period 4'});</v>
       </c>
     </row>
@@ -12590,7 +13280,7 @@
         <v>398</v>
       </c>
       <c r="D46" s="18" t="str">
-        <f>"MANUAL_DATA.push({item: '"&amp;A46&amp;"', sitemap: '"&amp;B46&amp;"'});"</f>
+        <f t="shared" si="1"/>
         <v>MANUAL_DATA.push({item: 'PV_Period_5_Start_H', sitemap: 'Period 5'});</v>
       </c>
     </row>
@@ -12602,7 +13292,7 @@
         <v>399</v>
       </c>
       <c r="D47" s="18" t="str">
-        <f>"MANUAL_DATA.push({item: '"&amp;A47&amp;"', sitemap: '"&amp;B47&amp;"'});"</f>
+        <f t="shared" si="1"/>
         <v>MANUAL_DATA.push({item: 'PV_Period_6_Start_H', sitemap: 'Period 6'});</v>
       </c>
     </row>
@@ -12614,7 +13304,7 @@
         <v>394</v>
       </c>
       <c r="D48" s="18" t="str">
-        <f>"MANUAL_DATA.push({item: '"&amp;A48&amp;"', sitemap: '"&amp;B48&amp;"'});"</f>
+        <f t="shared" si="1"/>
         <v>MANUAL_DATA.push({item: 'PV_Period_1_Start_M', sitemap: 'Period 1'});</v>
       </c>
     </row>
@@ -12626,7 +13316,7 @@
         <v>395</v>
       </c>
       <c r="D49" s="18" t="str">
-        <f>"MANUAL_DATA.push({item: '"&amp;A49&amp;"', sitemap: '"&amp;B49&amp;"'});"</f>
+        <f t="shared" si="1"/>
         <v>MANUAL_DATA.push({item: 'PV_Period_2_Start_M', sitemap: 'Period 2'});</v>
       </c>
     </row>
@@ -12638,7 +13328,7 @@
         <v>396</v>
       </c>
       <c r="D50" s="18" t="str">
-        <f>"MANUAL_DATA.push({item: '"&amp;A50&amp;"', sitemap: '"&amp;B50&amp;"'});"</f>
+        <f t="shared" si="1"/>
         <v>MANUAL_DATA.push({item: 'PV_Period_3_Start_M', sitemap: 'Period 3'});</v>
       </c>
     </row>
@@ -12650,7 +13340,7 @@
         <v>397</v>
       </c>
       <c r="D51" s="18" t="str">
-        <f>"MANUAL_DATA.push({item: '"&amp;A51&amp;"', sitemap: '"&amp;B51&amp;"'});"</f>
+        <f t="shared" si="1"/>
         <v>MANUAL_DATA.push({item: 'PV_Period_4_Start_M', sitemap: 'Period 4'});</v>
       </c>
     </row>
@@ -12662,7 +13352,7 @@
         <v>398</v>
       </c>
       <c r="D52" s="18" t="str">
-        <f>"MANUAL_DATA.push({item: '"&amp;A52&amp;"', sitemap: '"&amp;B52&amp;"'});"</f>
+        <f t="shared" si="1"/>
         <v>MANUAL_DATA.push({item: 'PV_Period_5_Start_M', sitemap: 'Period 5'});</v>
       </c>
     </row>
@@ -12674,7 +13364,7 @@
         <v>399</v>
       </c>
       <c r="D53" s="18" t="str">
-        <f>"MANUAL_DATA.push({item: '"&amp;A53&amp;"', sitemap: '"&amp;B53&amp;"'});"</f>
+        <f t="shared" si="1"/>
         <v>MANUAL_DATA.push({item: 'PV_Period_6_Start_M', sitemap: 'Period 6'});</v>
       </c>
     </row>
@@ -12686,7 +13376,7 @@
         <v>394</v>
       </c>
       <c r="D54" s="18" t="str">
-        <f>"MANUAL_DATA.push({item: '"&amp;A54&amp;"', sitemap: '"&amp;B54&amp;"'});"</f>
+        <f t="shared" si="1"/>
         <v>MANUAL_DATA.push({item: 'PV_Period_1_Stop_H', sitemap: 'Period 1'});</v>
       </c>
     </row>
@@ -12698,7 +13388,7 @@
         <v>395</v>
       </c>
       <c r="D55" s="18" t="str">
-        <f>"MANUAL_DATA.push({item: '"&amp;A55&amp;"', sitemap: '"&amp;B55&amp;"'});"</f>
+        <f t="shared" si="1"/>
         <v>MANUAL_DATA.push({item: 'PV_Period_2_Stop_H', sitemap: 'Period 2'});</v>
       </c>
     </row>
@@ -12710,7 +13400,7 @@
         <v>396</v>
       </c>
       <c r="D56" s="18" t="str">
-        <f>"MANUAL_DATA.push({item: '"&amp;A56&amp;"', sitemap: '"&amp;B56&amp;"'});"</f>
+        <f t="shared" si="1"/>
         <v>MANUAL_DATA.push({item: 'PV_Period_3_Stop_H', sitemap: 'Period 3'});</v>
       </c>
     </row>
@@ -12722,7 +13412,7 @@
         <v>397</v>
       </c>
       <c r="D57" s="18" t="str">
-        <f>"MANUAL_DATA.push({item: '"&amp;A57&amp;"', sitemap: '"&amp;B57&amp;"'});"</f>
+        <f t="shared" si="1"/>
         <v>MANUAL_DATA.push({item: 'PV_Period_4_Stop_H', sitemap: 'Period 4'});</v>
       </c>
     </row>
@@ -12734,7 +13424,7 @@
         <v>398</v>
       </c>
       <c r="D58" s="18" t="str">
-        <f>"MANUAL_DATA.push({item: '"&amp;A58&amp;"', sitemap: '"&amp;B58&amp;"'});"</f>
+        <f t="shared" si="1"/>
         <v>MANUAL_DATA.push({item: 'PV_Period_5_Stop_H', sitemap: 'Period 5'});</v>
       </c>
     </row>
@@ -12746,7 +13436,7 @@
         <v>399</v>
       </c>
       <c r="D59" s="18" t="str">
-        <f>"MANUAL_DATA.push({item: '"&amp;A59&amp;"', sitemap: '"&amp;B59&amp;"'});"</f>
+        <f t="shared" si="1"/>
         <v>MANUAL_DATA.push({item: 'PV_Period_6_Stop_H', sitemap: 'Period 6'});</v>
       </c>
     </row>
@@ -12758,7 +13448,7 @@
         <v>394</v>
       </c>
       <c r="D60" s="18" t="str">
-        <f>"MANUAL_DATA.push({item: '"&amp;A60&amp;"', sitemap: '"&amp;B60&amp;"'});"</f>
+        <f t="shared" si="1"/>
         <v>MANUAL_DATA.push({item: 'PV_Period_1_Stop_M', sitemap: 'Period 1'});</v>
       </c>
     </row>
@@ -12770,7 +13460,7 @@
         <v>395</v>
       </c>
       <c r="D61" s="18" t="str">
-        <f>"MANUAL_DATA.push({item: '"&amp;A61&amp;"', sitemap: '"&amp;B61&amp;"'});"</f>
+        <f t="shared" si="1"/>
         <v>MANUAL_DATA.push({item: 'PV_Period_2_Stop_M', sitemap: 'Period 2'});</v>
       </c>
     </row>
@@ -12782,7 +13472,7 @@
         <v>396</v>
       </c>
       <c r="D62" s="18" t="str">
-        <f>"MANUAL_DATA.push({item: '"&amp;A62&amp;"', sitemap: '"&amp;B62&amp;"'});"</f>
+        <f t="shared" si="1"/>
         <v>MANUAL_DATA.push({item: 'PV_Period_3_Stop_M', sitemap: 'Period 3'});</v>
       </c>
     </row>
@@ -12794,7 +13484,7 @@
         <v>397</v>
       </c>
       <c r="D63" s="18" t="str">
-        <f>"MANUAL_DATA.push({item: '"&amp;A63&amp;"', sitemap: '"&amp;B63&amp;"'});"</f>
+        <f t="shared" si="1"/>
         <v>MANUAL_DATA.push({item: 'PV_Period_4_Stop_M', sitemap: 'Period 4'});</v>
       </c>
     </row>
@@ -12806,7 +13496,7 @@
         <v>398</v>
       </c>
       <c r="D64" s="18" t="str">
-        <f>"MANUAL_DATA.push({item: '"&amp;A64&amp;"', sitemap: '"&amp;B64&amp;"'});"</f>
+        <f t="shared" si="1"/>
         <v>MANUAL_DATA.push({item: 'PV_Period_5_Stop_M', sitemap: 'Period 5'});</v>
       </c>
     </row>
@@ -12818,7 +13508,7 @@
         <v>399</v>
       </c>
       <c r="D65" s="18" t="str">
-        <f>"MANUAL_DATA.push({item: '"&amp;A65&amp;"', sitemap: '"&amp;B65&amp;"'});"</f>
+        <f t="shared" si="1"/>
         <v>MANUAL_DATA.push({item: 'PV_Period_6_Stop_M', sitemap: 'Period 6'});</v>
       </c>
     </row>

--- a/Solinteg Modbus Registers.xlsx
+++ b/Solinteg Modbus Registers.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B92BAD1-9FDB-43EB-816D-2F2149FB47AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD682206-D29A-4EA7-A60B-361B82B636A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2320" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2316" uniqueCount="404">
   <si>
     <t>Table</t>
   </si>
@@ -1446,10 +1446,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1804,12 +1804,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:R259"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E176" sqref="E176"/>
+      <pane ySplit="1" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I200" sqref="I200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1888,7 +1887,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="2" spans="1:18" hidden="1">
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -2051,7 +2050,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="10" spans="1:18" hidden="1">
+    <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -2092,7 +2091,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="11" spans="1:18" hidden="1">
+    <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -2171,7 +2170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" hidden="1">
+    <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -2199,7 +2198,7 @@
       <c r="I13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="20" t="s">
+      <c r="J13" s="19" t="s">
         <v>27</v>
       </c>
       <c r="L13" s="16">
@@ -2212,7 +2211,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="14" spans="1:18" hidden="1">
+    <row r="14" spans="1:18">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -2240,7 +2239,7 @@
       <c r="I14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="20"/>
+      <c r="J14" s="19"/>
       <c r="L14" s="16">
         <v>1</v>
       </c>
@@ -2251,7 +2250,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="15" spans="1:18" hidden="1">
+    <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -2279,7 +2278,7 @@
       <c r="I15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="20"/>
+      <c r="J15" s="19"/>
       <c r="L15" s="16">
         <v>1</v>
       </c>
@@ -2290,7 +2289,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="16" spans="1:18" hidden="1">
+    <row r="16" spans="1:18">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -2335,7 +2334,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="90" hidden="1" customHeight="1">
+    <row r="17" spans="1:18" ht="90" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -2380,7 +2379,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="18" spans="1:18" hidden="1">
+    <row r="18" spans="1:18">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -2408,7 +2407,7 @@
       <c r="I18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="20" t="s">
+      <c r="J18" s="19" t="s">
         <v>34</v>
       </c>
       <c r="L18" s="16">
@@ -2452,7 +2451,7 @@
       <c r="I19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J19" s="20"/>
+      <c r="J19" s="19"/>
       <c r="L19" s="16">
         <v>1</v>
       </c>
@@ -2460,7 +2459,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="20" spans="1:18" hidden="1">
+    <row r="20" spans="1:18">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
@@ -2488,7 +2487,7 @@
       <c r="I20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="20"/>
+      <c r="J20" s="19"/>
       <c r="L20" s="16">
         <v>1</v>
       </c>
@@ -2530,7 +2529,7 @@
       <c r="I21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J21" s="20"/>
+      <c r="J21" s="19"/>
       <c r="L21" s="16">
         <v>1</v>
       </c>
@@ -2538,7 +2537,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="22" spans="1:18" hidden="1">
+    <row r="22" spans="1:18">
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
@@ -2566,7 +2565,7 @@
       <c r="I22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="20"/>
+      <c r="J22" s="19"/>
       <c r="L22" s="16">
         <v>1</v>
       </c>
@@ -2608,7 +2607,7 @@
       <c r="I23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J23" s="20"/>
+      <c r="J23" s="19"/>
       <c r="L23" s="16">
         <v>1</v>
       </c>
@@ -2616,7 +2615,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="24" spans="1:18" hidden="1">
+    <row r="24" spans="1:18">
       <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
@@ -2644,7 +2643,7 @@
       <c r="I24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J24" s="20"/>
+      <c r="J24" s="19"/>
       <c r="O24" s="1">
         <f>1000*10</f>
         <v>10000</v>
@@ -2688,7 +2687,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:18" hidden="1">
+    <row r="26" spans="1:18">
       <c r="A26" s="1" t="s">
         <v>11</v>
       </c>
@@ -2741,7 +2740,7 @@
         <v>10997</v>
       </c>
     </row>
-    <row r="28" spans="1:18" hidden="1">
+    <row r="28" spans="1:18">
       <c r="A28" s="1" t="s">
         <v>11</v>
       </c>
@@ -2812,7 +2811,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:18" hidden="1">
+    <row r="30" spans="1:18">
       <c r="A30" s="1" t="s">
         <v>11</v>
       </c>
@@ -2886,7 +2885,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:18" hidden="1">
+    <row r="32" spans="1:18">
       <c r="A32" s="1" t="s">
         <v>11</v>
       </c>
@@ -2957,7 +2956,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:18" hidden="1">
+    <row r="34" spans="1:18">
       <c r="A34" s="1" t="s">
         <v>11</v>
       </c>
@@ -3031,7 +3030,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:18" hidden="1">
+    <row r="36" spans="1:18">
       <c r="A36" s="1" t="s">
         <v>11</v>
       </c>
@@ -3063,7 +3062,7 @@
         <v>25</v>
       </c>
       <c r="O36" s="1">
-        <f>1000*10</f>
+        <f t="shared" ref="O36:O46" si="0">1000*10</f>
         <v>10000</v>
       </c>
       <c r="Q36" s="1" t="s">
@@ -3073,7 +3072,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="37" spans="1:18" hidden="1">
+    <row r="37" spans="1:18">
       <c r="A37" s="1" t="s">
         <v>11</v>
       </c>
@@ -3105,7 +3104,7 @@
         <v>25</v>
       </c>
       <c r="O37" s="1">
-        <f>1000*10</f>
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="Q37" s="1" t="s">
@@ -3115,7 +3114,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="38" spans="1:18" hidden="1">
+    <row r="38" spans="1:18">
       <c r="A38" s="1" t="s">
         <v>11</v>
       </c>
@@ -3147,7 +3146,7 @@
         <v>25</v>
       </c>
       <c r="O38" s="1">
-        <f>1000*10</f>
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="Q38" s="1" t="s">
@@ -3157,7 +3156,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="39" spans="1:18" hidden="1">
+    <row r="39" spans="1:18">
       <c r="A39" s="1" t="s">
         <v>11</v>
       </c>
@@ -3189,7 +3188,7 @@
         <v>25</v>
       </c>
       <c r="O39" s="1">
-        <f>1000*10</f>
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="Q39" s="1" t="s">
@@ -3199,7 +3198,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="40" spans="1:18" hidden="1">
+    <row r="40" spans="1:18">
       <c r="A40" s="1" t="s">
         <v>11</v>
       </c>
@@ -3231,7 +3230,7 @@
         <v>25</v>
       </c>
       <c r="O40" s="1">
-        <f>1000*10</f>
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="Q40" s="1" t="s">
@@ -3241,7 +3240,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="41" spans="1:18" hidden="1">
+    <row r="41" spans="1:18">
       <c r="A41" s="1" t="s">
         <v>11</v>
       </c>
@@ -3273,7 +3272,7 @@
         <v>25</v>
       </c>
       <c r="O41" s="1">
-        <f>1000*10</f>
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="Q41" s="1" t="s">
@@ -3283,7 +3282,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="42" spans="1:18" hidden="1">
+    <row r="42" spans="1:18">
       <c r="A42" s="1" t="s">
         <v>11</v>
       </c>
@@ -3315,7 +3314,7 @@
         <v>25</v>
       </c>
       <c r="O42" s="1">
-        <f>1000*10</f>
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="Q42" s="1" t="s">
@@ -3325,7 +3324,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="43" spans="1:18" hidden="1">
+    <row r="43" spans="1:18">
       <c r="A43" s="1" t="s">
         <v>11</v>
       </c>
@@ -3357,7 +3356,7 @@
         <v>25</v>
       </c>
       <c r="O43" s="1">
-        <f>1000*10</f>
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="Q43" s="1" t="s">
@@ -3367,7 +3366,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="44" spans="1:18" hidden="1">
+    <row r="44" spans="1:18">
       <c r="A44" s="1" t="s">
         <v>11</v>
       </c>
@@ -3399,7 +3398,7 @@
         <v>25</v>
       </c>
       <c r="O44" s="1">
-        <f>1000*10</f>
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="Q44" s="1" t="s">
@@ -3409,7 +3408,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="45" spans="1:18" hidden="1">
+    <row r="45" spans="1:18">
       <c r="A45" s="1" t="s">
         <v>11</v>
       </c>
@@ -3441,7 +3440,7 @@
         <v>25</v>
       </c>
       <c r="O45" s="1">
-        <f>1000*10</f>
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="Q45" s="1" t="s">
@@ -3451,7 +3450,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="46" spans="1:18" hidden="1">
+    <row r="46" spans="1:18">
       <c r="A46" s="1" t="s">
         <v>11</v>
       </c>
@@ -3483,7 +3482,7 @@
         <v>25</v>
       </c>
       <c r="O46" s="1">
-        <f>1000*10</f>
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="Q46" s="1" t="s">
@@ -3525,7 +3524,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:18" hidden="1">
+    <row r="48" spans="1:18">
       <c r="A48" s="1" t="s">
         <v>11</v>
       </c>
@@ -3599,7 +3598,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:18" hidden="1">
+    <row r="50" spans="1:18">
       <c r="A50" s="1" t="s">
         <v>11</v>
       </c>
@@ -3673,7 +3672,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:18" hidden="1">
+    <row r="52" spans="1:18">
       <c r="A52" s="1" t="s">
         <v>11</v>
       </c>
@@ -3744,7 +3743,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:18" hidden="1">
+    <row r="54" spans="1:18">
       <c r="A54" s="1" t="s">
         <v>11</v>
       </c>
@@ -3815,7 +3814,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:18" hidden="1">
+    <row r="56" spans="1:18">
       <c r="A56" s="1" t="s">
         <v>11</v>
       </c>
@@ -3857,7 +3856,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="57" spans="1:18" hidden="1">
+    <row r="57" spans="1:18">
       <c r="A57" s="1" t="s">
         <v>11</v>
       </c>
@@ -3899,7 +3898,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="58" spans="1:18" hidden="1">
+    <row r="58" spans="1:18">
       <c r="A58" s="1" t="s">
         <v>11</v>
       </c>
@@ -3941,7 +3940,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="59" spans="1:18" hidden="1">
+    <row r="59" spans="1:18">
       <c r="A59" s="1" t="s">
         <v>11</v>
       </c>
@@ -3983,7 +3982,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="60" spans="1:18" hidden="1">
+    <row r="60" spans="1:18">
       <c r="A60" s="1" t="s">
         <v>11</v>
       </c>
@@ -4025,7 +4024,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="61" spans="1:18" hidden="1">
+    <row r="61" spans="1:18">
       <c r="A61" s="1" t="s">
         <v>11</v>
       </c>
@@ -4067,7 +4066,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="62" spans="1:18" hidden="1">
+    <row r="62" spans="1:18">
       <c r="A62" s="1" t="s">
         <v>11</v>
       </c>
@@ -4109,7 +4108,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="63" spans="1:18" hidden="1">
+    <row r="63" spans="1:18">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -4151,7 +4150,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="64" spans="1:18" hidden="1">
+    <row r="64" spans="1:18">
       <c r="A64" s="1" t="s">
         <v>11</v>
       </c>
@@ -4225,7 +4224,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:18" hidden="1">
+    <row r="66" spans="1:18">
       <c r="A66" s="1" t="s">
         <v>11</v>
       </c>
@@ -4299,7 +4298,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:18" hidden="1">
+    <row r="68" spans="1:18">
       <c r="A68" s="1" t="s">
         <v>11</v>
       </c>
@@ -4327,7 +4326,7 @@
       <c r="I68" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J68" s="20" t="s">
+      <c r="J68" s="19" t="s">
         <v>34</v>
       </c>
       <c r="L68" s="16">
@@ -4371,7 +4370,7 @@
       <c r="I69" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J69" s="20"/>
+      <c r="J69" s="19"/>
       <c r="L69" s="16">
         <v>1</v>
       </c>
@@ -4379,7 +4378,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="70" spans="1:18" hidden="1">
+    <row r="70" spans="1:18">
       <c r="A70" s="1" t="s">
         <v>11</v>
       </c>
@@ -4421,7 +4420,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="71" spans="1:18" hidden="1">
+    <row r="71" spans="1:18">
       <c r="A71" s="1" t="s">
         <v>11</v>
       </c>
@@ -4463,7 +4462,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="72" spans="1:18" hidden="1">
+    <row r="72" spans="1:18">
       <c r="A72" s="1" t="s">
         <v>11</v>
       </c>
@@ -4505,7 +4504,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="73" spans="1:18" hidden="1">
+    <row r="73" spans="1:18">
       <c r="A73" s="1" t="s">
         <v>11</v>
       </c>
@@ -4579,7 +4578,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:18" hidden="1">
+    <row r="75" spans="1:18">
       <c r="A75" s="1" t="s">
         <v>11</v>
       </c>
@@ -4621,7 +4620,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="76" spans="1:18" hidden="1">
+    <row r="76" spans="1:18">
       <c r="A76" s="1" t="s">
         <v>11</v>
       </c>
@@ -4663,7 +4662,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="77" spans="1:18" hidden="1">
+    <row r="77" spans="1:18">
       <c r="A77" s="1" t="s">
         <v>11</v>
       </c>
@@ -4705,7 +4704,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="78" spans="1:18" hidden="1">
+    <row r="78" spans="1:18">
       <c r="A78" s="1" t="s">
         <v>11</v>
       </c>
@@ -4779,7 +4778,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:18" hidden="1">
+    <row r="80" spans="1:18">
       <c r="A80" s="1" t="s">
         <v>11</v>
       </c>
@@ -4821,7 +4820,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="81" spans="1:18" hidden="1">
+    <row r="81" spans="1:18">
       <c r="A81" s="1" t="s">
         <v>11</v>
       </c>
@@ -4863,7 +4862,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="82" spans="1:18" hidden="1">
+    <row r="82" spans="1:18">
       <c r="A82" s="1" t="s">
         <v>11</v>
       </c>
@@ -4905,7 +4904,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="83" spans="1:18" hidden="1">
+    <row r="83" spans="1:18">
       <c r="A83" s="1" t="s">
         <v>11</v>
       </c>
@@ -4979,7 +4978,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:18" hidden="1">
+    <row r="85" spans="1:18">
       <c r="A85" s="1" t="s">
         <v>11</v>
       </c>
@@ -5032,7 +5031,7 @@
         <v>20231</v>
       </c>
     </row>
-    <row r="87" spans="1:18" hidden="1">
+    <row r="87" spans="1:18">
       <c r="A87" s="1" t="s">
         <v>11</v>
       </c>
@@ -5106,7 +5105,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:18" hidden="1">
+    <row r="89" spans="1:18">
       <c r="A89" s="1" t="s">
         <v>11</v>
       </c>
@@ -5180,7 +5179,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="1:18" hidden="1">
+    <row r="91" spans="1:18">
       <c r="A91" s="1" t="s">
         <v>11</v>
       </c>
@@ -5254,7 +5253,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:18" hidden="1">
+    <row r="93" spans="1:18">
       <c r="A93" s="1" t="s">
         <v>11</v>
       </c>
@@ -5296,7 +5295,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="94" spans="1:18" hidden="1">
+    <row r="94" spans="1:18">
       <c r="A94" s="1" t="s">
         <v>11</v>
       </c>
@@ -5338,7 +5337,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="95" spans="1:18" ht="30" hidden="1" customHeight="1">
+    <row r="95" spans="1:18" ht="30" customHeight="1">
       <c r="A95" s="1" t="s">
         <v>11</v>
       </c>
@@ -5386,7 +5385,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="96" spans="1:18" hidden="1">
+    <row r="96" spans="1:18">
       <c r="A96" s="1" t="s">
         <v>11</v>
       </c>
@@ -5460,7 +5459,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="1:18" hidden="1">
+    <row r="98" spans="1:18">
       <c r="A98" s="1" t="s">
         <v>11</v>
       </c>
@@ -5489,7 +5488,7 @@
         <v>51</v>
       </c>
       <c r="O98" s="1">
-        <f>1000*10</f>
+        <f t="shared" ref="O98:O106" si="1">1000*10</f>
         <v>10000</v>
       </c>
       <c r="Q98" s="1" t="s">
@@ -5499,7 +5498,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="99" spans="1:18" hidden="1">
+    <row r="99" spans="1:18">
       <c r="A99" s="1" t="s">
         <v>11</v>
       </c>
@@ -5528,7 +5527,7 @@
         <v>51</v>
       </c>
       <c r="O99" s="1">
-        <f>1000*10</f>
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
       <c r="Q99" s="1" t="s">
@@ -5538,7 +5537,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="100" spans="1:18" hidden="1">
+    <row r="100" spans="1:18">
       <c r="A100" s="1" t="s">
         <v>11</v>
       </c>
@@ -5567,7 +5566,7 @@
         <v>51</v>
       </c>
       <c r="O100" s="1">
-        <f>1000*10</f>
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
       <c r="Q100" s="1" t="s">
@@ -5577,7 +5576,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="101" spans="1:18" hidden="1">
+    <row r="101" spans="1:18">
       <c r="A101" s="1" t="s">
         <v>11</v>
       </c>
@@ -5606,7 +5605,7 @@
         <v>51</v>
       </c>
       <c r="O101" s="1">
-        <f>1000*10</f>
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
       <c r="Q101" s="1" t="s">
@@ -5616,7 +5615,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="102" spans="1:18" hidden="1">
+    <row r="102" spans="1:18">
       <c r="A102" s="1" t="s">
         <v>11</v>
       </c>
@@ -5645,7 +5644,7 @@
         <v>51</v>
       </c>
       <c r="O102" s="1">
-        <f>1000*10</f>
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
       <c r="Q102" s="1" t="s">
@@ -5655,7 +5654,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="103" spans="1:18" hidden="1">
+    <row r="103" spans="1:18">
       <c r="A103" s="1" t="s">
         <v>11</v>
       </c>
@@ -5684,7 +5683,7 @@
         <v>51</v>
       </c>
       <c r="O103" s="1">
-        <f>1000*10</f>
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
       <c r="Q103" s="1" t="s">
@@ -5694,7 +5693,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="104" spans="1:18" hidden="1">
+    <row r="104" spans="1:18">
       <c r="A104" s="1" t="s">
         <v>11</v>
       </c>
@@ -5723,7 +5722,7 @@
         <v>51</v>
       </c>
       <c r="O104" s="1">
-        <f>1000*10</f>
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
       <c r="Q104" s="1" t="s">
@@ -5733,7 +5732,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="105" spans="1:18" hidden="1">
+    <row r="105" spans="1:18">
       <c r="A105" s="1" t="s">
         <v>11</v>
       </c>
@@ -5762,7 +5761,7 @@
         <v>51</v>
       </c>
       <c r="O105" s="1">
-        <f>1000*10</f>
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
       <c r="Q105" s="1" t="s">
@@ -5772,7 +5771,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="106" spans="1:18" hidden="1">
+    <row r="106" spans="1:18">
       <c r="A106" s="1" t="s">
         <v>11</v>
       </c>
@@ -5801,7 +5800,7 @@
         <v>51</v>
       </c>
       <c r="O106" s="1">
-        <f>1000*10</f>
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
       <c r="Q106" s="1" t="s">
@@ -5843,7 +5842,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="108" spans="1:18" hidden="1">
+    <row r="108" spans="1:18">
       <c r="A108" s="1" t="s">
         <v>11</v>
       </c>
@@ -5914,7 +5913,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="110" spans="1:18" hidden="1">
+    <row r="110" spans="1:18">
       <c r="A110" s="1" t="s">
         <v>11</v>
       </c>
@@ -5985,7 +5984,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:18" hidden="1">
+    <row r="112" spans="1:18">
       <c r="A112" s="1" t="s">
         <v>11</v>
       </c>
@@ -6056,7 +6055,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="1:18" hidden="1">
+    <row r="114" spans="1:18">
       <c r="A114" s="1" t="s">
         <v>11</v>
       </c>
@@ -6127,7 +6126,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="1:18" hidden="1">
+    <row r="116" spans="1:18">
       <c r="A116" s="1" t="s">
         <v>11</v>
       </c>
@@ -6198,7 +6197,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="118" spans="1:18" hidden="1">
+    <row r="118" spans="1:18">
       <c r="A118" s="1" t="s">
         <v>11</v>
       </c>
@@ -6269,7 +6268,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="120" spans="1:18" hidden="1">
+    <row r="120" spans="1:18">
       <c r="A120" s="1" t="s">
         <v>11</v>
       </c>
@@ -6340,7 +6339,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="122" spans="1:18" hidden="1">
+    <row r="122" spans="1:18">
       <c r="A122" s="1" t="s">
         <v>11</v>
       </c>
@@ -6379,7 +6378,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="123" spans="1:18" hidden="1">
+    <row r="123" spans="1:18">
       <c r="A123" s="1" t="s">
         <v>11</v>
       </c>
@@ -6421,7 +6420,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="124" spans="1:18" hidden="1">
+    <row r="124" spans="1:18">
       <c r="A124" s="1" t="s">
         <v>11</v>
       </c>
@@ -6463,7 +6462,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="125" spans="1:18" hidden="1">
+    <row r="125" spans="1:18">
       <c r="A125" s="1" t="s">
         <v>11</v>
       </c>
@@ -6505,7 +6504,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="126" spans="1:18" hidden="1">
+    <row r="126" spans="1:18">
       <c r="A126" s="1" t="s">
         <v>11</v>
       </c>
@@ -6547,7 +6546,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="127" spans="1:18" hidden="1">
+    <row r="127" spans="1:18">
       <c r="A127" s="1" t="s">
         <v>11</v>
       </c>
@@ -6589,7 +6588,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="128" spans="1:18" hidden="1">
+    <row r="128" spans="1:18">
       <c r="A128" s="1" t="s">
         <v>11</v>
       </c>
@@ -6628,7 +6627,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="129" spans="1:18" hidden="1">
+    <row r="129" spans="1:18">
       <c r="A129" s="1" t="s">
         <v>11</v>
       </c>
@@ -6670,7 +6669,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="130" spans="1:18" hidden="1">
+    <row r="130" spans="1:18">
       <c r="A130" s="1" t="s">
         <v>11</v>
       </c>
@@ -6712,7 +6711,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="131" spans="1:18" hidden="1">
+    <row r="131" spans="1:18">
       <c r="A131" s="1" t="s">
         <v>11</v>
       </c>
@@ -6754,7 +6753,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="132" spans="1:18" hidden="1">
+    <row r="132" spans="1:18">
       <c r="A132" s="1" t="s">
         <v>11</v>
       </c>
@@ -6793,7 +6792,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="133" spans="1:18" hidden="1">
+    <row r="133" spans="1:18">
       <c r="A133" s="1" t="s">
         <v>11</v>
       </c>
@@ -6832,7 +6831,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="134" spans="1:18" hidden="1">
+    <row r="134" spans="1:18">
       <c r="A134" s="1" t="s">
         <v>11</v>
       </c>
@@ -6871,7 +6870,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="135" spans="1:18" hidden="1">
+    <row r="135" spans="1:18">
       <c r="A135" s="1" t="s">
         <v>11</v>
       </c>
@@ -6900,7 +6899,7 @@
         <v>16</v>
       </c>
       <c r="O135" s="1">
-        <f t="shared" ref="O135:O138" si="0">1000*60</f>
+        <f t="shared" ref="O135:O138" si="2">1000*60</f>
         <v>60000</v>
       </c>
       <c r="Q135" s="1" t="s">
@@ -6910,7 +6909,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="136" spans="1:18" hidden="1">
+    <row r="136" spans="1:18">
       <c r="A136" s="1" t="s">
         <v>11</v>
       </c>
@@ -6939,7 +6938,7 @@
         <v>51</v>
       </c>
       <c r="O136" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>60000</v>
       </c>
       <c r="Q136" s="1" t="s">
@@ -6949,7 +6948,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="137" spans="1:18" hidden="1">
+    <row r="137" spans="1:18">
       <c r="A137" s="1" t="s">
         <v>11</v>
       </c>
@@ -6978,7 +6977,7 @@
         <v>16</v>
       </c>
       <c r="O137" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>60000</v>
       </c>
       <c r="Q137" s="1" t="s">
@@ -6988,7 +6987,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="138" spans="1:18" hidden="1">
+    <row r="138" spans="1:18">
       <c r="A138" s="1" t="s">
         <v>11</v>
       </c>
@@ -7020,7 +7019,7 @@
         <v>25</v>
       </c>
       <c r="O138" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>60000</v>
       </c>
       <c r="Q138" s="1" t="s">
@@ -7030,7 +7029,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="139" spans="1:18" hidden="1">
+    <row r="139" spans="1:18">
       <c r="A139" s="1" t="s">
         <v>11</v>
       </c>
@@ -7072,7 +7071,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="140" spans="1:18" hidden="1">
+    <row r="140" spans="1:18">
       <c r="A140" s="1" t="s">
         <v>11</v>
       </c>
@@ -7114,7 +7113,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="141" spans="1:18" hidden="1">
+    <row r="141" spans="1:18">
       <c r="A141" s="1" t="s">
         <v>11</v>
       </c>
@@ -7167,7 +7166,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="143" spans="1:18" hidden="1">
+    <row r="143" spans="1:18">
       <c r="A143" s="1" t="s">
         <v>11</v>
       </c>
@@ -7220,7 +7219,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="145" spans="1:18" hidden="1">
+    <row r="145" spans="1:18">
       <c r="A145" s="1" t="s">
         <v>11</v>
       </c>
@@ -7259,7 +7258,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="146" spans="1:18" hidden="1">
+    <row r="146" spans="1:18">
       <c r="A146" s="1" t="s">
         <v>11</v>
       </c>
@@ -7298,7 +7297,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="147" spans="1:18" hidden="1">
+    <row r="147" spans="1:18">
       <c r="A147" s="1" t="s">
         <v>11</v>
       </c>
@@ -7337,7 +7336,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="148" spans="1:18" hidden="1">
+    <row r="148" spans="1:18">
       <c r="A148" s="1" t="s">
         <v>11</v>
       </c>
@@ -7389,13 +7388,13 @@
       <c r="D149" s="1">
         <v>1</v>
       </c>
-      <c r="E149" s="20" t="s">
+      <c r="E149" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="F149" s="20" t="s">
+      <c r="F149" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="G149" s="20" t="s">
+      <c r="G149" s="19" t="s">
         <v>19</v>
       </c>
       <c r="H149" s="1" t="s">
@@ -7430,9 +7429,9 @@
       <c r="D150" s="1">
         <v>1</v>
       </c>
-      <c r="E150" s="20"/>
-      <c r="F150" s="20"/>
-      <c r="G150" s="20"/>
+      <c r="E150" s="19"/>
+      <c r="F150" s="19"/>
+      <c r="G150" s="19"/>
       <c r="H150" s="1" t="s">
         <v>15</v>
       </c>
@@ -7465,9 +7464,9 @@
       <c r="D151" s="1">
         <v>1</v>
       </c>
-      <c r="E151" s="20"/>
-      <c r="F151" s="20"/>
-      <c r="G151" s="20"/>
+      <c r="E151" s="19"/>
+      <c r="F151" s="19"/>
+      <c r="G151" s="19"/>
       <c r="H151" s="1" t="s">
         <v>15</v>
       </c>
@@ -7647,8 +7646,8 @@
       <c r="H155" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="I155" s="1" t="s">
-        <v>41</v>
+      <c r="I155" s="7">
+        <v>100</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>139</v>
@@ -7664,7 +7663,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="156" spans="1:18" ht="30" hidden="1" customHeight="1">
+    <row r="156" spans="1:18" ht="30" customHeight="1">
       <c r="A156" s="1" t="s">
         <v>127</v>
       </c>
@@ -7708,7 +7707,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="157" spans="1:18" hidden="1">
+    <row r="157" spans="1:18">
       <c r="A157" s="1" t="s">
         <v>127</v>
       </c>
@@ -7746,7 +7745,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="158" spans="1:18" hidden="1">
+    <row r="158" spans="1:18">
       <c r="A158" s="1" t="s">
         <v>127</v>
       </c>
@@ -7784,7 +7783,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="159" spans="1:18" hidden="1">
+    <row r="159" spans="1:18">
       <c r="A159" s="1" t="s">
         <v>127</v>
       </c>
@@ -7847,8 +7846,8 @@
       <c r="H160" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="I160" s="1" t="s">
-        <v>41</v>
+      <c r="I160" s="7">
+        <v>100</v>
       </c>
       <c r="J160" s="6" t="s">
         <v>148</v>
@@ -7983,7 +7982,7 @@
         <v>154</v>
       </c>
       <c r="O163" s="1">
-        <f>1000*60*60</f>
+        <f t="shared" ref="O163:O176" si="3">1000*60*60</f>
         <v>3600000</v>
       </c>
       <c r="Q163" s="1" t="s">
@@ -8025,7 +8024,7 @@
         <v>156</v>
       </c>
       <c r="O164" s="1">
-        <f>1000*60*60</f>
+        <f t="shared" si="3"/>
         <v>3600000</v>
       </c>
       <c r="Q164" s="1" t="s">
@@ -8067,7 +8066,7 @@
         <v>158</v>
       </c>
       <c r="O165" s="1">
-        <f>1000*60*60</f>
+        <f t="shared" si="3"/>
         <v>3600000</v>
       </c>
       <c r="Q165" s="1" t="s">
@@ -8109,7 +8108,7 @@
         <v>158</v>
       </c>
       <c r="O166" s="1">
-        <f>1000*60*60</f>
+        <f t="shared" si="3"/>
         <v>3600000</v>
       </c>
       <c r="Q166" s="1" t="s">
@@ -8151,7 +8150,7 @@
         <v>154</v>
       </c>
       <c r="O167" s="1">
-        <f>1000*60*60</f>
+        <f t="shared" si="3"/>
         <v>3600000</v>
       </c>
       <c r="Q167" s="1" t="s">
@@ -8193,7 +8192,7 @@
         <v>163</v>
       </c>
       <c r="O168" s="1">
-        <f>1000*60*60</f>
+        <f t="shared" si="3"/>
         <v>3600000</v>
       </c>
       <c r="Q168" s="1" t="s">
@@ -8235,7 +8234,7 @@
         <v>156</v>
       </c>
       <c r="O169" s="1">
-        <f>1000*60*60</f>
+        <f t="shared" si="3"/>
         <v>3600000</v>
       </c>
       <c r="Q169" s="1" t="s">
@@ -8277,7 +8276,7 @@
         <v>163</v>
       </c>
       <c r="O170" s="1">
-        <f>1000*60*60</f>
+        <f t="shared" si="3"/>
         <v>3600000</v>
       </c>
       <c r="Q170" s="1" t="s">
@@ -8319,7 +8318,7 @@
         <v>158</v>
       </c>
       <c r="O171" s="1">
-        <f>1000*60*60</f>
+        <f t="shared" si="3"/>
         <v>3600000</v>
       </c>
       <c r="Q171" s="1" t="s">
@@ -8361,7 +8360,7 @@
         <v>163</v>
       </c>
       <c r="O172" s="1">
-        <f>1000*60*60</f>
+        <f t="shared" si="3"/>
         <v>3600000</v>
       </c>
       <c r="Q172" s="1" t="s">
@@ -8403,7 +8402,7 @@
         <v>158</v>
       </c>
       <c r="O173" s="1">
-        <f>1000*60*60</f>
+        <f t="shared" si="3"/>
         <v>3600000</v>
       </c>
       <c r="Q173" s="1" t="s">
@@ -8445,7 +8444,7 @@
         <v>163</v>
       </c>
       <c r="O174" s="1">
-        <f>1000*60*60</f>
+        <f t="shared" si="3"/>
         <v>3600000</v>
       </c>
       <c r="Q174" s="1" t="s">
@@ -8490,7 +8489,7 @@
         <v>287</v>
       </c>
       <c r="O175" s="1">
-        <f>1000*60*60</f>
+        <f t="shared" si="3"/>
         <v>3600000</v>
       </c>
       <c r="Q175" s="1" t="s">
@@ -8532,7 +8531,7 @@
         <v>156</v>
       </c>
       <c r="O176" s="1">
-        <f>1000*60*60</f>
+        <f t="shared" si="3"/>
         <v>3600000</v>
       </c>
       <c r="Q176" s="1" t="s">
@@ -8922,7 +8921,7 @@
         <v>298</v>
       </c>
       <c r="O185" s="1">
-        <f>1000*60</f>
+        <f t="shared" ref="O185:O194" si="4">1000*60</f>
         <v>60000</v>
       </c>
       <c r="Q185" s="1" t="s">
@@ -8964,7 +8963,7 @@
         <v>185</v>
       </c>
       <c r="O186" s="1">
-        <f>1000*60</f>
+        <f t="shared" si="4"/>
         <v>60000</v>
       </c>
       <c r="Q186" s="1" t="s">
@@ -9006,7 +9005,7 @@
         <v>186</v>
       </c>
       <c r="O187" s="1">
-        <f>1000*60</f>
+        <f t="shared" si="4"/>
         <v>60000</v>
       </c>
       <c r="Q187" s="1" t="s">
@@ -9048,7 +9047,7 @@
         <v>187</v>
       </c>
       <c r="O188" s="1">
-        <f>1000*60</f>
+        <f t="shared" si="4"/>
         <v>60000</v>
       </c>
       <c r="Q188" s="1" t="s">
@@ -9090,7 +9089,7 @@
         <v>188</v>
       </c>
       <c r="O189" s="1">
-        <f>1000*60</f>
+        <f t="shared" si="4"/>
         <v>60000</v>
       </c>
       <c r="Q189" s="1" t="s">
@@ -9129,7 +9128,7 @@
         <v>47</v>
       </c>
       <c r="O190" s="1">
-        <f>1000*60</f>
+        <f t="shared" si="4"/>
         <v>60000</v>
       </c>
       <c r="Q190" s="1" t="s">
@@ -9168,7 +9167,7 @@
         <v>47</v>
       </c>
       <c r="O191" s="1">
-        <f>1000*60</f>
+        <f t="shared" si="4"/>
         <v>60000</v>
       </c>
       <c r="Q191" s="1" t="s">
@@ -9207,7 +9206,7 @@
         <v>47</v>
       </c>
       <c r="O192" s="1">
-        <f>1000*60</f>
+        <f t="shared" si="4"/>
         <v>60000</v>
       </c>
       <c r="Q192" s="1" t="s">
@@ -9255,7 +9254,7 @@
         <v>299</v>
       </c>
       <c r="O193" s="1">
-        <f>1000*60</f>
+        <f t="shared" si="4"/>
         <v>60000</v>
       </c>
       <c r="Q193" s="1" t="s">
@@ -9297,7 +9296,7 @@
         <v>25</v>
       </c>
       <c r="O194" s="1">
-        <f>1000*60</f>
+        <f t="shared" si="4"/>
         <v>60000</v>
       </c>
       <c r="Q194" s="1" t="s">
@@ -9342,7 +9341,7 @@
         <v>300</v>
       </c>
       <c r="O195" s="1">
-        <f>1000*60*60</f>
+        <f t="shared" ref="O195:O200" si="5">1000*60*60</f>
         <v>3600000</v>
       </c>
       <c r="Q195" s="1" t="s">
@@ -9384,7 +9383,7 @@
         <v>301</v>
       </c>
       <c r="O196" s="1">
-        <f>1000*60*60</f>
+        <f t="shared" si="5"/>
         <v>3600000</v>
       </c>
       <c r="Q196" s="1" t="s">
@@ -9429,7 +9428,7 @@
         <v>287</v>
       </c>
       <c r="O197" s="1">
-        <f>1000*60*60</f>
+        <f t="shared" si="5"/>
         <v>3600000</v>
       </c>
       <c r="Q197" s="1" t="s">
@@ -9464,14 +9463,14 @@
       <c r="H198" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="I198" s="1" t="s">
-        <v>41</v>
+      <c r="I198" s="7">
+        <v>100</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>139</v>
       </c>
       <c r="O198" s="1">
-        <f>1000*60*60</f>
+        <f t="shared" si="5"/>
         <v>3600000</v>
       </c>
       <c r="Q198" s="1" t="s">
@@ -9516,7 +9515,7 @@
         <v>287</v>
       </c>
       <c r="O199" s="1">
-        <f>1000*60*60</f>
+        <f t="shared" si="5"/>
         <v>3600000</v>
       </c>
       <c r="Q199" s="1" t="s">
@@ -9551,14 +9550,14 @@
       <c r="H200" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="I200" s="1" t="s">
-        <v>41</v>
+      <c r="I200" s="7">
+        <v>100</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>139</v>
       </c>
       <c r="O200" s="1">
-        <f>1000*60*60</f>
+        <f t="shared" si="5"/>
         <v>3600000</v>
       </c>
       <c r="Q200" s="1" t="s">
@@ -9859,7 +9858,7 @@
       <c r="I207" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J207" s="19" t="s">
+      <c r="J207" s="20" t="s">
         <v>212</v>
       </c>
       <c r="L207" s="1">
@@ -9900,7 +9899,7 @@
       <c r="I208" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J208" s="19"/>
+      <c r="J208" s="20"/>
       <c r="L208" s="1">
         <v>1</v>
       </c>
@@ -9939,7 +9938,7 @@
       <c r="I209" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J209" s="19" t="s">
+      <c r="J209" s="20" t="s">
         <v>215</v>
       </c>
       <c r="O209" s="1">
@@ -9981,7 +9980,7 @@
       <c r="I210" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J210" s="19"/>
+      <c r="J210" s="20"/>
       <c r="M210" s="1" t="s">
         <v>287</v>
       </c>
@@ -10024,7 +10023,7 @@
       <c r="I211" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J211" s="19"/>
+      <c r="J211" s="20"/>
       <c r="O211" s="1">
         <f>1000*60*60</f>
         <v>3600000</v>
@@ -10067,7 +10066,7 @@
       <c r="I212" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J212" s="19"/>
+      <c r="J212" s="20"/>
       <c r="O212" s="1">
         <f>1000*60*60</f>
         <v>3600000</v>
@@ -10107,7 +10106,7 @@
       <c r="I213" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J213" s="19"/>
+      <c r="J213" s="20"/>
       <c r="O213" s="1">
         <f>1000*60*60</f>
         <v>3600000</v>
@@ -10150,7 +10149,7 @@
       <c r="I214" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J214" s="19"/>
+      <c r="J214" s="20"/>
       <c r="L214" s="1">
         <v>1</v>
       </c>
@@ -10189,7 +10188,7 @@
       <c r="I215" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J215" s="19"/>
+      <c r="J215" s="20"/>
       <c r="L215" s="1">
         <v>1</v>
       </c>
@@ -10228,7 +10227,7 @@
       <c r="I216" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J216" s="19" t="s">
+      <c r="J216" s="20" t="s">
         <v>216</v>
       </c>
       <c r="O216" s="1">
@@ -10270,7 +10269,7 @@
       <c r="I217" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J217" s="19"/>
+      <c r="J217" s="20"/>
       <c r="M217" s="1" t="s">
         <v>287</v>
       </c>
@@ -10313,7 +10312,7 @@
       <c r="I218" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J218" s="19"/>
+      <c r="J218" s="20"/>
       <c r="O218" s="1">
         <f>1000*60*60</f>
         <v>3600000</v>
@@ -10356,7 +10355,7 @@
       <c r="I219" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J219" s="19"/>
+      <c r="J219" s="20"/>
       <c r="O219" s="1">
         <f>1000*60*60</f>
         <v>3600000</v>
@@ -10396,7 +10395,7 @@
       <c r="I220" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J220" s="19"/>
+      <c r="J220" s="20"/>
       <c r="O220" s="1">
         <f>1000*60*60</f>
         <v>3600000</v>
@@ -10439,7 +10438,7 @@
       <c r="I221" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J221" s="19"/>
+      <c r="J221" s="20"/>
       <c r="L221" s="1">
         <v>1</v>
       </c>
@@ -10478,7 +10477,7 @@
       <c r="I222" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J222" s="19"/>
+      <c r="J222" s="20"/>
       <c r="L222" s="1">
         <v>1</v>
       </c>
@@ -10517,7 +10516,7 @@
       <c r="I223" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J223" s="19" t="s">
+      <c r="J223" s="20" t="s">
         <v>217</v>
       </c>
       <c r="O223" s="1">
@@ -10559,7 +10558,7 @@
       <c r="I224" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J224" s="19"/>
+      <c r="J224" s="20"/>
       <c r="M224" s="1" t="s">
         <v>287</v>
       </c>
@@ -10602,7 +10601,7 @@
       <c r="I225" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J225" s="19"/>
+      <c r="J225" s="20"/>
       <c r="O225" s="1">
         <f>1000*60*60</f>
         <v>3600000</v>
@@ -10645,7 +10644,7 @@
       <c r="I226" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J226" s="19"/>
+      <c r="J226" s="20"/>
       <c r="O226" s="1">
         <f>1000*60*60</f>
         <v>3600000</v>
@@ -10685,7 +10684,7 @@
       <c r="I227" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J227" s="19"/>
+      <c r="J227" s="20"/>
       <c r="O227" s="1">
         <f>1000*60*60</f>
         <v>3600000</v>
@@ -10728,7 +10727,7 @@
       <c r="I228" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J228" s="19"/>
+      <c r="J228" s="20"/>
       <c r="L228" s="1">
         <v>1</v>
       </c>
@@ -10767,7 +10766,7 @@
       <c r="I229" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J229" s="19"/>
+      <c r="J229" s="20"/>
       <c r="L229" s="1">
         <v>1</v>
       </c>
@@ -10806,7 +10805,7 @@
       <c r="I230" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J230" s="19" t="s">
+      <c r="J230" s="20" t="s">
         <v>218</v>
       </c>
       <c r="O230" s="1">
@@ -10848,7 +10847,7 @@
       <c r="I231" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J231" s="19"/>
+      <c r="J231" s="20"/>
       <c r="M231" s="1" t="s">
         <v>287</v>
       </c>
@@ -10891,7 +10890,7 @@
       <c r="I232" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J232" s="19"/>
+      <c r="J232" s="20"/>
       <c r="O232" s="1">
         <f>1000*60*60</f>
         <v>3600000</v>
@@ -10934,7 +10933,7 @@
       <c r="I233" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J233" s="19"/>
+      <c r="J233" s="20"/>
       <c r="O233" s="1">
         <f>1000*60*60</f>
         <v>3600000</v>
@@ -10974,7 +10973,7 @@
       <c r="I234" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J234" s="19"/>
+      <c r="J234" s="20"/>
       <c r="O234" s="1">
         <f>1000*60*60</f>
         <v>3600000</v>
@@ -11017,7 +11016,7 @@
       <c r="I235" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J235" s="19"/>
+      <c r="J235" s="20"/>
       <c r="L235" s="1">
         <v>1</v>
       </c>
@@ -11056,7 +11055,7 @@
       <c r="I236" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J236" s="19"/>
+      <c r="J236" s="20"/>
       <c r="L236" s="1">
         <v>1</v>
       </c>
@@ -11095,7 +11094,7 @@
       <c r="I237" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J237" s="19" t="s">
+      <c r="J237" s="20" t="s">
         <v>219</v>
       </c>
       <c r="O237" s="1">
@@ -11137,7 +11136,7 @@
       <c r="I238" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J238" s="19"/>
+      <c r="J238" s="20"/>
       <c r="M238" s="1" t="s">
         <v>287</v>
       </c>
@@ -11180,7 +11179,7 @@
       <c r="I239" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J239" s="19"/>
+      <c r="J239" s="20"/>
       <c r="O239" s="1">
         <f>1000*60*60</f>
         <v>3600000</v>
@@ -11223,7 +11222,7 @@
       <c r="I240" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J240" s="19"/>
+      <c r="J240" s="20"/>
       <c r="O240" s="1">
         <f>1000*60*60</f>
         <v>3600000</v>
@@ -11263,7 +11262,7 @@
       <c r="I241" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J241" s="19"/>
+      <c r="J241" s="20"/>
       <c r="O241" s="1">
         <f>1000*60*60</f>
         <v>3600000</v>
@@ -11306,7 +11305,7 @@
       <c r="I242" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J242" s="19"/>
+      <c r="J242" s="20"/>
       <c r="L242" s="1">
         <v>1</v>
       </c>
@@ -11345,7 +11344,7 @@
       <c r="I243" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J243" s="19"/>
+      <c r="J243" s="20"/>
       <c r="L243" s="1">
         <v>1</v>
       </c>
@@ -11356,7 +11355,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="244" spans="1:18" hidden="1">
+    <row r="244" spans="1:18">
       <c r="A244" s="1" t="s">
         <v>127</v>
       </c>
@@ -11397,7 +11396,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="245" spans="1:18" ht="30" hidden="1" customHeight="1">
+    <row r="245" spans="1:18" ht="30" customHeight="1">
       <c r="A245" s="1" t="s">
         <v>127</v>
       </c>
@@ -11438,7 +11437,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="246" spans="1:18" hidden="1">
+    <row r="246" spans="1:18">
       <c r="A246" s="1" t="s">
         <v>127</v>
       </c>
@@ -11466,7 +11465,7 @@
       <c r="I246" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J246" s="19" t="s">
+      <c r="J246" s="20" t="s">
         <v>224</v>
       </c>
       <c r="P246" s="1">
@@ -11479,7 +11478,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="247" spans="1:18" hidden="1">
+    <row r="247" spans="1:18">
       <c r="A247" s="1" t="s">
         <v>127</v>
       </c>
@@ -11507,7 +11506,7 @@
       <c r="I247" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J247" s="19"/>
+      <c r="J247" s="20"/>
       <c r="P247" s="1">
         <v>1</v>
       </c>
@@ -11518,7 +11517,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="248" spans="1:18" hidden="1">
+    <row r="248" spans="1:18">
       <c r="A248" s="1" t="s">
         <v>127</v>
       </c>
@@ -11546,7 +11545,7 @@
       <c r="I248" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J248" s="19"/>
+      <c r="J248" s="20"/>
       <c r="P248" s="1">
         <v>1</v>
       </c>
@@ -11557,7 +11556,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="249" spans="1:18" hidden="1">
+    <row r="249" spans="1:18">
       <c r="A249" s="1" t="s">
         <v>127</v>
       </c>
@@ -11585,7 +11584,7 @@
       <c r="I249" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J249" s="20" t="s">
+      <c r="J249" s="19" t="s">
         <v>221</v>
       </c>
       <c r="P249" s="1">
@@ -11598,7 +11597,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="250" spans="1:18" hidden="1">
+    <row r="250" spans="1:18">
       <c r="A250" s="1" t="s">
         <v>127</v>
       </c>
@@ -11626,7 +11625,7 @@
       <c r="I250" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J250" s="20"/>
+      <c r="J250" s="19"/>
       <c r="P250" s="1">
         <v>1</v>
       </c>
@@ -11637,7 +11636,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="251" spans="1:18" hidden="1">
+    <row r="251" spans="1:18">
       <c r="A251" s="1" t="s">
         <v>127</v>
       </c>
@@ -11665,7 +11664,7 @@
       <c r="I251" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J251" s="20" t="s">
+      <c r="J251" s="19" t="s">
         <v>221</v>
       </c>
       <c r="P251" s="1">
@@ -11678,7 +11677,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="252" spans="1:18" hidden="1">
+    <row r="252" spans="1:18">
       <c r="A252" s="1" t="s">
         <v>127</v>
       </c>
@@ -11706,7 +11705,7 @@
       <c r="I252" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J252" s="20"/>
+      <c r="J252" s="19"/>
       <c r="P252" s="1">
         <v>1</v>
       </c>
@@ -11717,7 +11716,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="253" spans="1:18" hidden="1">
+    <row r="253" spans="1:18">
       <c r="A253" s="1" t="s">
         <v>127</v>
       </c>
@@ -11745,7 +11744,7 @@
       <c r="I253" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J253" s="20"/>
+      <c r="J253" s="19"/>
       <c r="P253" s="1">
         <v>1</v>
       </c>
@@ -11756,7 +11755,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="254" spans="1:18" hidden="1">
+    <row r="254" spans="1:18">
       <c r="A254" s="1" t="s">
         <v>127</v>
       </c>
@@ -11784,7 +11783,7 @@
       <c r="I254" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J254" s="20"/>
+      <c r="J254" s="19"/>
       <c r="P254" s="1">
         <v>1</v>
       </c>
@@ -11795,7 +11794,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="255" spans="1:18" hidden="1">
+    <row r="255" spans="1:18">
       <c r="A255" s="1" t="s">
         <v>127</v>
       </c>
@@ -11823,7 +11822,7 @@
       <c r="I255" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J255" s="20"/>
+      <c r="J255" s="19"/>
       <c r="P255" s="1">
         <v>1</v>
       </c>
@@ -11834,7 +11833,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="256" spans="1:18" hidden="1">
+    <row r="256" spans="1:18">
       <c r="A256" s="1" t="s">
         <v>127</v>
       </c>
@@ -11862,7 +11861,7 @@
       <c r="I256" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J256" s="20"/>
+      <c r="J256" s="19"/>
       <c r="P256" s="1">
         <v>1</v>
       </c>
@@ -11873,7 +11872,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="257" spans="1:18" hidden="1">
+    <row r="257" spans="1:18">
       <c r="A257" s="1" t="s">
         <v>127</v>
       </c>
@@ -11901,7 +11900,7 @@
       <c r="I257" s="1">
         <v>10</v>
       </c>
-      <c r="J257" s="20"/>
+      <c r="J257" s="19"/>
       <c r="P257" s="1">
         <v>1</v>
       </c>
@@ -11912,7 +11911,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="258" spans="1:18" ht="30" hidden="1" customHeight="1">
+    <row r="258" spans="1:18" ht="30" customHeight="1">
       <c r="A258" s="1" t="s">
         <v>237</v>
       </c>
@@ -11953,7 +11952,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="259" spans="1:18" hidden="1">
+    <row r="259" spans="1:18">
       <c r="A259" s="1" t="s">
         <v>237</v>
       </c>
@@ -11995,20 +11994,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R259" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="5">
-      <filters blank="1">
-        <filter val="RW"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:R259" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="15">
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="J18:J24"/>
-    <mergeCell ref="J68:J69"/>
-    <mergeCell ref="E149:E151"/>
-    <mergeCell ref="F149:F151"/>
-    <mergeCell ref="G149:G151"/>
     <mergeCell ref="J237:J243"/>
     <mergeCell ref="J246:J248"/>
     <mergeCell ref="J249:J250"/>
@@ -12018,6 +12005,12 @@
     <mergeCell ref="J216:J222"/>
     <mergeCell ref="J223:J229"/>
     <mergeCell ref="J230:J236"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="J18:J24"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="E149:E151"/>
+    <mergeCell ref="F149:F151"/>
+    <mergeCell ref="G149:G151"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="0"/>
